--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4541,10 +4574,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4651,10 +4684,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4667,84 +4700,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>2093456735.9815</v>
+        <v>2567960782</v>
       </c>
       <c r="AA2" t="n">
-        <v>2343488085</v>
+        <v>2039148182.7969</v>
       </c>
       <c r="AB2" t="n">
-        <v>3835139136.8467</v>
+        <v>2458932140.9917</v>
       </c>
       <c r="AC2" t="n">
-        <v>8700836474.0441</v>
+        <v>6164126778.125</v>
       </c>
       <c r="AD2" t="n">
-        <v>6759772951.4358</v>
+        <v>3756314888.1182</v>
       </c>
       <c r="AE2" t="n">
-        <v>11117816201.8684</v>
+        <v>6393170389.22</v>
       </c>
       <c r="AF2" t="n">
-        <v>9604689248.3746</v>
+        <v>8563835464.208</v>
       </c>
       <c r="AG2" t="n">
-        <v>20152059832.0111</v>
+        <v>12917488185.2072</v>
       </c>
       <c r="AH2" t="n">
-        <v>28767470659.2672</v>
+        <v>17694784367.1524</v>
       </c>
       <c r="AI2" t="n">
-        <v>19557716682.1136</v>
+        <v>9980548003.375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16235343814.0836</v>
+        <v>8201568872.0863</v>
       </c>
       <c r="AK2" t="n">
-        <v>12428436251.991</v>
+        <v>6128335341.3711</v>
       </c>
       <c r="AL2" t="n">
-        <v>6519820010.5957</v>
+        <v>3632894190.242</v>
       </c>
       <c r="AM2" t="n">
-        <v>4621227533.9046</v>
+        <v>2784852680.752</v>
       </c>
       <c r="AN2" t="n">
-        <v>3587679208.2345</v>
+        <v>2906630361.1316</v>
       </c>
       <c r="AO2" t="n">
-        <v>5338394558.6023</v>
+        <v>3900560170.0003</v>
       </c>
       <c r="AP2" t="n">
-        <v>5006344883.5449</v>
+        <v>4232566764.82</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6050990172.1041</v>
+        <v>3766849635.7367</v>
       </c>
       <c r="AR2" t="n">
-        <v>7469442700.8342</v>
+        <v>5162977225.3893</v>
       </c>
       <c r="AS2" t="n">
-        <v>7830903930.8369</v>
+        <v>6261437086.375</v>
       </c>
       <c r="AT2" t="n">
-        <v>7853888109.4488</v>
+        <v>5759005401.1018</v>
       </c>
       <c r="AU2" t="n">
-        <v>5872857274.0338</v>
+        <v>3354601889.87</v>
       </c>
       <c r="AV2" t="n">
-        <v>5898471649.5064</v>
+        <v>3653281351.1445</v>
       </c>
       <c r="AW2" t="n">
-        <v>3391137360.8292</v>
+        <v>2240346193.4822</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4757,84 +4790,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>84160718</v>
+        <v>102774117</v>
       </c>
       <c r="AA3" t="n">
-        <v>80387605</v>
+        <v>120885561</v>
       </c>
       <c r="AB3" t="n">
-        <v>79689745</v>
+        <v>183530727.7793</v>
       </c>
       <c r="AC3" t="n">
-        <v>135933144</v>
+        <v>326891545.5003</v>
       </c>
       <c r="AD3" t="n">
-        <v>163198600</v>
+        <v>418175853.9423</v>
       </c>
       <c r="AE3" t="n">
-        <v>196189849.1371</v>
+        <v>509943877.3732</v>
       </c>
       <c r="AF3" t="n">
-        <v>108484498.0493</v>
+        <v>504282143.5415</v>
       </c>
       <c r="AG3" t="n">
-        <v>101211759.8302</v>
+        <v>494436783.3608</v>
       </c>
       <c r="AH3" t="n">
-        <v>190127627.8942</v>
+        <v>638209522.533</v>
       </c>
       <c r="AI3" t="n">
-        <v>371482128.9517</v>
+        <v>651894974.3977</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11302768.5422</v>
+        <v>695410487.1099</v>
       </c>
       <c r="AK3" t="n">
-        <v>52871985.3049</v>
+        <v>733786807.2216</v>
       </c>
       <c r="AL3" t="n">
-        <v>83384355.8596</v>
+        <v>598610129.3638</v>
       </c>
       <c r="AM3" t="n">
-        <v>77168108.3885</v>
+        <v>482406806.3622</v>
       </c>
       <c r="AN3" t="n">
-        <v>56985068.2196</v>
+        <v>508077877.5637</v>
       </c>
       <c r="AO3" t="n">
-        <v>68701439.3897</v>
+        <v>587183609.9264</v>
       </c>
       <c r="AP3" t="n">
-        <v>69171381.6357</v>
+        <v>526678612.7845</v>
       </c>
       <c r="AQ3" t="n">
-        <v>103154932.7858</v>
+        <v>525878228.1736</v>
       </c>
       <c r="AR3" t="n">
-        <v>93183548.2283</v>
+        <v>878190321.8045</v>
       </c>
       <c r="AS3" t="n">
-        <v>59221283.6536</v>
+        <v>784805190.8353</v>
       </c>
       <c r="AT3" t="n">
-        <v>63356169.8832</v>
+        <v>589091254.3553</v>
       </c>
       <c r="AU3" t="n">
-        <v>43816364.2871</v>
+        <v>409348770.4257</v>
       </c>
       <c r="AV3" t="n">
-        <v>54082670.4849</v>
+        <v>461326793.3857</v>
       </c>
       <c r="AW3" t="n">
-        <v>34485608.6397</v>
+        <v>212852961.781</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4846,85 +4879,65 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4" t="n">
-        <v>91304644</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>32940794</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>54237461</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>59654793</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>135335517</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>320771590.6533</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>332621519.5732</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>189403707.5138</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>632226459.1588</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>461879992.5888</v>
-      </c>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
       <c r="AJ4" t="n">
-        <v>255457700.6809</v>
+        <v>21226070.5736</v>
       </c>
       <c r="AK4" t="n">
-        <v>195276084.7593</v>
+        <v>759941264.3133</v>
       </c>
       <c r="AL4" t="n">
-        <v>68314482.9297</v>
+        <v>604490429.72</v>
       </c>
       <c r="AM4" t="n">
-        <v>23928411.6059</v>
+        <v>114768722.4538</v>
       </c>
       <c r="AN4" t="n">
-        <v>-5718044.7806</v>
+        <v>209831912.8197</v>
       </c>
       <c r="AO4" t="n">
-        <v>26468673.8959</v>
+        <v>118706724.218</v>
       </c>
       <c r="AP4" t="n">
-        <v>52461607.4648</v>
+        <v>47904950.322</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4073545.1261</v>
+        <v>56542700.0405</v>
       </c>
       <c r="AR4" t="n">
-        <v>28288111.745</v>
+        <v>73269034.2496</v>
       </c>
       <c r="AS4" t="n">
-        <v>84754626.0529</v>
+        <v>79529681.0209</v>
       </c>
       <c r="AT4" t="n">
-        <v>57117742.1071</v>
+        <v>119588151.14</v>
       </c>
       <c r="AU4" t="n">
-        <v>133327128.9644</v>
+        <v>159828626.3764</v>
       </c>
       <c r="AV4" t="n">
-        <v>42207712.5864</v>
+        <v>119364319.9636</v>
       </c>
       <c r="AW4" t="n">
-        <v>11561085.9936</v>
+        <v>124831577.0079</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4937,84 +4950,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>30955836</v>
+        <v>22115873</v>
       </c>
       <c r="AA5" t="n">
-        <v>1150507</v>
+        <v>26933843</v>
       </c>
       <c r="AB5" t="n">
-        <v>8264374</v>
+        <v>45428040.3301</v>
       </c>
       <c r="AC5" t="n">
-        <v>2908169</v>
+        <v>76796251</v>
       </c>
       <c r="AD5" t="n">
-        <v>20655709</v>
+        <v>106973980.8999</v>
       </c>
       <c r="AE5" t="n">
-        <v>30330308.9477</v>
+        <v>150193947.3984</v>
       </c>
       <c r="AF5" t="n">
-        <v>111052625</v>
+        <v>163591306.5192</v>
       </c>
       <c r="AG5" t="n">
-        <v>28066851.7188</v>
+        <v>181859904.7916</v>
       </c>
       <c r="AH5" t="n">
-        <v>86722462</v>
+        <v>98071860.1189</v>
       </c>
       <c r="AI5" t="n">
-        <v>372286358.0604</v>
+        <v>247874885.6545</v>
       </c>
       <c r="AJ5" t="n">
-        <v>363479757.816</v>
+        <v>171444761.0126</v>
       </c>
       <c r="AK5" t="n">
-        <v>400838494.7965</v>
+        <v>133624853.5705</v>
       </c>
       <c r="AL5" t="n">
-        <v>644408586.099</v>
+        <v>106034763.9892</v>
       </c>
       <c r="AM5" t="n">
-        <v>626922842.85</v>
+        <v>77304620.1385</v>
       </c>
       <c r="AN5" t="n">
-        <v>591656248.0272</v>
+        <v>76913865.8155</v>
       </c>
       <c r="AO5" t="n">
-        <v>1123132705.986</v>
+        <v>38154734.6105</v>
       </c>
       <c r="AP5" t="n">
-        <v>966374377.951</v>
+        <v>36755260.8908</v>
       </c>
       <c r="AQ5" t="n">
-        <v>958803560.0879</v>
+        <v>38105230.3268</v>
       </c>
       <c r="AR5" t="n">
-        <v>3245394608.0548</v>
+        <v>48732607.2898</v>
       </c>
       <c r="AS5" t="n">
-        <v>3226424318.7664</v>
+        <v>71724630.559</v>
       </c>
       <c r="AT5" t="n">
-        <v>2113491716.9231</v>
+        <v>125740590.5561</v>
       </c>
       <c r="AU5" t="n">
-        <v>1891871805.327</v>
+        <v>168266427.6754</v>
       </c>
       <c r="AV5" t="n">
-        <v>2151339847.4692</v>
+        <v>34947229.9748</v>
       </c>
       <c r="AW5" t="n">
-        <v>1200508032.5771</v>
+        <v>5200679.0326</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -5027,84 +5040,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>918847493.4375</v>
+        <v>123125334</v>
       </c>
       <c r="AA6" t="n">
-        <v>793624060</v>
+        <v>218853345</v>
       </c>
       <c r="AB6" t="n">
-        <v>721644049</v>
+        <v>276817698.3203</v>
       </c>
       <c r="AC6" t="n">
-        <v>562887710</v>
+        <v>468345261</v>
       </c>
       <c r="AD6" t="n">
-        <v>989854346</v>
+        <v>480349307.5091</v>
       </c>
       <c r="AE6" t="n">
-        <v>2093088902</v>
+        <v>1275203785.3917</v>
       </c>
       <c r="AF6" t="n">
-        <v>4800736041.7039</v>
+        <v>1084465304.4663</v>
       </c>
       <c r="AG6" t="n">
-        <v>5832042117.4612</v>
+        <v>1132844429.0062</v>
       </c>
       <c r="AH6" t="n">
-        <v>7963998824.6952</v>
+        <v>1058552498.467</v>
       </c>
       <c r="AI6" t="n">
-        <v>6120470286.7576</v>
+        <v>3683927087.3396</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3855801663.6071</v>
+        <v>4517256548.8732</v>
       </c>
       <c r="AK6" t="n">
-        <v>3597766300.2285</v>
+        <v>3388583251.8504</v>
       </c>
       <c r="AL6" t="n">
-        <v>1982832090.3539</v>
+        <v>999941989.5241</v>
       </c>
       <c r="AM6" t="n">
-        <v>1390400591.7497</v>
+        <v>589107984.7742</v>
       </c>
       <c r="AN6" t="n">
-        <v>1182623716.6221</v>
+        <v>342327670.9851</v>
       </c>
       <c r="AO6" t="n">
-        <v>911377393.098</v>
+        <v>398641230.4256</v>
       </c>
       <c r="AP6" t="n">
-        <v>649563464.814</v>
+        <v>611380485.1311</v>
       </c>
       <c r="AQ6" t="n">
-        <v>774798581.1456</v>
+        <v>457036306.7709</v>
       </c>
       <c r="AR6" t="n">
-        <v>1269206377.2964</v>
+        <v>452743532.8054</v>
       </c>
       <c r="AS6" t="n">
-        <v>1027000021.2847</v>
+        <v>598116282.2647</v>
       </c>
       <c r="AT6" t="n">
-        <v>1277191303.8535</v>
+        <v>343342039.5915</v>
       </c>
       <c r="AU6" t="n">
-        <v>1647567482.4849</v>
+        <v>236755350.8714</v>
       </c>
       <c r="AV6" t="n">
-        <v>2253175886.1074</v>
+        <v>122871394.476</v>
       </c>
       <c r="AW6" t="n">
-        <v>1240361379.8584</v>
+        <v>166791468.1403</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5117,84 +5130,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>110027344</v>
+        <v>555182489.419</v>
       </c>
       <c r="AA7" t="n">
-        <v>15855492</v>
+        <v>890600070.4609</v>
       </c>
       <c r="AB7" t="n">
-        <v>32382282</v>
+        <v>1813980771.9258</v>
       </c>
       <c r="AC7" t="n">
-        <v>45992146</v>
+        <v>2599956323.8087</v>
       </c>
       <c r="AD7" t="n">
-        <v>367042946</v>
+        <v>3781070117.9663</v>
       </c>
       <c r="AE7" t="n">
-        <v>1350412609</v>
+        <v>6932901396.4107</v>
       </c>
       <c r="AF7" t="n">
-        <v>767525774.02</v>
+        <v>5813270990.5446</v>
       </c>
       <c r="AG7" t="n">
-        <v>1459077137.7921</v>
+        <v>13471961288.8451</v>
       </c>
       <c r="AH7" t="n">
-        <v>1905587007.1178</v>
+        <v>20267282509.6863</v>
       </c>
       <c r="AI7" t="n">
-        <v>1138805194.3427</v>
+        <v>14270908747.0331</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4821736617.3757</v>
+        <v>11729100413.6606</v>
       </c>
       <c r="AK7" t="n">
-        <v>2903816859.8941</v>
+        <v>8433927095.7656</v>
       </c>
       <c r="AL7" t="n">
-        <v>1538442768.7119</v>
+        <v>4894546417.6416</v>
       </c>
       <c r="AM7" t="n">
-        <v>695403207.51</v>
+        <v>3386422401.928</v>
       </c>
       <c r="AN7" t="n">
-        <v>412624387.29</v>
+        <v>1781065546.9168</v>
       </c>
       <c r="AO7" t="n">
-        <v>29957755.7005</v>
+        <v>2454349168.576</v>
       </c>
       <c r="AP7" t="n">
-        <v>604099156.4609</v>
+        <v>1897292483.5938</v>
       </c>
       <c r="AQ7" t="n">
-        <v>345442314.1106</v>
+        <v>3408668344.743</v>
       </c>
       <c r="AR7" t="n">
-        <v>583594057.2764</v>
+        <v>6073152593.7559</v>
       </c>
       <c r="AS7" t="n">
-        <v>680435437.4685</v>
+        <v>5113126747.0081</v>
       </c>
       <c r="AT7" t="n">
-        <v>380707733.2272</v>
+        <v>4808985338.6982</v>
       </c>
       <c r="AU7" t="n">
-        <v>98365945.3652</v>
+        <v>5359004935.2435</v>
       </c>
       <c r="AV7" t="n">
-        <v>357089842.9543</v>
+        <v>6364576520.164</v>
       </c>
       <c r="AW7" t="n">
-        <v>533092183.145</v>
+        <v>3661122771.599</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5206,51 +5219,61 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
+      <c r="Z8" t="n">
+        <v>25108379</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1368664</v>
+      </c>
       <c r="AB8" t="n">
-        <v>13216.3203</v>
+        <v>6068460</v>
       </c>
       <c r="AC8" t="n">
-        <v>114874</v>
+        <v>5396471</v>
       </c>
       <c r="AD8" t="n">
-        <v>234500</v>
+        <v>2606539</v>
       </c>
       <c r="AE8" t="n">
-        <v>13451884.1875</v>
+        <v>359187</v>
       </c>
       <c r="AF8" t="n">
-        <v>54597604</v>
+        <v>2319712</v>
       </c>
       <c r="AG8" t="n">
-        <v>436281795.5313</v>
+        <v>6283</v>
       </c>
       <c r="AH8" t="n">
-        <v>168328364.132</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>813187516.6452</v>
-      </c>
+        <v>230847</v>
+      </c>
+      <c r="AI8"/>
       <c r="AJ8" t="n">
-        <v>-224822649.1682</v>
+        <v>87757.3989</v>
       </c>
       <c r="AK8" t="n">
-        <v>-793142.3124</v>
+        <v>-10513.54</v>
       </c>
       <c r="AL8" t="n">
-        <v>-673666.0691</v>
+        <v>10708</v>
       </c>
       <c r="AM8" t="n">
-        <v>-150606.43</v>
+        <v>36873.17</v>
       </c>
       <c r="AN8" t="n">
-        <v>-264049.56</v>
-      </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
+        <v>739298.8204</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>537224.9709</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19174</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>224007.9677</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>44088.1406</v>
+      </c>
       <c r="AS8"/>
       <c r="AT8"/>
       <c r="AU8"/>
@@ -5258,9 +5281,7 @@
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>4275032000</v>
@@ -5293,40 +5314,34 @@
         <v>3507393596</v>
       </c>
       <c r="Z9" t="n">
-        <v>67514203</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>30343123.2578</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>53387575.1802</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>133185320.3899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
       <c r="AD9" t="n">
-        <v>109396118</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>139711237</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>352057610.5586</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>453672.3524</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>42670200.6924</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-674461.6601</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17795237.7778</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-24734.1094</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -5338,39 +5353,31 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>100336.0553</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>4582859.6709</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16041348.3991</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9"/>
+      <c r="AS9"/>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5477,10 +5484,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5493,84 +5500,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>3382460956.217</v>
+        <v>4149131402.10614</v>
       </c>
       <c r="AA14" t="n">
-        <v>3696798881.48289</v>
+        <v>3216709643.02831</v>
       </c>
       <c r="AB14" t="n">
-        <v>5955840072.77418</v>
+        <v>3818637618.8667</v>
       </c>
       <c r="AC14" t="n">
-        <v>13258668171.5791</v>
+        <v>9393132690.4616</v>
       </c>
       <c r="AD14" t="n">
-        <v>10055022531.8695</v>
+        <v>5587440748.11018</v>
       </c>
       <c r="AE14" t="n">
-        <v>16050287681.7195</v>
+        <v>9229530519.49064</v>
       </c>
       <c r="AF14" t="n">
-        <v>13428650121.3138</v>
+        <v>11973396241.3006</v>
       </c>
       <c r="AG14" t="n">
-        <v>27423264474.2329</v>
+        <v>17578336795.2796</v>
       </c>
       <c r="AH14" t="n">
-        <v>38347492099.3418</v>
+        <v>23587426637.3969</v>
       </c>
       <c r="AI14" t="n">
-        <v>25808480177.028</v>
+        <v>13170390975.985</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21239526757.786</v>
+        <v>10729519713.8598</v>
       </c>
       <c r="AK14" t="n">
-        <v>15938014017.2824</v>
+        <v>7858872394.96704</v>
       </c>
       <c r="AL14" t="n">
-        <v>8210409337.77662</v>
+        <v>4574903652.89886</v>
       </c>
       <c r="AM14" t="n">
-        <v>5714928636.80538</v>
+        <v>3443940861.54564</v>
       </c>
       <c r="AN14" t="n">
-        <v>4352566886.19028</v>
+        <v>3526319474.50018</v>
       </c>
       <c r="AO14" t="n">
-        <v>6403124365.40504</v>
+        <v>4678517406.13877</v>
       </c>
       <c r="AP14" t="n">
-        <v>5955497936.24319</v>
+        <v>5035019204.47966</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7071936823.6948</v>
+        <v>4402407191.32165</v>
       </c>
       <c r="AR14" t="n">
-        <v>8529442502.89328</v>
+        <v>5895663057.00255</v>
       </c>
       <c r="AS14" t="n">
-        <v>8770417397.56874</v>
+        <v>7012653614.59447</v>
       </c>
       <c r="AT14" t="n">
-        <v>8680359225.58041</v>
+        <v>6365030283.97865</v>
       </c>
       <c r="AU14" t="n">
-        <v>6279773429.88525</v>
+        <v>3587034186.74759</v>
       </c>
       <c r="AV14" t="n">
-        <v>5898471649.5064</v>
+        <v>3653281351.1445</v>
       </c>
       <c r="AW14" t="n">
-        <v>3234461319.20146</v>
+        <v>2136838568.71741</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5583,84 +5590,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>135981001.082749</v>
+        <v>166055229.175393</v>
       </c>
       <c r="AA15" t="n">
-        <v>126809609.210831</v>
+        <v>190694209.009487</v>
       </c>
       <c r="AB15" t="n">
-        <v>123755451.816644</v>
+        <v>285016950.90836</v>
       </c>
       <c r="AC15" t="n">
-        <v>207140135.915896</v>
+        <v>498129868.641082</v>
       </c>
       <c r="AD15" t="n">
-        <v>242754543.970447</v>
+        <v>622027938.494663</v>
       </c>
       <c r="AE15" t="n">
-        <v>283230399.001777</v>
+        <v>736182878.432177</v>
       </c>
       <c r="AF15" t="n">
-        <v>151675950.175789</v>
+        <v>705054405.50208</v>
       </c>
       <c r="AG15" t="n">
-        <v>137730677.70061</v>
+        <v>672837952.493271</v>
       </c>
       <c r="AH15" t="n">
-        <v>253443126.609767</v>
+        <v>850743359.155035</v>
       </c>
       <c r="AI15" t="n">
-        <v>490210044.301245</v>
+        <v>860244516.15223</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14786595.0754224</v>
+        <v>909755273.294742</v>
       </c>
       <c r="AK15" t="n">
-        <v>67802129.3930724</v>
+        <v>940995647.567588</v>
       </c>
       <c r="AL15" t="n">
-        <v>105005919.313959</v>
+        <v>753829735.764003</v>
       </c>
       <c r="AM15" t="n">
-        <v>95431404.1544105</v>
+        <v>596577522.323331</v>
       </c>
       <c r="AN15" t="n">
-        <v>69134196.940083</v>
+        <v>616399298.023597</v>
       </c>
       <c r="AO15" t="n">
-        <v>82403774.330566</v>
+        <v>704295952.352876</v>
       </c>
       <c r="AP15" t="n">
-        <v>82285585.6240586</v>
+        <v>626531624.261676</v>
       </c>
       <c r="AQ15" t="n">
-        <v>120559635.194382</v>
+        <v>614606452.964551</v>
       </c>
       <c r="AR15" t="n">
-        <v>106407365.135836</v>
+        <v>1002815625.80195</v>
       </c>
       <c r="AS15" t="n">
-        <v>66326362.9651473</v>
+        <v>878962270.536828</v>
       </c>
       <c r="AT15" t="n">
-        <v>70023191.835575</v>
+        <v>651081812.370082</v>
       </c>
       <c r="AU15" t="n">
-        <v>46852294.7868799</v>
+        <v>437711562.213714</v>
       </c>
       <c r="AV15" t="n">
-        <v>54082670.4849</v>
+        <v>461326793.3857</v>
       </c>
       <c r="AW15" t="n">
-        <v>32892317.6343865</v>
+        <v>203018810.004726</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5672,85 +5679,65 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16" t="n">
-        <v>147523656.994276</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>51963349.5018851</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>84228924.2040188</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>90904260.4800976</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>201308783.974493</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>463083416.439554</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>465049716.202337</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>257743774.425507</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>842767841.314433</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>609499607.067917</v>
-      </c>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
       <c r="AJ16" t="n">
-        <v>334196844.318614</v>
+        <v>27768533.8280025</v>
       </c>
       <c r="AK16" t="n">
-        <v>250418710.208629</v>
+        <v>974535675.877678</v>
       </c>
       <c r="AL16" t="n">
-        <v>86028428.336957</v>
+        <v>761234798.001152</v>
       </c>
       <c r="AM16" t="n">
-        <v>29591523.8357201</v>
+        <v>141930916.352566</v>
       </c>
       <c r="AN16" t="n">
-        <v>-6937123.11531894</v>
+        <v>254567753.24526</v>
       </c>
       <c r="AO16" t="n">
-        <v>31747786.5081541</v>
+        <v>142382491.558792</v>
       </c>
       <c r="AP16" t="n">
-        <v>62407804.9467873</v>
+        <v>56987251.061395</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4760849.5404698</v>
+        <v>66082804.8227513</v>
       </c>
       <c r="AR16" t="n">
-        <v>32302520.0551376</v>
+        <v>83666752.64872</v>
       </c>
       <c r="AS16" t="n">
-        <v>94923070.6217266</v>
+        <v>89071262.2973336</v>
       </c>
       <c r="AT16" t="n">
-        <v>63128289.1651081</v>
+        <v>132172510.806378</v>
       </c>
       <c r="AU16" t="n">
-        <v>142565045.068505</v>
+        <v>170902767.498075</v>
       </c>
       <c r="AV16" t="n">
-        <v>42207712.5864</v>
+        <v>119364319.9636</v>
       </c>
       <c r="AW16" t="n">
-        <v>11026945.085208</v>
+        <v>119064155.85249</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5763,84 +5750,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>50016274.4409263</v>
+        <v>35733280.5829787</v>
       </c>
       <c r="AA17" t="n">
-        <v>1814898.49168072</v>
+        <v>42487521.6194819</v>
       </c>
       <c r="AB17" t="n">
-        <v>12834290.514441</v>
+        <v>70548194.8297894</v>
       </c>
       <c r="AC17" t="n">
-        <v>4431579.40881875</v>
+        <v>117025071.309844</v>
       </c>
       <c r="AD17" t="n">
-        <v>30724940.1568473</v>
+        <v>159121585.295821</v>
       </c>
       <c r="AE17" t="n">
-        <v>43786493.2507345</v>
+        <v>216828198.993994</v>
       </c>
       <c r="AF17" t="n">
-        <v>155266537.793593</v>
+        <v>228722695.896352</v>
       </c>
       <c r="AG17" t="n">
-        <v>38193847.3813533</v>
+        <v>247478039.859569</v>
       </c>
       <c r="AH17" t="n">
-        <v>115602409.602499</v>
+        <v>130731336.293751</v>
       </c>
       <c r="AI17" t="n">
-        <v>491271309.854225</v>
+        <v>327097185.053705</v>
       </c>
       <c r="AJ17" t="n">
-        <v>475514293.411486</v>
+        <v>224288788.134598</v>
       </c>
       <c r="AK17" t="n">
-        <v>514028427.969735</v>
+        <v>171358226.094032</v>
       </c>
       <c r="AL17" t="n">
-        <v>811503732.319636</v>
+        <v>133529578.266122</v>
       </c>
       <c r="AM17" t="n">
-        <v>775296018.511272</v>
+        <v>95600223.9979719</v>
       </c>
       <c r="AN17" t="n">
-        <v>717796448.261059</v>
+        <v>93311783.4696736</v>
       </c>
       <c r="AO17" t="n">
-        <v>1347138791.69792</v>
+        <v>45764603.6009786</v>
       </c>
       <c r="AP17" t="n">
-        <v>1149589320.63232</v>
+        <v>43723691.7298122</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1120576634.63656</v>
+        <v>44534493.3405773</v>
       </c>
       <c r="AR17" t="n">
-        <v>3705953418.11937</v>
+        <v>55648324.5862513</v>
       </c>
       <c r="AS17" t="n">
-        <v>3613514892.68284</v>
+        <v>80329800.1411718</v>
       </c>
       <c r="AT17" t="n">
-        <v>2335896191.48124</v>
+        <v>138972376.490881</v>
       </c>
       <c r="AU17" t="n">
-        <v>2022955052.62319</v>
+        <v>179925203.755531</v>
       </c>
       <c r="AV17" t="n">
-        <v>2151339847.4692</v>
+        <v>34947229.9748</v>
       </c>
       <c r="AW17" t="n">
-        <v>1145042615.97112</v>
+        <v>4960399.23325712</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5853,84 +5840,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>1484609506.30205</v>
+        <v>198937302.031666</v>
       </c>
       <c r="AA18" t="n">
-        <v>1251923812.24584</v>
+        <v>345236148.706423</v>
       </c>
       <c r="AB18" t="n">
-        <v>1120688557.03814</v>
+        <v>429888429.514639</v>
       </c>
       <c r="AC18" t="n">
-        <v>857749871.177755</v>
+        <v>713682463.04305</v>
       </c>
       <c r="AD18" t="n">
-        <v>1472387878.08471</v>
+        <v>714509665.468279</v>
       </c>
       <c r="AE18" t="n">
-        <v>3021697643.7215</v>
+        <v>1840953946.05596</v>
       </c>
       <c r="AF18" t="n">
-        <v>6712076045.53501</v>
+        <v>1516228663.49856</v>
       </c>
       <c r="AG18" t="n">
-        <v>7936341731.07967</v>
+        <v>1541593893.81379</v>
       </c>
       <c r="AH18" t="n">
-        <v>10616136038.7374</v>
+        <v>1411067175.57823</v>
       </c>
       <c r="AI18" t="n">
-        <v>8076609280.9972</v>
+        <v>4861332268.61663</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5044266604.06522</v>
+        <v>5909600217.91149</v>
       </c>
       <c r="AK18" t="n">
-        <v>4613713950.92139</v>
+        <v>4345461188.49572</v>
       </c>
       <c r="AL18" t="n">
-        <v>2496980450.90624</v>
+        <v>1259226947.16744</v>
       </c>
       <c r="AM18" t="n">
-        <v>1719465250.33094</v>
+        <v>728531557.395997</v>
       </c>
       <c r="AN18" t="n">
-        <v>1434757270.37638</v>
+        <v>415311402.852436</v>
       </c>
       <c r="AO18" t="n">
-        <v>1093149396.83908</v>
+        <v>478149253.970001</v>
       </c>
       <c r="AP18" t="n">
-        <v>772714218.485795</v>
+        <v>727292126.722091</v>
       </c>
       <c r="AQ18" t="n">
-        <v>905525618.304672</v>
+        <v>534149254.20292</v>
       </c>
       <c r="AR18" t="n">
-        <v>1449321355.4267</v>
+        <v>516993045.704623</v>
       </c>
       <c r="AS18" t="n">
-        <v>1150214449.51071</v>
+        <v>669875341.860163</v>
       </c>
       <c r="AT18" t="n">
-        <v>1411591196.9637</v>
+        <v>379472205.277806</v>
       </c>
       <c r="AU18" t="n">
-        <v>1761723470.82175</v>
+        <v>253159559.718737</v>
       </c>
       <c r="AV18" t="n">
-        <v>2253175886.1074</v>
+        <v>122871394.476</v>
       </c>
       <c r="AW18" t="n">
-        <v>1183054674.0231</v>
+        <v>159085432.015856</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5943,84 +5930,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>177774485.99709</v>
+        <v>897025031.259933</v>
       </c>
       <c r="AA19" t="n">
-        <v>25011676.1702934</v>
+        <v>1404901251.85699</v>
       </c>
       <c r="AB19" t="n">
-        <v>50288577.7807918</v>
+        <v>2817050173.97636</v>
       </c>
       <c r="AC19" t="n">
-        <v>70084595.2147161</v>
+        <v>3961913117.29777</v>
       </c>
       <c r="AD19" t="n">
-        <v>545968794.914903</v>
+        <v>5624263640.78609</v>
       </c>
       <c r="AE19" t="n">
-        <v>1949529518.20061</v>
+        <v>10008715728.066</v>
       </c>
       <c r="AF19" t="n">
-        <v>1073104481.76649</v>
+        <v>8127736376.85549</v>
       </c>
       <c r="AG19" t="n">
-        <v>1985536891.58963</v>
+        <v>18332873189.6564</v>
       </c>
       <c r="AH19" t="n">
-        <v>2540177534.74332</v>
+        <v>27016607233.9403</v>
       </c>
       <c r="AI19" t="n">
-        <v>1502774161.28895</v>
+        <v>18831976732.888</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6307929482.52253</v>
+        <v>15344334245.9185</v>
       </c>
       <c r="AK19" t="n">
-        <v>3723805061.09118</v>
+        <v>10815523815.5175</v>
       </c>
       <c r="AL19" t="n">
-        <v>1937360978.26925</v>
+        <v>6163702302.56003</v>
       </c>
       <c r="AM19" t="n">
-        <v>859983559.685779</v>
+        <v>4187883461.50651</v>
       </c>
       <c r="AN19" t="n">
-        <v>500595270.734032</v>
+        <v>2160785976.5866</v>
       </c>
       <c r="AO19" t="n">
-        <v>35932757.1900093</v>
+        <v>2943863139.00245</v>
       </c>
       <c r="AP19" t="n">
-        <v>718630330.765721</v>
+        <v>2257000213.39556</v>
       </c>
       <c r="AQ19" t="n">
-        <v>403726688.052382</v>
+        <v>3983792156.54362</v>
       </c>
       <c r="AR19" t="n">
-        <v>666412764.102647</v>
+        <v>6935002775.23422</v>
       </c>
       <c r="AS19" t="n">
-        <v>762070745.77893</v>
+        <v>5726574629.69813</v>
       </c>
       <c r="AT19" t="n">
-        <v>420769921.638273</v>
+        <v>5315038827.74051</v>
       </c>
       <c r="AU19" t="n">
-        <v>105181485.142009</v>
+        <v>5730317498.39395</v>
       </c>
       <c r="AV19" t="n">
-        <v>357089842.9543</v>
+        <v>6364576520.164</v>
       </c>
       <c r="AW19" t="n">
-        <v>508462460.373338</v>
+        <v>3491972966.46487</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -6032,51 +6019,61 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
+      <c r="Z20" t="n">
+        <v>40568362.4512932</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2159036.17206823</v>
+      </c>
       <c r="AB20" t="n">
-        <v>20524.4939619267</v>
+        <v>9424111.08394473</v>
       </c>
       <c r="AC20" t="n">
-        <v>175049.404972216</v>
+        <v>8223349.38715306</v>
       </c>
       <c r="AD20" t="n">
-        <v>348813.902576798</v>
+        <v>3877172.88191311</v>
       </c>
       <c r="AE20" t="n">
-        <v>19419875.9136048</v>
+        <v>518542.002930841</v>
       </c>
       <c r="AF20" t="n">
-        <v>76334809.239364</v>
+        <v>3243270.03452869</v>
       </c>
       <c r="AG20" t="n">
-        <v>593699659.681592</v>
+        <v>8550.01285863147</v>
       </c>
       <c r="AH20" t="n">
-        <v>224384364.204351</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1073087121.80793</v>
-      </c>
+        <v>307722.691838569</v>
+      </c>
+      <c r="AI20"/>
       <c r="AJ20" t="n">
-        <v>-294119220.845946</v>
+        <v>114806.661532684</v>
       </c>
       <c r="AK20" t="n">
-        <v>-1017112.13192294</v>
+        <v>-13482.3838247886</v>
       </c>
       <c r="AL20" t="n">
-        <v>-848347.680655765</v>
+        <v>13484.5843974271</v>
       </c>
       <c r="AM20" t="n">
-        <v>-186250.296783546</v>
+        <v>45599.9047042688</v>
       </c>
       <c r="AN20" t="n">
-        <v>-320344.519245543</v>
-      </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
+        <v>896916.189520768</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>644373.184318254</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>22809.1991434419</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>261803.465304226</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>50344.7546716139</v>
+      </c>
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20"/>
@@ -6084,9 +6081,7 @@
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>8496761048.00178</v>
@@ -6119,40 +6114,34 @@
         <v>5785017364.18835</v>
       </c>
       <c r="Z21" t="n">
-        <v>109084726.573316</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>47865583.2893354</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>82909080.5576136</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>202952896.959155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
       <c r="AD21" t="n">
-        <v>162724464.163462</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>201694784.794342</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>492223991.061165</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>617365.024132673</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>56880050.5025289</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>-890023.649886265</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23280223.2752766</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>-31718.5987303145</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -6164,29 +6153,21 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>120347.837419546</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>5451724.15145544</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18747907.2381084</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21"/>
+      <c r="AS21"/>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -235,14 +236,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2972,88 +2985,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>2093456735.9815</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2343488085</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>3835139136.8467</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>8700836474.0441</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>6759772951.4358</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>11117816201.8684</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>9604689248.3746</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>20152059832.0111</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>28767470659.2672</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>19557716682.1136</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>16235343814.0836</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>12428436251.991</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>6519820010.5957</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>4621227533.9046</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>3587679208.2345</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>5338394558.6023</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>5006344883.5449</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>6050990172.1041</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>7469442700.8342</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>7830903930.8369</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>7853888109.4488</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>5872857274.0338</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>3391137360.8292</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -3065,88 +3079,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>84160718</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>80387605</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>79689745</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>135933144</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>163198600</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>196189849.1371</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>108484498.0493</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>101211759.8302</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>190127627.8942</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>371482128.9517</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>11302768.5422</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>52871985.3049</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>83384355.8596</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>77168108.3885</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>56985068.2196</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>68701439.3897</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>69171381.6357</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>103154932.7858</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>93183548.2283</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>59221283.6536</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>63356169.8832</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>43816364.2871</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>34485608.6397</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3158,88 +3173,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>91304644</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>32940794</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>54237461</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>59654793</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>135335517</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>320771590.6533</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>332621519.5732</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>189403707.5138</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>632226459.1588</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>461879992.5888</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>255457700.6809</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>195276084.7593</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>68314482.9297</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>23928411.6059</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>-5718044.7806</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>26468673.8959</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>52461607.4648</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>4073545.1261</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>28288111.745</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>84754626.0529</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>57117742.1071</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>133327128.9644</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>11561085.9936</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3251,88 +3267,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>30955836</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>1150507</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>8264374</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>2908169</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>20655709</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>30330308.9477</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>111052625</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>28066851.7188</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>86722462</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>372286358.0604</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>363479757.816</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>400838494.7965</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>644408586.099</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>626922842.85</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>591656248.0272</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>1123132705.986</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>966374377.951</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>958803560.0879</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>3245394608.0548</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>3226424318.7664</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>2113491716.9231</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>1891871805.327</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>1200508032.5771</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3344,88 +3361,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>918847493.4375</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>793624060</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>721644049</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>562887710</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>989854346</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>2093088902</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>4800736041.7039</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>5832042117.4612</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>7963998824.6952</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>6120470286.7576</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>3855801663.6071</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>3597766300.2285</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>1982832090.3539</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>1390400591.7497</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>1182623716.6221</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>911377393.098</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>649563464.814</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>774798581.1456</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>1269206377.2964</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>1027000021.2847</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>1277191303.8535</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>1647567482.4849</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>1240361379.8584</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3437,88 +3455,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>110027344</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>15855492</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>32382282</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>45992146</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>367042946</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>1350412609</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>767525774.02</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>1459077137.7921</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>1905587007.1178</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>1138805194.3427</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>4821736617.3757</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>2903816859.8941</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>1538442768.7119</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>695403207.51</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>412624387.29</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>29957755.7005</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>604099156.4609</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>345442314.1106</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>583594057.2764</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>680435437.4685</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>380707733.2272</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>98365945.3652</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>533092183.145</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3530,66 +3549,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="n">
         <v>13216.3203</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="1" t="n">
         <v>114874</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="1" t="n">
         <v>234500</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>13451884.1875</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>54597604</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>436281795.5313</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>168328364.132</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>813187516.6452</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>-224822649.1682</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>-793142.3124</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-673666.0691</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-150606.43</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-264049.56</v>
       </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3599,108 +3619,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>67514203</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>30343123.2578</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>53387575.1802</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>133185320.3899</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>109396118</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>139711237</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>352057610.5586</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>453672.3524</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>42670200.6924</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>-674461.6601</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>17795237.7778</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>-24734.1094</v>
       </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="n">
         <v>100336.0553</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>4582859.6709</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>16041348.3991</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3825,88 +3846,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>3382460956.217</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>3696798881.48289</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>5955840072.77418</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>13258668171.5791</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>10055022531.8695</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>16050287681.7195</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>13428650121.3138</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>27423264474.2329</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>38347492099.3418</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>25808480177.028</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>21239526757.786</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>15938014017.2824</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>8210409337.77662</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>5714928636.80538</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>4352566886.19028</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>6403124365.40504</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>5955497936.24319</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>7071936823.6948</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>8529442502.89328</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>8770417397.56874</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>8680359225.58041</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>6279773429.88525</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>3234461319.20146</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3918,88 +3940,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>135981001.082749</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>126809609.210831</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>123755451.816644</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>207140135.915896</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>242754543.970447</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>283230399.001777</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>151675950.175789</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>137730677.70061</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>253443126.609767</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>490210044.301245</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>14786595.0754224</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>67802129.3930724</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>105005919.313959</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>95431404.1544105</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>69134196.940083</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>82403774.330566</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>82285585.6240586</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>120559635.194382</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>106407365.135836</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>66326362.9651473</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>70023191.835575</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>46852294.7868799</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>32892317.6343865</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -4011,88 +4034,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>147523656.994276</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>51963349.5018851</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>84228924.2040188</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>90904260.4800976</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>201308783.974493</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>463083416.439554</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>465049716.202337</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>257743774.425507</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>842767841.314433</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>609499607.067917</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>334196844.318614</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>250418710.208629</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>86028428.336957</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>29591523.8357201</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>-6937123.11531894</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>31747786.5081541</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>62407804.9467873</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>4760849.5404698</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>32302520.0551376</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>94923070.6217266</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>63128289.1651081</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>142565045.068505</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>11026945.085208</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4104,88 +4128,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>50016274.4409263</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>1814898.49168072</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>12834290.514441</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>4431579.40881875</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>30724940.1568473</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>43786493.2507345</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>155266537.793593</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>38193847.3813533</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>115602409.602499</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>491271309.854225</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>475514293.411486</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>514028427.969735</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>811503732.319636</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>775296018.511272</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>717796448.261059</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>1347138791.69792</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>1149589320.63232</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>1120576634.63656</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>3705953418.11937</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>3613514892.68284</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>2335896191.48124</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>2022955052.62319</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>1145042615.97112</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4197,88 +4222,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>1484609506.30205</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>1251923812.24584</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>1120688557.03814</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>857749871.177755</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>1472387878.08471</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>3021697643.7215</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>6712076045.53501</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>7936341731.07967</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>10616136038.7374</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>8076609280.9972</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>5044266604.06522</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>4613713950.92139</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>2496980450.90624</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>1719465250.33094</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>1434757270.37638</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>1093149396.83908</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>772714218.485795</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>905525618.304672</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>1449321355.4267</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>1150214449.51071</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>1411591196.9637</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>1761723470.82175</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>1183054674.0231</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4290,88 +4316,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>177774485.99709</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>25011676.1702934</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>50288577.7807918</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>70084595.2147161</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>545968794.914903</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>1949529518.20061</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>1073104481.76649</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>1985536891.58963</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>2540177534.74332</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>1502774161.28895</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>6307929482.52253</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>3723805061.09118</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>1937360978.26925</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>859983559.685779</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>500595270.734032</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>35932757.1900093</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>718630330.765721</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>403726688.052382</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>666412764.102647</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>762070745.77893</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>420769921.638273</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>105181485.142009</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>508462460.373338</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4383,66 +4410,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="n">
         <v>20524.4939619267</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="1" t="n">
         <v>175049.404972216</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="1" t="n">
         <v>348813.902576798</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>19419875.9136048</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>76334809.239364</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>593699659.681592</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>224384364.204351</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>1073087121.80793</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>-294119220.845946</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>-1017112.13192294</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-848347.680655765</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-186250.296783546</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-320344.519245543</v>
       </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4452,108 +4480,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>109084726.573316</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>47865583.2893354</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>82909080.5576136</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>202952896.959155</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>162724464.163462</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>201694784.794342</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>492223991.061165</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>617365.024132673</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>56880050.5025289</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>-890023.649886265</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>23280223.2752766</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>-31718.5987303145</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AL21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1" t="n">
         <v>120347.837419546</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>5451724.15145544</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>18747907.2381084</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4689,88 +4718,89 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>2567960782</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>2039148182.7969</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>2458932140.9917</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>6164126778.125</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>3756314888.1182</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>6393170389.22</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>8563835464.208</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>12917488185.2072</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>17694784367.1524</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>9980548003.375</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>8201568872.0863</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>6128335341.3711</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>3632894190.242</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>2784852680.752</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>2906630361.1316</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>3900560170.0003</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>4232566764.82</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>3766849635.7367</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>5162977225.3893</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>6261437086.375</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>5759005401.1018</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>3354601889.87</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>3653281351.1445</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>2240346193.4822</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4779,88 +4809,89 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>102774117</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>120885561</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>183530727.7793</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>326891545.5003</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>418175853.9423</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>509943877.3732</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>504282143.5415</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>494436783.3608</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>638209522.533</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>651894974.3977</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>695410487.1099</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>733786807.2216</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>598610129.3638</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>482406806.3622</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>508077877.5637</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>587183609.9264</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>526678612.7845</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>525878228.1736</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>878190321.8045</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>784805190.8353</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>589091254.3553</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>409348770.4257</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>461326793.3857</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>212852961.781</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4869,68 +4900,69 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="n">
         <v>21226070.5736</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>759941264.3133</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>604490429.72</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>114768722.4538</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>209831912.8197</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>118706724.218</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>47904950.322</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>56542700.0405</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>73269034.2496</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>79529681.0209</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>119588151.14</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>159828626.3764</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>119364319.9636</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>124831577.0079</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4939,88 +4971,89 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>22115873</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>26933843</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>45428040.3301</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>76796251</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>106973980.8999</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>150193947.3984</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>163591306.5192</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>181859904.7916</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>98071860.1189</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>247874885.6545</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>171444761.0126</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>133624853.5705</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>106034763.9892</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>77304620.1385</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>76913865.8155</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>38154734.6105</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>36755260.8908</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>38105230.3268</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>48732607.2898</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>71724630.559</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>125740590.5561</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>168266427.6754</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>34947229.9748</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>5200679.0326</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -5029,88 +5062,89 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>123125334</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>218853345</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>276817698.3203</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>468345261</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>480349307.5091</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>1275203785.3917</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>1084465304.4663</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>1132844429.0062</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>1058552498.467</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>3683927087.3396</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>4517256548.8732</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>3388583251.8504</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>999941989.5241</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>589107984.7742</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>342327670.9851</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>398641230.4256</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>611380485.1311</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>457036306.7709</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>452743532.8054</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>598116282.2647</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>343342039.5915</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>236755350.8714</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>122871394.476</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>166791468.1403</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5119,88 +5153,89 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>555182489.419</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>890600070.4609</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>1813980771.9258</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>2599956323.8087</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>3781070117.9663</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>6932901396.4107</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>5813270990.5446</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>13471961288.8451</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>20267282509.6863</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>14270908747.0331</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>11729100413.6606</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>8433927095.7656</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>4894546417.6416</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>3386422401.928</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>1781065546.9168</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>2454349168.576</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1897292483.5938</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>3408668344.743</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>6073152593.7559</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>5113126747.0081</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>4808985338.6982</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>5359004935.2435</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>6364576520.164</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>3661122771.599</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5209,168 +5244,170 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>25108379</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>1368664</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>6068460</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>5396471</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>2606539</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>359187</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>2319712</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>6283</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>230847</v>
       </c>
-      <c r="AI8"/>
-      <c r="AJ8" t="n">
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2" t="n">
         <v>87757.3989</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>-10513.54</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>10708</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>36873.17</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>739298.8204</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>537224.9709</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>19174</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>224007.9677</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="2" t="n">
         <v>44088.1406</v>
       </c>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5489,88 +5526,89 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>4149131402.10614</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>3216709643.02831</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>3818637618.8667</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>9393132690.4616</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>5587440748.11018</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>9229530519.49064</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>11973396241.3006</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>17578336795.2796</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>23587426637.3969</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>13170390975.985</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>10729519713.8598</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>7858872394.96704</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>4574903652.89886</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>3443940861.54564</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>3526319474.50018</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>4678517406.13877</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>5035019204.47966</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>4402407191.32165</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>5895663057.00255</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>7012653614.59447</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>6365030283.97865</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>3587034186.74759</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>3653281351.1445</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>2136838568.71741</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5579,88 +5617,89 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>166055229.175393</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>190694209.009487</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>285016950.90836</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>498129868.641082</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>622027938.494663</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>736182878.432177</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>705054405.50208</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>672837952.493271</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>850743359.155035</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>860244516.15223</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>909755273.294742</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>940995647.567588</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>753829735.764003</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>596577522.323331</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>616399298.023597</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>704295952.352876</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>626531624.261676</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>614606452.964551</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>1002815625.80195</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>878962270.536828</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>651081812.370082</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>437711562.213714</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>461326793.3857</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>203018810.004726</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5669,68 +5708,69 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="n">
         <v>27768533.8280025</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>974535675.877678</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>761234798.001152</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>141930916.352566</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>254567753.24526</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>142382491.558792</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>56987251.061395</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>66082804.8227513</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>83666752.64872</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>89071262.2973336</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>132172510.806378</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>170902767.498075</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>119364319.9636</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>119064155.85249</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5739,88 +5779,89 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>35733280.5829787</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>42487521.6194819</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>70548194.8297894</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>117025071.309844</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>159121585.295821</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>216828198.993994</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>228722695.896352</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>247478039.859569</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>130731336.293751</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>327097185.053705</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>224288788.134598</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>171358226.094032</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>133529578.266122</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>95600223.9979719</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>93311783.4696736</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>45764603.6009786</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>43723691.7298122</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>44534493.3405773</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>55648324.5862513</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>80329800.1411718</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>138972376.490881</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>179925203.755531</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>34947229.9748</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>4960399.23325712</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5829,88 +5870,89 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>198937302.031666</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>345236148.706423</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>429888429.514639</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>713682463.04305</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>714509665.468279</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>1840953946.05596</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>1516228663.49856</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>1541593893.81379</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>1411067175.57823</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>4861332268.61663</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>5909600217.91149</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>4345461188.49572</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>1259226947.16744</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>728531557.395997</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>415311402.852436</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>478149253.970001</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>727292126.722091</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>534149254.20292</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>516993045.704623</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>669875341.860163</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>379472205.277806</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>253159559.718737</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>122871394.476</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>159085432.015856</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5919,88 +5961,89 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>897025031.259933</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>1404901251.85699</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>2817050173.97636</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>3961913117.29777</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>5624263640.78609</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>10008715728.066</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>8127736376.85549</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>18332873189.6564</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>27016607233.9403</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>18831976732.888</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>15344334245.9185</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>10815523815.5175</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>6163702302.56003</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>4187883461.50651</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2160785976.5866</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2943863139.00245</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>2257000213.39556</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>3983792156.54362</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>6935002775.23422</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>5726574629.69813</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>5315038827.74051</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>5730317498.39395</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>6364576520.164</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>3491972966.46487</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -6009,168 +6052,1803 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>40568362.4512932</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>2159036.17206823</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>9424111.08394473</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>8223349.38715306</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>3877172.88191311</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>518542.002930841</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>3243270.03452869</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>8550.01285863147</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>307722.691838569</v>
       </c>
-      <c r="AI20"/>
-      <c r="AJ20" t="n">
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="n">
         <v>114806.661532684</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>-13482.3838247886</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>13484.5843974271</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>45599.9047042688</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>896916.189520768</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>644373.184318254</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>22809.1991434419</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>261803.465304226</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="2" t="n">
         <v>50344.7546716139</v>
       </c>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>2567960782</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>2039148182.7969</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>2458932140.9917</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>6164126778.125</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>3756314888.1182</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>6393170389.22</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>8563835464.208</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>12917488185.2072</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>17694784367.1524</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>9980548003.375</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>8201568872.0863</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>6128335341.3711</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>3632894190.242</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>2784852680.752</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>2906630361.1316</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>3900560170.0003</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>4232566764.82</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>3766849635.7367</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>5162977225.3893</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>6261437086.375</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>5759005401.1018</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>3354601889.87</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>3653281351.1445</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>2240346193.4822</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>102774117</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>120885561</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>183530727.7793</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>326891545.5003</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>418175853.9423</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>509943877.3732</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>504282143.5415</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>494436783.3608</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>638209522.533</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>651894974.3977</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>695410487.1099</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>733786807.2216</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>598610129.3638</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>482406806.3622</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>508077877.5637</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>587183609.9264</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>526678612.7845</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>525878228.1736</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>878190321.8045</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>784805190.8353</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>589091254.3553</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>409348770.4257</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>461326793.3857</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>212852961.781</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="n">
+        <v>21226070.5736</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>759941264.3133</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>604490429.72</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>114768722.4538</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>209831912.8197</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>118706724.218</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>47904950.322</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>56542700.0405</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>73269034.2496</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>79529681.0209</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>119588151.14</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>159828626.3764</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>119364319.9636</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>124831577.0079</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>22115873</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>26933843</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>45428040.3301</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>76796251</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>106973980.8999</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>150193947.3984</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>163591306.5192</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>181859904.7916</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>98071860.1189</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>247874885.6545</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>171444761.0126</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>133624853.5705</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>106034763.9892</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>77304620.1385</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>76913865.8155</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>38154734.6105</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>36755260.8908</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>38105230.3268</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>48732607.2898</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>71724630.559</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>125740590.5561</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>168266427.6754</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>34947229.9748</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>5200679.0326</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>123125334</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>218853345</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>276817698.3203</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>468345261</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>480349307.5091</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1275203785.3917</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1084465304.4663</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1132844429.0062</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1058552498.467</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>3683927087.3396</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>4517256548.8732</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>3388583251.8504</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>999941989.5241</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>589107984.7742</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>342327670.9851</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>398641230.4256</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>611380485.1311</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>457036306.7709</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>452743532.8054</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>598116282.2647</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>343342039.5915</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>236755350.8714</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>122871394.476</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>166791468.1403</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>555182489.419</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>890600070.4609</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1813980771.9258</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>2599956323.8087</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>3781070117.9663</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>6932901396.4107</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>5813270990.5446</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>13471961288.8451</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>20267282509.6863</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>14270908747.0331</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>11729100413.6606</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>8433927095.7656</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>4894546417.6416</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>3386422401.928</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1781065546.9168</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>2454349168.576</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1897292483.5938</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>3408668344.743</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>6073152593.7559</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>5113126747.0081</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>4808985338.6982</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>5359004935.2435</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>6364576520.164</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>3661122771.599</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>25108379</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>1368664</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>6068460</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>5396471</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>2606539</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>359187</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>2319712</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>6283</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>230847</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3" t="n">
+        <v>87757.3989</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>-10513.54</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>10708</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>36873.17</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>739298.8204</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>537224.9709</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>19174</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>224007.9677</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>44088.1406</v>
+      </c>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>4275032000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>6503975889</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>4166812450</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>4396364530</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>3619043411</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>3098454659</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>3678250068</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>3652647546</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>2804250415</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>3507393596</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>4149131402.10614</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>3216709643.02831</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>3818637618.8667</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>9393132690.4616</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>5587440748.11018</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>9229530519.49064</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>11973396241.3006</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>17578336795.2796</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>23587426637.3969</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>13170390975.985</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>10729519713.8598</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>7858872394.96704</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>4574903652.89886</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>3443940861.54564</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>3526319474.50018</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>4678517406.13877</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>5035019204.47966</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>4402407191.32165</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>5895663057.00255</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>7012653614.59447</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>6365030283.97865</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>3587034186.74759</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>3653281351.1445</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>2136838568.71741</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>166055229.175393</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>190694209.009487</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>285016950.90836</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>498129868.641082</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>622027938.494663</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>736182878.432177</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>705054405.50208</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>672837952.493271</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>850743359.155035</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>860244516.15223</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>909755273.294742</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>940995647.567588</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>753829735.764003</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>596577522.323331</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>616399298.023597</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>704295952.352876</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>626531624.261676</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>614606452.964551</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>1002815625.80195</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>878962270.536828</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>651081812.370082</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>437711562.213714</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>461326793.3857</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>203018810.004726</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3" t="n">
+        <v>27768533.8280025</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>974535675.877678</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>761234798.001152</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>141930916.352566</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>254567753.24526</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>142382491.558792</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>56987251.061395</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>66082804.8227513</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>83666752.64872</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>89071262.2973336</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>132172510.806378</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>170902767.498075</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>119364319.9636</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>119064155.85249</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>35733280.5829787</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>42487521.6194819</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>70548194.8297894</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>117025071.309844</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>159121585.295821</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>216828198.993994</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>228722695.896352</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>247478039.859569</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>130731336.293751</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>327097185.053705</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>224288788.134598</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>171358226.094032</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>133529578.266122</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>95600223.9979719</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>93311783.4696736</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>45764603.6009786</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>43723691.7298122</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>44534493.3405773</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>55648324.5862513</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>80329800.1411718</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>138972376.490881</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>179925203.755531</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>34947229.9748</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>4960399.23325712</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>198937302.031666</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>345236148.706423</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>429888429.514639</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>713682463.04305</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>714509665.468279</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>1840953946.05596</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>1516228663.49856</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>1541593893.81379</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>1411067175.57823</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>4861332268.61663</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>5909600217.91149</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>4345461188.49572</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>1259226947.16744</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>728531557.395997</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>415311402.852436</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>478149253.970001</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>727292126.722091</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>534149254.20292</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>516993045.704623</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>669875341.860163</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>379472205.277806</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>253159559.718737</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>122871394.476</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>159085432.015856</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>897025031.259933</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>1404901251.85699</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>2817050173.97636</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>3961913117.29777</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>5624263640.78609</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>10008715728.066</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>8127736376.85549</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>18332873189.6564</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>27016607233.9403</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>18831976732.888</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>15344334245.9185</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>10815523815.5175</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>6163702302.56003</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>4187883461.50651</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>2160785976.5866</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>2943863139.00245</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>2257000213.39556</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>3983792156.54362</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>6935002775.23422</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>5726574629.69813</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>5315038827.74051</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>5730317498.39395</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>6364576520.164</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>3491972966.46487</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>40568362.4512932</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>2159036.17206823</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>9424111.08394473</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>8223349.38715306</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>3877172.88191311</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>518542.002930841</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>3243270.03452869</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>8550.01285863147</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>307722.691838569</v>
+      </c>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3" t="n">
+        <v>114806.661532684</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>-13482.3838247886</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>13484.5843974271</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>45599.9047042688</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>896916.189520768</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>644373.184318254</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>22809.1991434419</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>261803.465304226</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>50344.7546716139</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>8496761048.00178</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>12481647125.4824</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>7801467311.04532</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>8042332737.85858</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>6479188748.05532</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>5432109078.79528</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>6329626008.39484</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>6175858018.88923</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>4682923414.73451</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>5785017364.18835</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -231,15 +233,103 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAMS SERIES (M1/M1A1/M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAMS UPGRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRADLEY FVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAV (NAVY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1/M1A1 ABRAMS TANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRYKER (IAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT ASSAULT &amp;
+TACTICAL VEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT ASSAULT AND
+TACTICAL VEHICLES
+WHEELED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUND EFFECT
+VEHICLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINT-REP OF
+VEHICLES-TRAILERS-CYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISCELLANEOUS
+VEHICULAR
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- OTHER RESEARCH
+AND DEVELOPMENT
+(OPERATIONAL
+SYSTEMS
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUCKS AND TRUCK
+TRACTORS, WHEELED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEH BRAKE STEERING
+AXLE WHEEL COMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEH POWER
+TRANSMISSION
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEHICULAR FURNITURE
+AND ACCESSORIES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +365,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7854,4 +7947,3643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>311359732</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>274728030</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>317803475</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>388720391</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>324211</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="n">
+        <v>-2379423.03</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>9692809.5209</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>36824.7812</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>-36505.8399</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>-2107885.01</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>5293200</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1434337</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
+        <v>56539123.5</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>390053065.25</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>827631579</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>2355691519.6947</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>1321401155.0751</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>341031657.3695</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>242933288.4097</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>90161457.5873</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>41003188.78</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>99394318.3619</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>68651158.7731</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>-1189863.7238</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>-6655205.1843</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>11842399.1704</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>-1651602.9572</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>-1862078.6745</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>-1714391.1875</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>-67304.6836</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>-1572797.3726</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5" t="n">
+        <v>68105672</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>167020700</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>155365855.4123</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>406779121.9966</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>623565673.2881</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>515168274.935</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>79269777.6018</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>57752439.6981</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>290727431.4682</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="n">
+        <v>8359001</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>993588096.0916</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>3043315849.5424</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>1066668283.5327</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>490001364.0748</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>784626017.7634</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>710249414.5283</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>309376274.97</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>141716902.8025</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>74292766.1025</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>-11060546.4414</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>-14015557.8404</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>-3484765.7032</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>-21765091.7695</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>-4246756.5821</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>-445368.5625</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>3791824.7343</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>-399658.3047</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
+        <v>63033987</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>373103024</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>2951193673</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>3007710267.5</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>2997885625</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>2943580168.0137</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>1467149762.543</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>889961736.9204</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>-163269945.3828</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>-35789150.8562</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>14028448.87</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>-78505295.46</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>-231074878.67</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>-94558503.5469</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>-2042560.2891</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>-247085</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>-191869.375</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>-7939.8101</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>-18885.6309</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="n">
+        <v>3518400</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>-31072</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="n">
+        <v>147366051.24</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>291373321.9032</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>571291938.4201</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>727178440.9883</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>2001238113.2594</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>1625999060.4572</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>1242859622.191</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>1143790701.3454</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>1173342064.2563</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5" t="n">
+        <v>121756004</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>161076806</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>2160354.3516</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>285911990.4004</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>880304059.8243</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>848234902.4345</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>582250313.3446</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>336813145.9616</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>249564115.453</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>217304319.25</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>126242203.58</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>83459162.743</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>137264521.633</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>14494163.8894</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>-6087520.5828</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>54979836.3437</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>16171247.2667</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>37195420.1033</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>-8210768.2549</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>996846</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1162127267</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>558822224.7969</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>994584658.6948</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1551087047.0118</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>405345345.0035</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>663172079.7932</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>344017602.5562</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>323568124.7781</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>4168272083.4593</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>375925218.8451</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>2653504920.4098</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>756946736.1287</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>456904954.3242</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>267481444.745</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>323593181.4331</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>283720986.8176</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>205965716.2234</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>224172851.5556</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>837269618.6511</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>162606649.1918</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>740245472.9626</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>198123814.8131</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>703173093.0984</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>305846290.6953</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>3580230</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="n">
+        <v>52797</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>264836201</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>585796786</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>273498659.1201</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>1110584544.6453</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>2062125904.3936</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>2448306441.3768</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>1498889483.7978</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>1229458425.8086</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>992927194.5404</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>767605509.91</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>759774784.9891</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>321930030.9838</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>72944081.6912</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>-2566421.0767</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>-6290786.0165</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>-13265630.5802</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>-3995359.8598</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>-1552942.2251</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>5089245.1191</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>96802168.0078</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="5" t="n">
+        <v>1913906545.419</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>2462805074.4609</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>3472369705.6524</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>7701652395.4222</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>7633655815.9323</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>13085052421.7508</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>11724935124.2517</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>20121542331.1008</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>25286206350.6929</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>20801714216.7067</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>18401328953.3542</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>15490257086.2224</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>8549149706.2376</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>5809527373.198</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>4393687738.615</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>6598953352.0246</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>6726820020.3871</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>7387277727.7754</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>10737439457.3479</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>10103489232.0042</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>8858317096.8258</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>8132430921.0345</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>8852572756.3717</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>5394713605.932</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="4" t="n">
+        <v>1913906545.419</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>2462805074.4609</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>3472369705.6524</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>7701652395.4222</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>7633655815.9323</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>13085052421.7508</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>11724935124.2517</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>20121542331.1008</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>25286206350.6929</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>20801714216.7067</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>18401328953.3542</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>15490257086.2224</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>8549149706.2376</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>5809527373.198</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>4393687738.615</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>6598953352.0246</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>6726820020.3871</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>7387277727.7754</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>10737439457.3479</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>10103489232.0042</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>8858317096.8258</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>8132430921.0345</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>8852572756.3717</v>
+      </c>
+      <c r="AK12" s="4" t="n">
+        <v>5394713605.932</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>503073275.280476</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>433377186.98749</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>493537940.641226</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>592347033.66399</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>482257.160632521</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="n">
+        <v>-3171808.42642219</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>12790689.5495953</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>48175.19940468</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>-46814.4645265135</v>
+      </c>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>-2557282.84551331</v>
+      </c>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>8552382.29943818</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>2262633.82827036</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5" t="n">
+        <v>84100777.4682581</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>563101943.28873</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>1157140498.38961</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>3205664934.64249</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>1761448580.39439</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>450027419.458894</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>317812061.05773</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>115621510.679978</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>51635315.620802</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>122917868.071782</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>83287480.0201076</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>-1427179.1486634</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>-7916965.70299184</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>13840494.9259607</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>-1885984.40677142</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>-2085481.74600467</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>-1894797.98455058</v>
+      </c>
+      <c r="AI17" s="5" t="n">
+        <v>-71968.0632537847</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
+        <v>-1572797.3726</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5" t="n">
+        <v>81689182.5844474</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>198686158.724161</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>181579788.230432</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>464505756.508437</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>698378026.066289</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>569379856.924422</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>84762189.8420125</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>57752439.6981</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>277295352.991762</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5" t="n">
+        <v>11687010.0520648</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>1352091516.43583</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>4056788025.55878</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>1407581861.34247</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>641033365.403097</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>1006190981.38225</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>894417087.544833</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>382596035.447825</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>171930728.069512</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>89110277.5529587</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>-13157515.7200991</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>-16380317.3988107</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>-3979294.02392756</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>-24376360.7880837</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>-4693646.275897</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>-476227.079050516</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>3791824.7343</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>-381193.443350727</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5" t="n">
+        <v>93761752.6671434</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>538631936.469064</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>4126166526.59104</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>4092943094.40759</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>3996228819.73407</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>3884366035.69125</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>1919365983.00923</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>1141271705.4899</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>-205605842.18133</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>-44259331.8797766</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>17019292.5487959</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>-94162985.6420465</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>-274884370.743231</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>-110512782.901161</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>-2332423.07925139</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>-276729.047095675</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>-212059.947401579</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>-8489.94044598463</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>-18885.6309</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="n">
+        <v>5079354.71804902</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>-43442.8439879068</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="n">
+        <v>176757851.629353</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>346614797.349342</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>667682541.448951</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>830373422.780334</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>2241336852.07042</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>1797104281.15779</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>1328974376.24113</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>1143790701.3454</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>1119131759.41095</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5" t="n">
+        <v>181109539.093374</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>232539289.030345</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>3020466.56330955</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>389073881.005942</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>1173459195.59515</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>1119335862.19525</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>761715997.617754</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>431923416.003442</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>314276090.529999</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>268733505.950967</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>153156846.821987</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>100104889.702256</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>163288505.750307</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>16939675.7262411</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>-6951409.74712519</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>61576047.5984713</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>17872960.9391511</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>39772601.3044564</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>-8210768.2549</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>950790.09934658</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>1877683946.94802</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>881529284.829695</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>1544556000.3571</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>2363605904.20398</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>602942821.671681</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>957391493.967704</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>480982976.214686</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>440316986.709538</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>5556372427.78834</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>496073172.359718</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>3471388681.65337</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>970695544.165721</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>575380408.870682</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>330785999.428097</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>392582749.001068</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>340308447.366653</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>245014761.555292</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>261996169.006741</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>956087804.369444</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>182115397.868214</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>818142113.928842</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>211851337.438726</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>703173093.0984</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>291715696.421481</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>5784685.19608508</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="n">
+        <v>80454.0926085807</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>393938374.475152</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>845688286.944932</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>382387988.512365</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>1511302266.00584</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>2748846353.68899</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>3230799856.98691</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>1960888766.05564</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>1576636451.03094</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>1250393215.84615</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>949273905.725156</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>921757598.203229</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>386138192.432085</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>86773551.9782035</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>-2999437.64593987</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>-7183520.88299028</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>-14857175.909432</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>-4415794.86939782</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>-1660541.85693356</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>5089245.1191</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>92329750.9716652</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="5" t="n">
+        <v>3092356317.88338</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>3885018704.74731</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>5392471538.18147</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>11736073168.1799</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>11354905228.5007</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>18890297508.6229</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>16393039629.6085</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>27381735741.9082</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>33706911870.7227</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>27450066781.1115</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>24073128549.6124</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>19864440671.848</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>10765944223.0109</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>7184462160.28266</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>5330415193.04808</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>7915098543.33114</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>8002157997.65835</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>8633688025.26896</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>12261205574.2148</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>11315656343.0153</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>9790485102.79134</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>8695907500.44095</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>8852572756.3717</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>5145469094.85561</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>5784685.19608508</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="n">
+        <v>80454.0926085807</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>393938374.475152</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>845688286.944932</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>382387988.512365</v>
+      </c>
+      <c r="U26" s="4" t="n">
+        <v>1511302266.00584</v>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v>2748846353.68899</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>3230799856.98691</v>
+      </c>
+      <c r="X26" s="4" t="n">
+        <v>1960888766.05564</v>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>1576636451.03094</v>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>1250393215.84615</v>
+      </c>
+      <c r="AA26" s="4" t="n">
+        <v>949273905.725156</v>
+      </c>
+      <c r="AB26" s="4" t="n">
+        <v>921757598.203229</v>
+      </c>
+      <c r="AC26" s="4" t="n">
+        <v>386138192.432085</v>
+      </c>
+      <c r="AD26" s="4" t="n">
+        <v>86773551.9782035</v>
+      </c>
+      <c r="AE26" s="4" t="n">
+        <v>-2999437.64593987</v>
+      </c>
+      <c r="AF26" s="4" t="n">
+        <v>-7183520.88299028</v>
+      </c>
+      <c r="AG26" s="4" t="n">
+        <v>-14857175.909432</v>
+      </c>
+      <c r="AH26" s="4" t="n">
+        <v>-4415794.86939782</v>
+      </c>
+      <c r="AI26" s="4" t="n">
+        <v>-1660541.85693356</v>
+      </c>
+      <c r="AJ26" s="4" t="n">
+        <v>5089245.1191</v>
+      </c>
+      <c r="AK26" s="4" t="n">
+        <v>92329750.9716652</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="4" t="n">
+        <v>3092356317.88338</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>3885018704.74731</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>5392471538.18147</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>11736073168.1799</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>11354905228.5007</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>18890297508.6229</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>16393039629.6085</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>27381735741.9082</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>33706911870.7227</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>27450066781.1115</v>
+      </c>
+      <c r="X27" s="4" t="n">
+        <v>24073128549.6124</v>
+      </c>
+      <c r="Y27" s="4" t="n">
+        <v>19864440671.848</v>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>10765944223.0109</v>
+      </c>
+      <c r="AA27" s="4" t="n">
+        <v>7184462160.28266</v>
+      </c>
+      <c r="AB27" s="4" t="n">
+        <v>5330415193.04808</v>
+      </c>
+      <c r="AC27" s="4" t="n">
+        <v>7915098543.33114</v>
+      </c>
+      <c r="AD27" s="4" t="n">
+        <v>8002157997.65835</v>
+      </c>
+      <c r="AE27" s="4" t="n">
+        <v>8633688025.26896</v>
+      </c>
+      <c r="AF27" s="4" t="n">
+        <v>12261205574.2148</v>
+      </c>
+      <c r="AG27" s="4" t="n">
+        <v>11315656343.0153</v>
+      </c>
+      <c r="AH27" s="4" t="n">
+        <v>9790485102.79134</v>
+      </c>
+      <c r="AI27" s="4" t="n">
+        <v>8695907500.44095</v>
+      </c>
+      <c r="AJ27" s="4" t="n">
+        <v>8852572756.3717</v>
+      </c>
+      <c r="AK27" s="4" t="n">
+        <v>5145469094.85561</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>730161277</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>516882630</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>565847800.125</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>556653777</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>870463999</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>2289410024.9375</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>2171300586.8829</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>9205620990.6241</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>15067642372.2059</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>6193371896.2171</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>5602355487.4711</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>4611366596.524</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>2981586242.9583</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>843544560.0588</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>1096513420.3609</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>800013342.2485</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>1397026939.1587</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>1258967476.1549</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>3492670508.8744</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>2814739017.7834</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>2717051714.9591</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>1013120180.4408</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>2776051869.8384</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>1688028143.0956</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>15642095.6811</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>2517658299.9587</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>5586510528.1393</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>2806640797.4891</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>2203132538.5287</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>1542396948.968</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>1122782367.9311</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>798430042.1025</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>702139834.0726</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>1382375915.0364</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>1816326587.5204</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>2937958766.3253</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>2655470810.5356</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>3329548288.4012</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>2636677131.8249</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>1318731512.1399</v>
+      </c>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>3209689</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>1367737</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>3294860.3301</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>3378276</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>49954764</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>188152778</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>85228593</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>281640377.8693</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>836295353.8466</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>516435260.1954</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>1220923212.2841</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>2671520961.1199</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>653597491.5224</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>455052379.3164</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>340795942.3392</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>17644778.6328</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>414052703.7058</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>290867815.1033</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>71204987.0671</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>67234555.8748</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>7182773.5118</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>9851334.9656</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>6663294.6572</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>11496687.4568</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>117008991.9815</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>164423044</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>111282805.3203</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>158030491</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>303118272.3198</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>720843197.5625</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>901965713.1274</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>957904385.8519</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>781316047.4994</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>718441608.9555</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>161566429.4165</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>20798526.3962</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>165086487.0874</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>99902586.8965</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>66191335.9198</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>88824131.3768</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>100397637.3086</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>184652375.8434</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>243249965.4403</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>370017260.2822</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>162917897.6668</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>134979694.014</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>44742707.8169</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>83965444.0014</v>
+      </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>71736862</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>24833883</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>61586144</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>99146583.7969</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>111011227</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>144890029.4063</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>239428154.0719</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>483383718.7884</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1159866098.2912</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>469400405.2188</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>429376675.0078</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>550624819.5756</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>326684554.2814</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>136920507.9738</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>228456337.1139</v>
+      </c>
+      <c r="AC6" s="6" t="n">
+        <v>171476860.5452</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>212620571.1849</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>146820374.2813</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>145464228.9459</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>166136587.8651</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>149373123.6989</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>179677033.0119</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>158814872.9406</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>139718084.1242</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1266093650</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1847545887</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>2119940739.7022</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>2776530193.6371</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>3471868730.3333</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>6145815335.6377</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>4601635890.9508</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>5946867807.1456</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6348658224.3774</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>7290026788.8769</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>5530121098.2285</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>4881546747.6719</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>3539524163.0377</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>3059899974.315</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>2164837915.242</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>3235025825.1128</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>2909245751.5896</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>2801170428.4913</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>5199305873.3542</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>4598691960.7892</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>4336446619.5307</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>3999773549.3636</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>3885517427.2394</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>2843055224.1139</v>
+      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="n">
+        <v>496505</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>874664</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>254355916</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>2744395667</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>2730673784</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>2696944186</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>2693577069.91</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>1359472153</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>895656146</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>-180762568</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>-50000000</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6" t="n">
+        <v>-70000000</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>-234381440</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>-94933042</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1060929765.4375</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>602228061.7969</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1665735499.8696</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>5243046410</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>2854091412.7827</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>4628328239</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>4827885533.66</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>7902676336.4653</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>11793241716.1511</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>7762559511.4134</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>4884756890.3114</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>2658005912.6301</v>
+      </c>
+      <c r="Z9" s="6" t="n">
+        <v>641075406.7011</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>1098146052.9545</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>374622344.3622</v>
+      </c>
+      <c r="AC9" s="6" t="n">
+        <v>2006205335.654</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>1339078011.634</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>1476893786.52</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>970004514.7339</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>1218487167.5124</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>851122156.0617</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>669351227.1496</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>803593516.396</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <v>819900975.2149</v>
+      </c>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>63863599</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>66396540</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>129131306</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>368684043</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>488326700</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>454522318.75</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>235450391</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>375540268.3349</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>600951215.0256</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>329566825.2949</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>247430017.8576</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>220438635.8865</v>
+      </c>
+      <c r="Z10" s="6" t="n">
+        <v>191333446.6206</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>77412171.0367</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>161339809.612</v>
+      </c>
+      <c r="AC10" s="6" t="n">
+        <v>193388921.4075</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>230332948.0022</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>442542322.0108</v>
+      </c>
+      <c r="AF10" s="6" t="n">
+        <v>337987102.4548</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>340593338.9986</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>333080057.6467</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>114414414.5824</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>182378295.9798</v>
+      </c>
+      <c r="AK10" s="6" t="n">
+        <v>150673724.9518</v>
+      </c>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>45465081</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>40755684.4609</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>68758925</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>97652673</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>247746952</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>270431743.5</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>178565899.2266</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>156584288.146</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>259235966.3933</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>203167540.2388</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>167713216.7973</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>117716336.3273</v>
+      </c>
+      <c r="Z11" s="6" t="n">
+        <v>178357755.8715</v>
+      </c>
+      <c r="AA11" s="6" t="n">
+        <v>70826937.8437</v>
+      </c>
+      <c r="AB11" s="6" t="n">
+        <v>144408728.3948</v>
+      </c>
+      <c r="AC11" s="6" t="n">
+        <v>117288757.0552</v>
+      </c>
+      <c r="AD11" s="6" t="n">
+        <v>162362157.1162</v>
+      </c>
+      <c r="AE11" s="6" t="n">
+        <v>223056854.6161</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>247893354.0724</v>
+      </c>
+      <c r="AG11" s="6" t="n">
+        <v>252307381.8203</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>424041813.877</v>
+      </c>
+      <c r="AI11" s="6" t="n">
+        <v>175520290.1215</v>
+      </c>
+      <c r="AJ11" s="6" t="n">
+        <v>190857487.3453</v>
+      </c>
+      <c r="AK11" s="6" t="n">
+        <v>149563889.5695</v>
+      </c>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>37798059</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>33356199</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>59179759</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>337893678</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>148033966</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>165023000</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>145908492.36</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>157704916.9854</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>197338329.486</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>140948491.5204</v>
+      </c>
+      <c r="X12" s="6" t="n">
+        <v>145869202.2015</v>
+      </c>
+      <c r="Y12" s="6" t="n">
+        <v>143872620.9319</v>
+      </c>
+      <c r="Z12" s="6" t="n">
+        <v>136913109.8716</v>
+      </c>
+      <c r="AA12" s="6" t="n">
+        <v>100797970.2153</v>
+      </c>
+      <c r="AB12" s="6" t="n">
+        <v>125638332.7769</v>
+      </c>
+      <c r="AC12" s="6" t="n">
+        <v>139834868.5924</v>
+      </c>
+      <c r="AD12" s="6" t="n">
+        <v>119722617.7696</v>
+      </c>
+      <c r="AE12" s="6" t="n">
+        <v>140890147.7017</v>
+      </c>
+      <c r="AF12" s="6" t="n">
+        <v>165002280.9717</v>
+      </c>
+      <c r="AG12" s="6" t="n">
+        <v>142573580.8117</v>
+      </c>
+      <c r="AH12" s="6" t="n">
+        <v>109065807.9546</v>
+      </c>
+      <c r="AI12" s="6" t="n">
+        <v>61569988.4118</v>
+      </c>
+      <c r="AJ12" s="6" t="n">
+        <v>71071005.0701</v>
+      </c>
+      <c r="AK12" s="6" t="n">
+        <v>56895063.3869</v>
+      </c>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="M13"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>1179743516.42673</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>815370532.78508</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>878742304.469957</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>848250365.090332</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>1294797204.87759</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>3305117556.76302</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>3035770875.60519</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>12527165023.3207</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>20085404923.7637</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>8172810681.86572</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>7329156724.08186</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>5913537629.67996</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>3754711555.04099</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>1043185371.70755</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>1330288391.66329</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>959574056.987966</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>1661889311.77761</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>1471385376.80983</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>3988320612.41572</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>3152437607.35867</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>3002969305.34952</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>1083316841.11281</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>2776051869.8384</v>
+      </c>
+      <c r="AK18" s="6" t="n">
+        <v>1610038507.32579</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>20851160.2445972</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>3322316985.31753</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>7308427909.12373</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>3599188141.20255</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>2774404805.23984</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>1907434426.95857</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>1362157838.37042</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>957674971.479896</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>835258542.917762</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>1615615768.60656</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>2074084214.20803</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>3290440657.31059</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>2934908191.62051</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>3560244681.48882</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>2636677131.8249</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>1257803979.18932</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>5185990.96771356</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>2157573.85075963</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>5116805.54159461</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>5147946.47728745</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>74306678.8193728</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>271627643.431199</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>119161060.408336</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>383260998.295773</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>1114794896.43688</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>681491065.245909</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>1597245585.52405</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>3425912774.74443</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>823075320.917116</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>562749151.54511</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>413453112.019891</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>21163986.8026991</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>492552966.241062</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>339944166.814173</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>81309793.4388412</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>75301028.3065922</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>7938622.68592766</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>10533910.27216</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>6663294.6572</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>10965521.8651702</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>189054944.43771</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>259373593.16645</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>172818395.288344</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>240812920.391187</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>450882164.222627</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>1040648674.54315</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>1261069636.90251</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>1303532518.91982</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>1041506613.96157</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>948059854.044082</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>211365680.951881</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>26671674.4182801</v>
+      </c>
+      <c r="Z21" s="6" t="n">
+        <v>207893413.149497</v>
+      </c>
+      <c r="AA21" s="6" t="n">
+        <v>123546427.990605</v>
+      </c>
+      <c r="AB21" s="6" t="n">
+        <v>80303226.7255003</v>
+      </c>
+      <c r="AC21" s="6" t="n">
+        <v>106539888.277504</v>
+      </c>
+      <c r="AD21" s="6" t="n">
+        <v>119432027.897304</v>
+      </c>
+      <c r="AE21" s="6" t="n">
+        <v>215807644.562013</v>
+      </c>
+      <c r="AF21" s="6" t="n">
+        <v>277769932.396978</v>
+      </c>
+      <c r="AG21" s="6" t="n">
+        <v>414410117.355751</v>
+      </c>
+      <c r="AH21" s="6" t="n">
+        <v>180061882.257121</v>
+      </c>
+      <c r="AI21" s="6" t="n">
+        <v>144332112.375847</v>
+      </c>
+      <c r="AJ21" s="6" t="n">
+        <v>44742707.8169</v>
+      </c>
+      <c r="AK21" s="6" t="n">
+        <v>80086104.4171024</v>
+      </c>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>115907403.609544</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>39174882.724986</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>95641177.8750814</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>151083365.240832</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>165126905.414536</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>209171172.82377</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>334752830.318553</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>657796754.940938</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>1546119802.02674</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>619423588.657339</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>561722466.88649</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>706111848.242665</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>411393859.128073</v>
+      </c>
+      <c r="AA22" s="6" t="n">
+        <v>169325341.858738</v>
+      </c>
+      <c r="AB22" s="6" t="n">
+        <v>277162876.095495</v>
+      </c>
+      <c r="AC22" s="6" t="n">
+        <v>205677503.190698</v>
+      </c>
+      <c r="AD22" s="6" t="n">
+        <v>252931310.636734</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>171592480.208496</v>
+      </c>
+      <c r="AF22" s="6" t="n">
+        <v>166107275.56464</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>186068841.279867</v>
+      </c>
+      <c r="AH22" s="6" t="n">
+        <v>165091780.565806</v>
+      </c>
+      <c r="AI22" s="6" t="n">
+        <v>192126422.492428</v>
+      </c>
+      <c r="AJ22" s="6" t="n">
+        <v>158814872.9406</v>
+      </c>
+      <c r="AK22" s="6" t="n">
+        <v>133262882.21547</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>2045665556.12693</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>2914461401.47537</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>3292195552.46858</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>4230983149.2206</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>5164332968.28106</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>8872435232.30143</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>6433707199.39908</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>8092598475.19917</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>8462861541.92379</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>9619963052.37406</v>
+      </c>
+      <c r="X23" s="6" t="n">
+        <v>7234657694.02008</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>6260012033.12688</v>
+      </c>
+      <c r="Z23" s="6" t="n">
+        <v>4457322777.66292</v>
+      </c>
+      <c r="AA23" s="6" t="n">
+        <v>3784083311.34423</v>
+      </c>
+      <c r="AB23" s="6" t="n">
+        <v>2626378022.37854</v>
+      </c>
+      <c r="AC23" s="6" t="n">
+        <v>3880243855.35821</v>
+      </c>
+      <c r="AD23" s="6" t="n">
+        <v>3460809726.98547</v>
+      </c>
+      <c r="AE23" s="6" t="n">
+        <v>3273794823.53451</v>
+      </c>
+      <c r="AF23" s="6" t="n">
+        <v>5937147157.81637</v>
+      </c>
+      <c r="AG23" s="6" t="n">
+        <v>5150420479.57479</v>
+      </c>
+      <c r="AH23" s="6" t="n">
+        <v>4792774469.85708</v>
+      </c>
+      <c r="AI23" s="6" t="n">
+        <v>4276908238.84082</v>
+      </c>
+      <c r="AJ23" s="6" t="n">
+        <v>3885517427.2394</v>
+      </c>
+      <c r="AK23" s="6" t="n">
+        <v>2711701465.40496</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6" t="n">
+        <v>756593.352853824</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>1301044.61954555</v>
+      </c>
+      <c r="S24" s="6" t="n">
+        <v>367202115.165496</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>3837035041.27731</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>3715947153.57757</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>3595069135.20339</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>3554460448.73152</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>1778499149.80308</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>1148574118.27062</v>
+      </c>
+      <c r="Z24" s="6" t="n">
+        <v>-227634301.838967</v>
+      </c>
+      <c r="AA24" s="6" t="n">
+        <v>-61833447.8758794</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6" t="n">
+        <v>-83961329.6952905</v>
+      </c>
+      <c r="AD24" s="6" t="n">
+        <v>-278817823.119155</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>-110950514.942204</v>
+      </c>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>1714176102.71193</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>950001000.431112</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>2586830330.46956</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>7989555115.27599</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>4245401978.69364</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>6681707843.74834</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>6750034694.58882</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>10754095860.9551</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>15720577206.5347</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>10243520065.7412</v>
+      </c>
+      <c r="X25" s="6" t="n">
+        <v>6390374350.25239</v>
+      </c>
+      <c r="Y25" s="6" t="n">
+        <v>3408581307.78372</v>
+      </c>
+      <c r="Z25" s="6" t="n">
+        <v>807306259.504661</v>
+      </c>
+      <c r="AA25" s="6" t="n">
+        <v>1358043134.5093</v>
+      </c>
+      <c r="AB25" s="6" t="n">
+        <v>454491250.821805</v>
+      </c>
+      <c r="AC25" s="6" t="n">
+        <v>2406338108.90424</v>
+      </c>
+      <c r="AD25" s="6" t="n">
+        <v>1592953845.62241</v>
+      </c>
+      <c r="AE25" s="6" t="n">
+        <v>1726081063.8443</v>
+      </c>
+      <c r="AF25" s="6" t="n">
+        <v>1107659308.37728</v>
+      </c>
+      <c r="AG25" s="6" t="n">
+        <v>1364675284.87773</v>
+      </c>
+      <c r="AH25" s="6" t="n">
+        <v>940686441.73549</v>
+      </c>
+      <c r="AI25" s="6" t="n">
+        <v>715728963.838421</v>
+      </c>
+      <c r="AJ25" s="6" t="n">
+        <v>803593516.396</v>
+      </c>
+      <c r="AK25" s="6" t="n">
+        <v>782020221.45741</v>
+      </c>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>103186335.990708</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>104739024.011865</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>200536507.1466</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>561814878.474685</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>726375871.895305</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>656173284.504716</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>329191381.407848</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>511041560.273326</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>801077447.622608</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>434898358.324632</v>
+      </c>
+      <c r="X26" s="6" t="n">
+        <v>323694807.153217</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>282686735.279896</v>
+      </c>
+      <c r="Z26" s="6" t="n">
+        <v>240946209.283349</v>
+      </c>
+      <c r="AA26" s="6" t="n">
+        <v>95733228.855129</v>
+      </c>
+      <c r="AB26" s="6" t="n">
+        <v>195737208.368473</v>
+      </c>
+      <c r="AC26" s="6" t="n">
+        <v>231959871.281596</v>
+      </c>
+      <c r="AD26" s="6" t="n">
+        <v>274001777.421416</v>
+      </c>
+      <c r="AE26" s="6" t="n">
+        <v>517209787.829373</v>
+      </c>
+      <c r="AF26" s="6" t="n">
+        <v>385951358.430764</v>
+      </c>
+      <c r="AG26" s="6" t="n">
+        <v>381456058.231851</v>
+      </c>
+      <c r="AH26" s="6" t="n">
+        <v>368130346.518688</v>
+      </c>
+      <c r="AI26" s="6" t="n">
+        <v>122341914.193486</v>
+      </c>
+      <c r="AJ26" s="6" t="n">
+        <v>182378295.9798</v>
+      </c>
+      <c r="AK26" s="6" t="n">
+        <v>143712354.68251</v>
+      </c>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>73459297.5868894</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>64291160.5540016</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>106780261.748883</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>148806886.698438</v>
+      </c>
+      <c r="R27" s="6" t="n">
+        <v>368518469.844889</v>
+      </c>
+      <c r="S27" s="6" t="n">
+        <v>390410059.19081</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>249659194.826901</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>213082552.460282</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>345565631.781739</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>268101104.0345</v>
+      </c>
+      <c r="X27" s="6" t="n">
+        <v>219407078.568338</v>
+      </c>
+      <c r="Y27" s="6" t="n">
+        <v>150957415.752692</v>
+      </c>
+      <c r="Z27" s="6" t="n">
+        <v>224605921.926125</v>
+      </c>
+      <c r="AA27" s="6" t="n">
+        <v>87589475.3873315</v>
+      </c>
+      <c r="AB27" s="6" t="n">
+        <v>175196446.729517</v>
+      </c>
+      <c r="AC27" s="6" t="n">
+        <v>140681714.295178</v>
+      </c>
+      <c r="AD27" s="6" t="n">
+        <v>193144402.577564</v>
+      </c>
+      <c r="AE27" s="6" t="n">
+        <v>260691876.712901</v>
+      </c>
+      <c r="AF27" s="6" t="n">
+        <v>283072271.265132</v>
+      </c>
+      <c r="AG27" s="6" t="n">
+        <v>282577984.686793</v>
+      </c>
+      <c r="AH27" s="6" t="n">
+        <v>468664083.29535</v>
+      </c>
+      <c r="AI27" s="6" t="n">
+        <v>187681668.884433</v>
+      </c>
+      <c r="AJ27" s="6" t="n">
+        <v>190857487.3453</v>
+      </c>
+      <c r="AK27" s="6" t="n">
+        <v>142653795.493432</v>
+      </c>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>61071459.7492481</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>52618641.393144</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>91904144.1711864</v>
+      </c>
+      <c r="Q28" s="6" t="n">
+        <v>514895339.91829</v>
+      </c>
+      <c r="R28" s="6" t="n">
+        <v>220197464.368362</v>
+      </c>
+      <c r="S28" s="6" t="n">
+        <v>238236230.569748</v>
+      </c>
+      <c r="T28" s="6" t="n">
+        <v>203999738.353057</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>214607523.17278</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>263055105.556314</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>185996474.359047</v>
+      </c>
+      <c r="X28" s="6" t="n">
+        <v>190830133.243503</v>
+      </c>
+      <c r="Y28" s="6" t="n">
+        <v>184499787.634059</v>
+      </c>
+      <c r="Z28" s="6" t="n">
+        <v>172414679.228409</v>
+      </c>
+      <c r="AA28" s="6" t="n">
+        <v>124653720.746044</v>
+      </c>
+      <c r="AB28" s="6" t="n">
+        <v>152424231.694337</v>
+      </c>
+      <c r="AC28" s="6" t="n">
+        <v>167724592.925487</v>
+      </c>
+      <c r="AD28" s="6" t="n">
+        <v>142420831.891154</v>
+      </c>
+      <c r="AE28" s="6" t="n">
+        <v>164661682.681429</v>
+      </c>
+      <c r="AF28" s="6" t="n">
+        <v>188418001.819223</v>
+      </c>
+      <c r="AG28" s="6" t="n">
+        <v>159678860.145456</v>
+      </c>
+      <c r="AH28" s="6" t="n">
+        <v>120542892.778815</v>
+      </c>
+      <c r="AI28" s="6" t="n">
+        <v>65836024.8283704</v>
+      </c>
+      <c r="AJ28" s="6" t="n">
+        <v>71071005.0701</v>
+      </c>
+      <c r="AK28" s="6" t="n">
+        <v>54266419.256295</v>
+      </c>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="M29"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -675,7 +675,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -683,7 +683,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -722,7 +722,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -731,7 +731,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,11 +2175,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>39</v>
       </c>
@@ -2290,556 +2299,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="11" t="n">
         <v>342933000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="11" t="n">
         <v>159735000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="11" t="n">
         <v>192066344</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="11" t="n">
         <v>145208659</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="11" t="n">
         <v>1265007231</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="11" t="n">
         <v>179269474</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="11" t="n">
         <v>126735321</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="11" t="n">
         <v>107260449</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="11" t="n">
         <v>147911366</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="11" t="n">
         <v>164227243</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="11" t="n">
         <v>238117034</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="11" t="n">
         <v>177784077.4609</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="11" t="n">
         <v>196249384.8096</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="11" t="n">
         <v>219867374</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="11" t="n">
         <v>225814986.8999</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="11" t="n">
         <v>289011539.3101</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="11" t="n">
         <v>240105396.1779</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="11" t="n">
         <v>285461942.8499</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="11" t="n">
         <v>160960417.1483</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="11" t="n">
         <v>134836446.7276</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="11" t="n">
         <v>123907481.4749</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>147985947.6319</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="11" t="n">
         <v>144739721.9579</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="11" t="n">
         <v>534486156.364</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="11" t="n">
         <v>154967326.1598</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="11" t="n">
         <v>218974516.0511</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="11" t="n">
         <v>251335460.3488</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="11" t="n">
         <v>292834585.9922</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>927642698.9539</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="11" t="n">
         <v>961638642.1627</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="11" t="n">
         <v>749004364.0103</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="11" t="n">
         <v>819044005.0724</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="11" t="n">
         <v>726402205.4638</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="11" t="n">
         <v>831200238.304</v>
       </c>
+      <c r="AW2" s="11"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="11" t="n">
         <v>3713769000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="11" t="n">
         <v>6078720000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="11" t="n">
         <v>3679541399</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="11" t="n">
         <v>4043770387</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="11" t="n">
         <v>224804379</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="11" t="n">
         <v>2703040938</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="11" t="n">
         <v>3303607630</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="11" t="n">
         <v>3229113881</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="11" t="n">
         <v>2403899910</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="11" t="n">
         <v>2972163997</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="11" t="n">
         <v>2712425751.419</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="11" t="n">
         <v>2572935205.7969</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="11" t="n">
         <v>3624593665.5376</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="11" t="n">
         <v>8541273987.5003</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="11" t="n">
         <v>6725253894.6372</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="11" t="n">
         <v>13179021662.9176</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="11" t="n">
         <v>14005232443.4122</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="11" t="n">
         <v>22313185090.754</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="11" t="n">
         <v>28557815643.1036</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="11" t="n">
         <v>24060196291.8646</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="11" t="n">
         <v>20053234934.0584</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>14652100405.0422</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="11" t="n">
         <v>7378172030.1515</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="11" t="n">
         <v>5489499760.9968</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="11" t="n">
         <v>4125718466.8439</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="11" t="n">
         <v>5530855137.4357</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="11" t="n">
         <v>5025288638.3715</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="11" t="n">
         <v>5724492245.6807</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>8708242908.223</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="11" t="n">
         <v>8946872365.7112</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="11" t="n">
         <v>8064885011.4485</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="11" t="n">
         <v>6823902570.1297</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="11" t="n">
         <v>7670300303.97</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="11" t="n">
         <v>4294071288.2246</v>
       </c>
+      <c r="AW3" s="11"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="11" t="n">
         <v>97984000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="11" t="n">
         <v>135301000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="11" t="n">
         <v>116075591</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="11" t="n">
         <v>110500696</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="11" t="n">
         <v>108267925</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="11" t="n">
         <v>94262022</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="11" t="n">
         <v>127728993</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="11" t="n">
         <v>151205367</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="11" t="n">
         <v>116364741</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="11" t="n">
         <v>145108422</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="11" t="n">
         <v>162224229</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="11" t="n">
         <v>161889008</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="11" t="n">
         <v>209020593</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="11" t="n">
         <v>363085026</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="11" t="n">
         <v>586985388.2188</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="11" t="n">
         <v>589787570.46</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="11" t="n">
         <v>540275674.1602</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="11" t="n">
         <v>744069460.0529</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="11" t="n">
         <v>1344987616.6357</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="11" t="n">
         <v>1271439668.7834</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="11" t="n">
         <v>1440587471.9528</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>1163035555.0505</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="11" t="n">
         <v>1171136665.0352</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="11" t="n">
         <v>853350008.7365</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="11" t="n">
         <v>1006946695.0411</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="11" t="n">
         <v>1293326802.5601</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="11" t="n">
         <v>1442092201.2456</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="11" t="n">
         <v>1767319942.525</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>2314365426.9541</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="11" t="n">
         <v>2196635688.779</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="11" t="n">
         <v>1969710831.0909</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="11" t="n">
         <v>996598746.2033</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="11" t="n">
         <v>1267695573.5046</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="11" t="n">
         <v>563295439.7297</v>
       </c>
+      <c r="AW4" s="11"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="11" t="n">
         <v>117842000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="11" t="n">
         <v>123549889</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="11" t="n">
         <v>174336236</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="11" t="n">
         <v>95925364</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="11" t="n">
         <v>1332159432</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="11" t="n">
         <v>112371739</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="11" t="n">
         <v>117368912</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="11" t="n">
         <v>163579286</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="11" t="n">
         <v>134634042</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="11" t="n">
         <v>223992378</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="11" t="n">
         <v>273490486</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="11" t="n">
         <v>380130784</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="11" t="n">
         <v>738750529</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="11" t="n">
         <v>493945778.7969</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="11" t="n">
         <v>978108422.2809</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="11" t="n">
         <v>1175625892.1925</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="11" t="n">
         <v>1325546674.705</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="11" t="n">
         <v>4827858196.5653</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="11" t="n">
         <v>9660511925.3262</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="11" t="n">
         <v>3265308918.0275</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="11" t="n">
         <v>3824480191.978</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>3707641097.2808</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="11" t="n">
         <v>2112769129.486</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="11" t="n">
         <v>534354452.8897</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="11" t="n">
         <v>505578197.8576</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="11" t="n">
         <v>385986722.4883</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="11" t="n">
         <v>581201477.4216</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="11" t="n">
         <v>341470941.6888</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>601002494.9974</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="11" t="n">
         <v>655272839.4614</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="11" t="n">
         <v>831056189.8662</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="11" t="n">
         <v>1015950604.5179</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="11" t="n">
         <v>1043903741.746</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="11" t="n">
         <v>704132011.448</v>
       </c>
+      <c r="AW5" s="11"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>44</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="11" t="n">
         <v>2504000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="11" t="n">
         <v>6670000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="11" t="n">
         <v>4792880</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="11" t="n">
         <v>959424</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="11" t="n">
         <v>688804444</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="11" t="n">
         <v>9510486</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="11" t="n">
         <v>2809212</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="11" t="n">
         <v>1488563</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="11" t="n">
         <v>1440356</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="11" t="n">
         <v>1901556</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="11" t="n">
         <v>10009474</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="11" t="n">
         <v>5050591</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="11" t="n">
         <v>16143667</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="11" t="n">
         <v>23340464.1368</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="11" t="n">
         <v>29327995.399</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="11" t="n">
         <v>28325917.9138</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="11" t="n">
         <v>20604732.8243</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="11" t="n">
         <v>28022183.9888</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="11" t="n">
         <v>32856002.7438</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="11" t="n">
         <v>103372372.3968</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="11" t="n">
         <v>-106115168.749</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>-92574904.4529</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="11" t="n">
         <v>29711081.8501</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="11" t="n">
         <v>23209710.5917</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="11" t="n">
         <v>32375848.1504</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="11" t="n">
         <v>68989684.1925</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="11" t="n">
         <v>52679954.1547</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="11" t="n">
         <v>127186737.8725</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>137855874.3067</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="11" t="n">
         <v>148320081.9487</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="11" t="n">
         <v>131096379.027</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="11" t="n">
         <v>32310074.5391</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="11" t="n">
         <v>48065784.4242</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="11" t="n">
         <v>18446673.3367</v>
       </c>
+      <c r="AW6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
@@ -2950,554 +3115,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="11" t="n">
         <v>681590162.710921</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="11" t="n">
         <v>306544171.998073</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="11" t="n">
         <v>359603251.225763</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="11" t="n">
         <v>265632284.158257</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="11" t="n">
         <v>2264747803.9063</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="11" t="n">
         <v>314289361.775119</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="11" t="n">
         <v>218089354.762127</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="11" t="n">
         <v>181354838.024744</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="11" t="n">
         <v>247002762.464338</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="11" t="n">
         <v>270872779.579478</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="11" t="n">
         <v>384732847.195707</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="11" t="n">
         <v>280450318.015132</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="11" t="n">
         <v>304768590.812411</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="11" t="n">
         <v>335042333.265175</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="11" t="n">
         <v>335895125.121034</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="11" t="n">
         <v>417232868.851002</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="11" t="n">
         <v>335699706.063693</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="11" t="n">
         <v>388461448.673654</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="11" t="n">
         <v>214562774.670382</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="11" t="n">
         <v>177930983.410385</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="11" t="n">
         <v>162099201.496002</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>189774647.421167</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="11" t="n">
         <v>182270731.826806</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="11" t="n">
         <v>660982437.79825</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="11" t="n">
         <v>188006121.265373</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="11" t="n">
         <v>262648450.529044</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="11" t="n">
         <v>298986156.613353</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="11" t="n">
         <v>342242778.954894</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>1059285863.86671</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="11" t="n">
         <v>1077011332.52145</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="11" t="n">
         <v>827822710.297447</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="11" t="n">
         <v>875793594.321029</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="11" t="n">
         <v>726402205.4638</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="11" t="n">
         <v>792797440.280607</v>
       </c>
+      <c r="AW11" s="11"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="11" t="n">
         <v>7381233118.36649</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="11" t="n">
         <v>11665547245.1756</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>6889156228.74662</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="11" t="n">
         <v>7397327211.11576</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="11" t="n">
         <v>402468231.937537</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="11" t="n">
         <v>4738882712.7146</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="11" t="n">
         <v>5684931799.03603</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="11" t="n">
         <v>5459751756.70025</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="11" t="n">
         <v>4014363023.71633</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="11" t="n">
         <v>4902221510.43137</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>4382547794.3354</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>4058746469.3331</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>5628870147.97638</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>13015520737.6482</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>10003676148.4359</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>19025956645.8648</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>19581202627.8813</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>30364160344.2576</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>38068018656.1897</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>31749979261.2234</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>26234197737.9395</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>18789602883.531</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>9291332035.797</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>6788693946.72496</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>5005315285.5228</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>6633970738.44472</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>5978033238.02501</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>6690350894.2748</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>9944042703.29578</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>10020274254.8107</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>8913559505.40596</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="11" t="n">
         <v>7296714367.2117</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="11" t="n">
         <v>7670300303.97</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="11" t="n">
         <v>4095678235.88836</v>
       </c>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="11" t="n">
         <v>194746293.016615</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="11" t="n">
         <v>259653382.261316</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="11" t="n">
         <v>217326779.081877</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="11" t="n">
         <v>202140509.262311</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="11" t="n">
         <v>193832524.722732</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="11" t="n">
         <v>165257085.174536</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="11" t="n">
         <v>219799290.742209</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="11" t="n">
         <v>255656442.765376</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="11" t="n">
         <v>194321864.896084</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="11" t="n">
         <v>239338619.400265</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="11" t="n">
         <v>262110561.595935</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="11" t="n">
         <v>255376209.305018</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="11" t="n">
         <v>324601840.872973</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="11" t="n">
         <v>553282881.727995</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="11" t="n">
         <v>873128631.216018</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="11" t="n">
         <v>851449601.711763</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="11" t="n">
         <v>755378212.635259</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="11" t="n">
         <v>1012542328.69127</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="11" t="n">
         <v>1792889705.65214</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="11" t="n">
         <v>1677799408.8693</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="11" t="n">
         <v>1884616458.25638</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>1491456897.96841</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="11" t="n">
         <v>1474812401.99743</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="11" t="n">
         <v>1055311465.70179</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="11" t="n">
         <v>1221626178.54326</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="11" t="n">
         <v>1551277686.76435</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="11" t="n">
         <v>1715498498.03981</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="11" t="n">
         <v>2065509053.1153</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>2642800491.35184</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="11" t="n">
         <v>2460177270.86697</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="11" t="n">
         <v>2176985124.57997</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="11" t="n">
         <v>1065650676.43229</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="11" t="n">
         <v>1267695573.5046</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="11" t="n">
         <v>537270277.557493</v>
       </c>
+      <c r="AW13" s="11"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>45</v>
       </c>
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="11" t="n">
         <v>234214694.865121</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="11" t="n">
         <v>237102065.445637</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="11" t="n">
         <v>326407406.765976</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="11" t="n">
         <v>175477645.227977</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="11" t="n">
         <v>2384970673.79615</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="11" t="n">
         <v>197006447.019922</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="11" t="n">
         <v>201971400.594889</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="11" t="n">
         <v>276578134.748749</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="11" t="n">
         <v>224830458.909694</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="11" t="n">
         <v>369448070.400092</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="11" t="n">
         <v>441886796.556175</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="11" t="n">
         <v>599647621.89453</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="11" t="n">
         <v>1147254336.12794</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="11" t="n">
         <v>752693513.475071</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="11" t="n">
         <v>1454916059.35623</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="11" t="n">
         <v>1697197851.91239</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="11" t="n">
         <v>1853292912.8443</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="11" t="n">
         <v>6569831236.71536</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="11" t="n">
         <v>12877614758.6929</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="11" t="n">
         <v>4308921222.88777</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="11" t="n">
         <v>5003290986.7714</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>4754615510.86503</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="11" t="n">
         <v>2660610164.25408</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="11" t="n">
         <v>660819564.199986</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="11" t="n">
         <v>613366690.456599</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="11" t="n">
         <v>462970835.212068</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="11" t="n">
         <v>691391480.180031</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="11" t="n">
         <v>399085250.193201</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>686291659.296513</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="11" t="n">
         <v>733889262.609347</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="11" t="n">
         <v>918508917.386023</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="11" t="n">
         <v>1086343378.46683</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="11" t="n">
         <v>1043903741.746</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="11" t="n">
         <v>671599971.427634</v>
       </c>
+      <c r="AW14" s="11"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="11" t="n">
         <v>4976779.04263558</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="11" t="n">
         <v>12800260.6017914</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="11" t="n">
         <v>8973645.22508396</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="11" t="n">
         <v>1755088.09427303</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="11" t="n">
         <v>1233169513.69261</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="11" t="n">
         <v>16673472.1111036</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="11" t="n">
         <v>4834163.25958589</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="11" t="n">
         <v>2516846.65010704</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="11" t="n">
         <v>2405304.74806165</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="11" t="n">
         <v>3136384.37714036</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="11" t="n">
         <v>16172607.9241832</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="11" t="n">
         <v>7967191.84498332</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="11" t="n">
         <v>25070563.3900879</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="11" t="n">
         <v>35567094.0240802</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="11" t="n">
         <v>43624786.9078019</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="11" t="n">
         <v>40892844.7017193</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="11" t="n">
         <v>28808193.663059</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="11" t="n">
         <v>38133062.777523</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="11" t="n">
         <v>43797569.8509296</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="11" t="n">
         <v>136410802.304702</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="11" t="n">
         <v>-138822804.854692</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>-118716473.649896</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="11" t="n">
         <v>37415165.3666921</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="11" t="n">
         <v>28702728.6017226</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="11" t="n">
         <v>39278329.0792327</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="11" t="n">
         <v>82749508.8580066</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="11" t="n">
         <v>62667547.9911308</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="11" t="n">
         <v>148646180.123176</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>157419207.922133</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="11" t="n">
         <v>166114798.319672</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="11" t="n">
         <v>144891758.994905</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="11" t="n">
         <v>34548761.895739</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="11" t="n">
         <v>48065784.4242</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="11" t="n">
         <v>17594407.1345172</v>
       </c>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3651,89 +3894,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>2093456735.9815</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="2" t="n">
         <v>2343488085</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="2" t="n">
         <v>3835139136.8467</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="2" t="n">
         <v>8700836474.0441</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="2" t="n">
         <v>6759772951.4358</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="2" t="n">
         <v>11117816201.8684</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="2" t="n">
         <v>9604689248.3746</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="2" t="n">
         <v>20152059832.0111</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="2" t="n">
         <v>28767470659.2672</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="2" t="n">
         <v>19557716682.1136</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>16235343814.0836</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="2" t="n">
         <v>12428436251.991</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="2" t="n">
         <v>6519820010.5957</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="2" t="n">
         <v>4621227533.9046</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="2" t="n">
         <v>3587679208.2345</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="2" t="n">
         <v>5338394558.6023</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="2" t="n">
         <v>5006344883.5449</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>6050990172.1041</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="2" t="n">
         <v>7469442700.8342</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="2" t="n">
         <v>7830903930.8369</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="2" t="n">
         <v>7853888109.4488</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="2" t="n">
         <v>5872857274.0338</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="2" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="2" t="n">
         <v>3391137360.8292</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3751,89 +3994,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>84160718</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="2" t="n">
         <v>80387605</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="2" t="n">
         <v>79689745</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="2" t="n">
         <v>135933144</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="2" t="n">
         <v>163198600</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="2" t="n">
         <v>196189849.1371</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="2" t="n">
         <v>108484498.0493</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="2" t="n">
         <v>101211759.8302</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="2" t="n">
         <v>190127627.8942</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="2" t="n">
         <v>371482128.9517</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>11302768.5422</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="2" t="n">
         <v>52871985.3049</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="2" t="n">
         <v>83384355.8596</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="2" t="n">
         <v>77168108.3885</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="2" t="n">
         <v>56985068.2196</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="2" t="n">
         <v>68701439.3897</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="2" t="n">
         <v>69171381.6357</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>103154932.7858</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="2" t="n">
         <v>93183548.2283</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="2" t="n">
         <v>59221283.6536</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="2" t="n">
         <v>63356169.8832</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="2" t="n">
         <v>43816364.2871</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="2" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="2" t="n">
         <v>34485608.6397</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3851,89 +4094,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>91304644</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="2" t="n">
         <v>32940794</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="2" t="n">
         <v>54237461</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="2" t="n">
         <v>59654793</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="2" t="n">
         <v>135335517</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="2" t="n">
         <v>320771590.6533</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="2" t="n">
         <v>332621519.5732</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="2" t="n">
         <v>189403707.5138</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="2" t="n">
         <v>632226459.1588</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="2" t="n">
         <v>461879992.5888</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>255457700.6809</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="2" t="n">
         <v>195276084.7593</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="2" t="n">
         <v>68314482.9297</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="2" t="n">
         <v>23928411.6059</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="2" t="n">
         <v>-5718044.7806</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="2" t="n">
         <v>26468673.8959</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="2" t="n">
         <v>52461607.4648</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>4073545.1261</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="2" t="n">
         <v>28288111.745</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="2" t="n">
         <v>84754626.0529</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="2" t="n">
         <v>57117742.1071</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="2" t="n">
         <v>133327128.9644</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="2" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="2" t="n">
         <v>11561085.9936</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3951,89 +4194,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>30955836</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="2" t="n">
         <v>1150507</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="2" t="n">
         <v>8264374</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="2" t="n">
         <v>2908169</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="2" t="n">
         <v>20655709</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="2" t="n">
         <v>30330308.9477</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="2" t="n">
         <v>111052625</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="2" t="n">
         <v>28066851.7188</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="2" t="n">
         <v>86722462</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="2" t="n">
         <v>372286358.0604</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>363479757.816</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="2" t="n">
         <v>400838494.7965</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="2" t="n">
         <v>644408586.099</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="2" t="n">
         <v>626922842.85</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="2" t="n">
         <v>591656248.0272</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="2" t="n">
         <v>1123132705.986</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="2" t="n">
         <v>966374377.951</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>958803560.0879</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="2" t="n">
         <v>3245394608.0548</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="2" t="n">
         <v>3226424318.7664</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="2" t="n">
         <v>2113491716.9231</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="2" t="n">
         <v>1891871805.327</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="2" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="2" t="n">
         <v>1200508032.5771</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4051,89 +4294,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>918847493.4375</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="2" t="n">
         <v>793624060</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="2" t="n">
         <v>721644049</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="2" t="n">
         <v>562887710</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="2" t="n">
         <v>989854346</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="2" t="n">
         <v>2093088902</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="2" t="n">
         <v>4800736041.7039</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="2" t="n">
         <v>5832042117.4612</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="2" t="n">
         <v>7963998824.6952</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="2" t="n">
         <v>6120470286.7576</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>3855801663.6071</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="2" t="n">
         <v>3597766300.2285</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="2" t="n">
         <v>1982832090.3539</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="2" t="n">
         <v>1390400591.7497</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="2" t="n">
         <v>1182623716.6221</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="2" t="n">
         <v>911377393.098</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="2" t="n">
         <v>649563464.814</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>774798581.1456</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="2" t="n">
         <v>1269206377.2964</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="2" t="n">
         <v>1027000021.2847</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="2" t="n">
         <v>1277191303.8535</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="2" t="n">
         <v>1647567482.4849</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="2" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="2" t="n">
         <v>1240361379.8584</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4151,89 +4394,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>110027344</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="2" t="n">
         <v>15855492</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="2" t="n">
         <v>32382282</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="2" t="n">
         <v>45992146</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="2" t="n">
         <v>367042946</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="2" t="n">
         <v>1350412609</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="2" t="n">
         <v>767525774.02</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1459077137.7921</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1905587007.1178</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="2" t="n">
         <v>1138805194.3427</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>4821736617.3757</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="2" t="n">
         <v>2903816859.8941</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="2" t="n">
         <v>1538442768.7119</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="2" t="n">
         <v>695403207.51</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="2" t="n">
         <v>412624387.29</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="2" t="n">
         <v>29957755.7005</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="2" t="n">
         <v>604099156.4609</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>345442314.1106</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="2" t="n">
         <v>583594057.2764</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="2" t="n">
         <v>680435437.4685</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="2" t="n">
         <v>380707733.2272</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="2" t="n">
         <v>98365945.3652</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="2" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="2" t="n">
         <v>533092183.145</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4251,67 +4494,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="n">
         <v>13216.3203</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="2" t="n">
         <v>114874</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="2" t="n">
         <v>234500</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="2" t="n">
         <v>13451884.1875</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="2" t="n">
         <v>54597604</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="2" t="n">
         <v>436281795.5313</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="2" t="n">
         <v>168328364.132</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="2" t="n">
         <v>813187516.6452</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>-224822649.1682</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="2" t="n">
         <v>-793142.3124</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-673666.0691</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-150606.43</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-264049.56</v>
       </c>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4327,109 +4570,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="2" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="2" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="2" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="2" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="2" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="2" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="2" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="2" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="2" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="2" t="n">
         <v>67514203</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="2" t="n">
         <v>30343123.2578</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="2" t="n">
         <v>53387575.1802</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="2" t="n">
         <v>133185320.3899</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="2" t="n">
         <v>109396118</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="2" t="n">
         <v>139711237</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="2" t="n">
         <v>352057610.5586</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="2" t="n">
         <v>453672.3524</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="2" t="n">
         <v>42670200.6924</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="2" t="n">
         <v>-674461.6601</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>17795237.7778</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="2" t="n">
         <v>-24734.1094</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="2" t="n">
         <v>100336.0553</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="2" t="n">
         <v>4582859.6709</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>16041348.3991</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4444,107 +4687,107 @@
       <c r="O10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4681,89 +4924,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>3382460956.217</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="2" t="n">
         <v>3696798881.48289</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="2" t="n">
         <v>5955840072.77418</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="2" t="n">
         <v>13258668171.5791</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="2" t="n">
         <v>10055022531.8695</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="2" t="n">
         <v>16050287681.7195</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="2" t="n">
         <v>13428650121.3138</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="2" t="n">
         <v>27423264474.2329</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="2" t="n">
         <v>38347492099.3418</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="2" t="n">
         <v>25808480177.028</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>21239526757.786</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="2" t="n">
         <v>15938014017.2824</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="2" t="n">
         <v>8210409337.77662</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="2" t="n">
         <v>5714928636.80538</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="2" t="n">
         <v>4352566886.19028</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="2" t="n">
         <v>6403124365.40504</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="2" t="n">
         <v>5955497936.24319</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>7071936823.6948</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="2" t="n">
         <v>8529442502.89328</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="2" t="n">
         <v>8770417397.56874</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="2" t="n">
         <v>8680359225.58041</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="2" t="n">
         <v>6279773429.88525</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="2" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="2" t="n">
         <v>3234461319.20146</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4781,89 +5024,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>135981001.082749</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="2" t="n">
         <v>126809609.210831</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="2" t="n">
         <v>123755451.816644</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="2" t="n">
         <v>207140135.915896</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="2" t="n">
         <v>242754543.970447</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="2" t="n">
         <v>283230399.001777</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="2" t="n">
         <v>151675950.175789</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="2" t="n">
         <v>137730677.70061</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="2" t="n">
         <v>253443126.609767</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="2" t="n">
         <v>490210044.301245</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>14786595.0754224</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="2" t="n">
         <v>67802129.3930724</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="2" t="n">
         <v>105005919.313959</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="2" t="n">
         <v>95431404.1544105</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="2" t="n">
         <v>69134196.940083</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="2" t="n">
         <v>82403774.330566</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="2" t="n">
         <v>82285585.6240586</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>120559635.194382</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="2" t="n">
         <v>106407365.135836</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="2" t="n">
         <v>66326362.9651473</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="2" t="n">
         <v>70023191.835575</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="2" t="n">
         <v>46852294.7868799</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="2" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="2" t="n">
         <v>32892317.6343865</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4881,89 +5124,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>147523656.994276</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="2" t="n">
         <v>51963349.5018851</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="2" t="n">
         <v>84228924.2040188</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="2" t="n">
         <v>90904260.4800976</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="2" t="n">
         <v>201308783.974493</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="2" t="n">
         <v>463083416.439554</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="2" t="n">
         <v>465049716.202337</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="2" t="n">
         <v>257743774.425507</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="2" t="n">
         <v>842767841.314433</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="2" t="n">
         <v>609499607.067917</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>334196844.318614</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="2" t="n">
         <v>250418710.208629</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="2" t="n">
         <v>86028428.336957</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="2" t="n">
         <v>29591523.8357201</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="2" t="n">
         <v>-6937123.11531894</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="2" t="n">
         <v>31747786.5081541</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="2" t="n">
         <v>62407804.9467873</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>4760849.5404698</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="2" t="n">
         <v>32302520.0551376</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="2" t="n">
         <v>94923070.6217266</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="2" t="n">
         <v>63128289.1651081</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="2" t="n">
         <v>142565045.068505</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="2" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="2" t="n">
         <v>11026945.085208</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4981,89 +5224,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>50016274.4409263</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="2" t="n">
         <v>1814898.49168072</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="2" t="n">
         <v>12834290.514441</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="2" t="n">
         <v>4431579.40881875</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="2" t="n">
         <v>30724940.1568473</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="2" t="n">
         <v>43786493.2507345</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="2" t="n">
         <v>155266537.793593</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="2" t="n">
         <v>38193847.3813533</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="2" t="n">
         <v>115602409.602499</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="2" t="n">
         <v>491271309.854225</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>475514293.411486</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="2" t="n">
         <v>514028427.969735</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="2" t="n">
         <v>811503732.319636</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="2" t="n">
         <v>775296018.511272</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="2" t="n">
         <v>717796448.261059</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="2" t="n">
         <v>1347138791.69792</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="2" t="n">
         <v>1149589320.63232</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>1120576634.63656</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="2" t="n">
         <v>3705953418.11937</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="2" t="n">
         <v>3613514892.68284</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="2" t="n">
         <v>2335896191.48124</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="2" t="n">
         <v>2022955052.62319</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="2" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="2" t="n">
         <v>1145042615.97112</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5081,89 +5324,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>1484609506.30205</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="2" t="n">
         <v>1251923812.24584</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="2" t="n">
         <v>1120688557.03814</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="2" t="n">
         <v>857749871.177755</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="2" t="n">
         <v>1472387878.08471</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="2" t="n">
         <v>3021697643.7215</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="2" t="n">
         <v>6712076045.53501</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="2" t="n">
         <v>7936341731.07967</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="2" t="n">
         <v>10616136038.7374</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="2" t="n">
         <v>8076609280.9972</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>5044266604.06522</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="2" t="n">
         <v>4613713950.92139</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="2" t="n">
         <v>2496980450.90624</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="2" t="n">
         <v>1719465250.33094</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1434757270.37638</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="2" t="n">
         <v>1093149396.83908</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="2" t="n">
         <v>772714218.485795</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>905525618.304672</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="2" t="n">
         <v>1449321355.4267</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="2" t="n">
         <v>1150214449.51071</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="2" t="n">
         <v>1411591196.9637</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="2" t="n">
         <v>1761723470.82175</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="2" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="2" t="n">
         <v>1183054674.0231</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5181,89 +5424,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>177774485.99709</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="2" t="n">
         <v>25011676.1702934</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="2" t="n">
         <v>50288577.7807918</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="2" t="n">
         <v>70084595.2147161</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="2" t="n">
         <v>545968794.914903</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="2" t="n">
         <v>1949529518.20061</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="2" t="n">
         <v>1073104481.76649</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="2" t="n">
         <v>1985536891.58963</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="2" t="n">
         <v>2540177534.74332</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="2" t="n">
         <v>1502774161.28895</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>6307929482.52253</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="2" t="n">
         <v>3723805061.09118</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="2" t="n">
         <v>1937360978.26925</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="2" t="n">
         <v>859983559.685779</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="2" t="n">
         <v>500595270.734032</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="2" t="n">
         <v>35932757.1900093</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="2" t="n">
         <v>718630330.765721</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>403726688.052382</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="2" t="n">
         <v>666412764.102647</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="2" t="n">
         <v>762070745.77893</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="2" t="n">
         <v>420769921.638273</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="2" t="n">
         <v>105181485.142009</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="2" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="2" t="n">
         <v>508462460.373338</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5281,67 +5524,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="n">
         <v>20524.4939619267</v>
       </c>
-      <c r="AC20" s="11" t="n">
+      <c r="AC20" s="2" t="n">
         <v>175049.404972216</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="2" t="n">
         <v>348813.902576798</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="2" t="n">
         <v>19419875.9136048</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="2" t="n">
         <v>76334809.239364</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="2" t="n">
         <v>593699659.681592</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="2" t="n">
         <v>224384364.204351</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="2" t="n">
         <v>1073087121.80793</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>-294119220.845946</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="2" t="n">
         <v>-1017112.13192294</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-848347.680655765</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-186250.296783546</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-320344.519245543</v>
       </c>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5357,109 +5600,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="2" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="2" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="2" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="2" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="2" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="2" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="2" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="2" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="2" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="2" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="2" t="n">
         <v>109084726.573316</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="2" t="n">
         <v>47865583.2893354</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="2" t="n">
         <v>82909080.5576136</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="2" t="n">
         <v>202952896.959155</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="2" t="n">
         <v>162724464.163462</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="2" t="n">
         <v>201694784.794342</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="2" t="n">
         <v>492223991.061165</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="2" t="n">
         <v>617365.024132673</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="2" t="n">
         <v>56880050.5025289</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="2" t="n">
         <v>-890023.649886265</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>23280223.2752766</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="2" t="n">
         <v>-31718.5987303145</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="2" t="n">
         <v>120347.837419546</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="2" t="n">
         <v>5451724.15145544</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>18747907.2381084</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5468,41 +5711,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -668,6 +669,21 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +692,7 @@
   <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -684,7 +700,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -724,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -733,7 +749,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,6 +2189,1488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>886506000</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>1390584000</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>787831501</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>946274271</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>1272653294</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>632854418</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>786510954</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>766161183</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>660565119</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>687767624</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>837983431</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>654796452</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>1232632023.5469</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>1130246775</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>1452056837.7656</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>3175176391.8047</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>5464560482.4938</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>6839356875.6788</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>8072001124.3207</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>6889143890.0566</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>4409505235.2583</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>3759524033.3481</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>2599820201.5748</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>1889131684.3013</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>1565931717.3698</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>946564294.1378</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>1087968235.4018</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>1847667812.8519</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>3115080987.0877</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>2572654093.846</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>2399351621.3374</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>3118901947.6276</v>
+      </c>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>1736961000</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>2569710000</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>1047483450</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>1765906809</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>1093701750</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>581555298</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>935647780</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>764560458</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>567043252</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>843543561</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>1025239831</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>947593124</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>1127138533.8008</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>1651912417</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>2892760009.2356</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>4129119086.259</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>4544241089.2704</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>12648494883.5832</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>20858036064.0062</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>13622013113.1193</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>15004232791.5379</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>10193711518.7293</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>5699762350.0308</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>3374878029.5538</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>2313306874.1224</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>3414878675.6013</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>3613418724.8578</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>3117253588.9273</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>6355866206.1668</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>6360102440.9942</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>6018929149.3179</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>4007922055.994</v>
+      </c>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>439697000</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>1679467708</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>1559758204</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>1133491170</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>866321181</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>1399806805</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>1414530321</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>1622527379</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>1166632543</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>1573910138</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>1183270198.9815</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>1363634907.7969</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>1874804529.77</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>5830983311.2621</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>2794342367.6039</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>6164786409.6763</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>4371065261.4864</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>6496004124.9463</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>8202368974.6011</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>5866416808.7428</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>4280836282.3881</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>3826443933.2041</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>1131332144.546</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>1224676378.0847</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>959348126.6333</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>2065296629.7012</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>1618001138.1234</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>2076016845.49</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>1791692041.0738</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>2464835320.6091</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>1782219028.4007</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>1569588495.1783</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>9796358546.0087</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>6013243352.5354</v>
+      </c>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>331377000</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>710348473</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>556826915</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>418439411</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>330150636</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>387903859</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>419014865</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>489491374</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>401054209</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>401762355</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>349773513.4375</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>331714055.4609</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>549534587.9297</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>1023217740.7969</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>1404530414.6925</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>1773892246.9974</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>1661296795.5901</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>2171131463.3616</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>2539247331.377</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>2351550644.3131</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>1432646464.3045</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>1618013234.5207</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>1253903797.7823</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>876150172.7099</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>977614355.5743</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>1052267047.6487</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>1022932355.3975</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>1198500764.761</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>1410043432.9273</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>1505081025.544</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>1428022139.3594</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>919900293.3019</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>960009063.0999</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>397902298.5076</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>880491000</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>153865708</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>214912380</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>132252869</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>56216550</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>96334279</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>122546148</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>9907152</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>8955292</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>409918</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
+        <v>51127</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>648164.2998</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>5152386.375</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>1801058.1382</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>18798448.0566</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>90601292.4389</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>43609526.641</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>85478110.6526</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>106029241.5681</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>208874137.2263</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>180495380.7503</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>151710134.5468</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>70063824.929</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>9385460.353</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>19126215.6387</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>10277277.7617</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>13865441.729</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>16426736.1795</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>6066737.0697</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>117230837.0275</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>71493208.3606</v>
+      </c>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="12" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="12" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="12" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="12" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="12" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="12" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="12" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="12" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="12" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="12" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="12" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="12" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="12" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="12" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="12" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="12" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="12" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="12" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="12" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>1761958658.93398</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>2668641317.6434</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>1475046399.47576</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>1731033106.26896</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>2278436582.88197</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>1109499608.00233</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>1353447997.90427</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>1295417262.7397</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>1103102578.20609</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>1134388695.89775</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>1353955010.67537</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>1032926434.25263</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>1914235426.374</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>1722313364.51692</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>2159904530.25306</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>4583858340.82283</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>7640192086.23388</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>9307112721.91998</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>10760104807.5128</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>9090955575.90441</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>5768636962.99569</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>4821149300.43699</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>3273953579.21848</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>2336230510.63833</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>1899785946.13896</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>1135354239.6842</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>1294236160.58301</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>2159413529.3595</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>3557146796.00571</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>2881308520.94134</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>2651837369.14086</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>3335003162.38342</v>
+      </c>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>3452264817.36236</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>4931477911.69855</v>
+      </c>
+      <c r="N12" s="12" t="n">
+        <v>1961189276.47823</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>3230398672.61145</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>1958058875.66581</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>1019563673.43031</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>1610086430.6393</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>1292710773.76074</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>946926889.180117</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>1391322078.42301</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>1656510803.16697</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>1494806490.94236</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>1750407640.41179</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>2517247468.20051</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>4302920716.58662</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>5961022201.05045</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>6353461530.78688</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>17212286152.6294</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>27804091039.0082</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>17975690164.4186</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>19628953196.5115</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>13072241252.2021</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>7177710726.02428</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>4173606894.55731</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>2806500334.47566</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>4095967919.30825</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>4298486872.01019</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>3643208767.0478</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>7257836699.85549</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>7123156354.80585</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>6652306022.35601</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>4285621335.89786</v>
+      </c>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>873911667.216348</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>3223032134.13692</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>2920314458.03152</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>2073511666.82364</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>1550978479.85919</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>2454095376.83989</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>2434159653.08009</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>2743352211.8601</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>1948203635.0188</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>2595972544.50882</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>1911845217.49076</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>2151102894.08389</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>2911507392.19427</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>8885475904.37657</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>4156526509.08147</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>8899822912.6176</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>6111338382.32856</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>8839872480.98264</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>10933887208.053</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>7741358788.42582</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>5600308672.651</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>4906966235.11123</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>1424686569.35495</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>1514519259.78242</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>1163879668.70862</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>2477215017.7845</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>1924758014.69554</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>2426290501.00181</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>2045953742.37542</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>2760554179.81634</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>1969763405.02879</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>1678341507.03005</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>9796358546.0087</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>5735421764.79847</v>
+      </c>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>658622247.927895</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>1363215228.25856</v>
+      </c>
+      <c r="N14" s="12" t="n">
+        <v>1042539597.69241</v>
+      </c>
+      <c r="O14" s="12" t="n">
+        <v>765457220.603944</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>591070082.064431</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>680060322.345877</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>721051407.15736</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>827626862.220942</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>669735532.83897</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>662657935.682734</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>565139576.27431</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>523271339.440162</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>853408443.183161</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>1559218419.16807</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>2089209958.36545</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>2560887890.54593</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>2322716835.364</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>2954512482.81411</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>3384856740.85101</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>3103120327.15638</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>1874227811.95721</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>2074912490.12185</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>1579041052.24597</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>1083507720.71401</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>1186040229.5084</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>1262139150.21604</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>1216870126.44892</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>1400716486.14039</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>1610144808.58023</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>1685653269.12023</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>1578294085.55088</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>983637972.194942</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>960009063.0999</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>379518567.490138</v>
+      </c>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>1750003656.5612</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>295280533.744998</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>402377579.367401</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>241932071.550587</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>100644727.583924</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>168890098.176872</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>210880519.613819</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>16750908.3077446</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>14954779.4905416</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>676109.676027748</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="n">
+        <v>80651.673726592</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>1006577.01656804</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>7851403.87842945</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>2679036.75033366</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>27138468.0048575</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>126672818.374287</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>59344582.7692792</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>113943669.630938</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>139916822.790374</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>273254935.493208</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>231464188.263601</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>191048572.398333</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>86645757.3346412</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>11386426.0356271</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>22940892.8152016</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>12225747.1116659</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>16204873.1118684</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>18757878.9161331</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>6794594.44433329</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>129567134.587762</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>76446800.8213275</v>
+      </c>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3896,89 +5394,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>2093456735.9815</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>2343488085</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>3835139136.8467</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>8700836474.0441</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>6759772951.4358</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>11117816201.8684</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>9604689248.3746</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>20152059832.0111</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>28767470659.2672</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>19557716682.1136</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>16235343814.0836</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>12428436251.991</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>6519820010.5957</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>4621227533.9046</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>3587679208.2345</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>5338394558.6023</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>5006344883.5449</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>6050990172.1041</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>7469442700.8342</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>7830903930.8369</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>7853888109.4488</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>5872857274.0338</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>3391137360.8292</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3996,89 +5494,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>84160718</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>80387605</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>79689745</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>135933144</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>163198600</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>196189849.1371</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>108484498.0493</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>101211759.8302</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>190127627.8942</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>371482128.9517</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>11302768.5422</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>52871985.3049</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>83384355.8596</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>77168108.3885</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>56985068.2196</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>68701439.3897</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>69171381.6357</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>103154932.7858</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>93183548.2283</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>59221283.6536</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>63356169.8832</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>43816364.2871</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>34485608.6397</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4096,89 +5594,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>91304644</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>32940794</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>54237461</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>59654793</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>135335517</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>320771590.6533</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>332621519.5732</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>189403707.5138</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>632226459.1588</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>461879992.5888</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>255457700.6809</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>195276084.7593</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>68314482.9297</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>23928411.6059</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>-5718044.7806</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>26468673.8959</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>52461607.4648</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>4073545.1261</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>28288111.745</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>84754626.0529</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>57117742.1071</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>133327128.9644</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>11561085.9936</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4196,89 +5694,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>30955836</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>1150507</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>8264374</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>2908169</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>20655709</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>30330308.9477</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>111052625</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>28066851.7188</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>86722462</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>372286358.0604</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>363479757.816</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>400838494.7965</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>644408586.099</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>626922842.85</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>591656248.0272</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>1123132705.986</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>966374377.951</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>958803560.0879</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3245394608.0548</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>3226424318.7664</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>2113491716.9231</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>1891871805.327</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>1200508032.5771</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4296,89 +5794,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>918847493.4375</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>793624060</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>721644049</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>562887710</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>989854346</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>2093088902</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>4800736041.7039</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>5832042117.4612</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>7963998824.6952</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>6120470286.7576</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>3855801663.6071</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3597766300.2285</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>1982832090.3539</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>1390400591.7497</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>1182623716.6221</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>911377393.098</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>649563464.814</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>774798581.1456</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>1269206377.2964</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>1027000021.2847</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>1277191303.8535</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>1647567482.4849</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>1240361379.8584</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4396,89 +5894,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>110027344</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>15855492</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>32382282</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>45992146</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>367042946</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1350412609</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>767525774.02</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1459077137.7921</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1905587007.1178</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1138805194.3427</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>4821736617.3757</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>2903816859.8941</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1538442768.7119</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>695403207.51</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>412624387.29</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>29957755.7005</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>604099156.4609</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>345442314.1106</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>583594057.2764</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>680435437.4685</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>380707733.2272</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>98365945.3652</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>533092183.145</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4496,67 +5994,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="n">
         <v>13216.3203</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="3" t="n">
         <v>114874</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="3" t="n">
         <v>234500</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>13451884.1875</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>54597604</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>436281795.5313</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>168328364.132</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>813187516.6452</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>-224822649.1682</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>-793142.3124</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-673666.0691</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-150606.43</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-264049.56</v>
       </c>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4572,109 +6070,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>67514203</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>30343123.2578</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>53387575.1802</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>133185320.3899</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>109396118</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>139711237</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>352057610.5586</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>453672.3524</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>42670200.6924</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>-674461.6601</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>17795237.7778</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-24734.1094</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>100336.0553</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>4582859.6709</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>16041348.3991</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4689,107 +6187,107 @@
       <c r="O10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4926,89 +6424,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>3382460956.217</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>3696798881.48289</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>5955840072.77418</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>13258668171.5791</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>10055022531.8695</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>16050287681.7195</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>13428650121.3138</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>27423264474.2329</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>38347492099.3418</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>25808480177.028</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>21239526757.786</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>15938014017.2824</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>8210409337.77662</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>5714928636.80538</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>4352566886.19028</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>6403124365.40504</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>5955497936.24319</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>7071936823.6948</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>8529442502.89328</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>8770417397.56874</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>8680359225.58041</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>6279773429.88525</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>5898471649.5064</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>3234461319.20146</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5026,89 +6524,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>135981001.082749</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>126809609.210831</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>123755451.816644</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>207140135.915896</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>242754543.970447</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>283230399.001777</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>151675950.175789</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>137730677.70061</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>253443126.609767</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>490210044.301245</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>14786595.0754224</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>67802129.3930724</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>105005919.313959</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>95431404.1544105</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>69134196.940083</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>82403774.330566</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>82285585.6240586</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>120559635.194382</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>106407365.135836</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>66326362.9651473</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>70023191.835575</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>46852294.7868799</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>54082670.4849</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>32892317.6343865</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5126,89 +6624,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>147523656.994276</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>51963349.5018851</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>84228924.2040188</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>90904260.4800976</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>201308783.974493</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>463083416.439554</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>465049716.202337</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>257743774.425507</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>842767841.314433</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>609499607.067917</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>334196844.318614</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>250418710.208629</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>86028428.336957</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>29591523.8357201</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>-6937123.11531894</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>31747786.5081541</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>62407804.9467873</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>4760849.5404698</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>32302520.0551376</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>94923070.6217266</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>63128289.1651081</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>142565045.068505</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>42207712.5864</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>11026945.085208</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5226,89 +6724,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>50016274.4409263</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>1814898.49168072</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>12834290.514441</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>4431579.40881875</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>30724940.1568473</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>43786493.2507345</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>155266537.793593</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>38193847.3813533</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>115602409.602499</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>491271309.854225</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>475514293.411486</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>514028427.969735</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>811503732.319636</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>775296018.511272</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>717796448.261059</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1347138791.69792</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1149589320.63232</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1120576634.63656</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>3705953418.11937</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>3613514892.68284</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>2335896191.48124</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>2022955052.62319</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>2151339847.4692</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>1145042615.97112</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5326,89 +6824,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>1484609506.30205</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>1251923812.24584</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>1120688557.03814</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>857749871.177755</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>1472387878.08471</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>3021697643.7215</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>6712076045.53501</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>7936341731.07967</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>10616136038.7374</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>8076609280.9972</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5044266604.06522</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4613713950.92139</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>2496980450.90624</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>1719465250.33094</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>1434757270.37638</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>1093149396.83908</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>772714218.485795</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>905525618.304672</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>1449321355.4267</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>1150214449.51071</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>1411591196.9637</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>1761723470.82175</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>2253175886.1074</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>1183054674.0231</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5426,89 +6924,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>177774485.99709</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>25011676.1702934</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>50288577.7807918</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>70084595.2147161</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>545968794.914903</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1949529518.20061</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1073104481.76649</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1985536891.58963</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>2540177534.74332</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>1502774161.28895</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>6307929482.52253</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>3723805061.09118</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>1937360978.26925</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>859983559.685779</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>500595270.734032</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>35932757.1900093</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>718630330.765721</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>403726688.052382</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>666412764.102647</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>762070745.77893</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>420769921.638273</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>105181485.142009</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>357089842.9543</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>508462460.373338</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5526,67 +7024,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="n">
         <v>20524.4939619267</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="3" t="n">
         <v>175049.404972216</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="3" t="n">
         <v>348813.902576798</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>19419875.9136048</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>76334809.239364</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>593699659.681592</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>224384364.204351</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>1073087121.80793</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>-294119220.845946</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>-1017112.13192294</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-848347.680655765</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-186250.296783546</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-320344.519245543</v>
       </c>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5602,109 +7100,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>109084726.573316</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>47865583.2893354</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>82909080.5576136</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>202952896.959155</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>162724464.163462</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>201694784.794342</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>492223991.061165</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>617365.024132673</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>56880050.5025289</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>-890023.649886265</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>23280223.2752766</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-31718.5987303145</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>120347.837419546</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>5451724.15145544</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>18747907.2381084</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5713,41 +7211,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -689,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -701,6 +701,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -736,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -750,6 +751,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2317,106 +2319,106 @@
       <c r="K2" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="13" t="n">
         <v>886506000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="13" t="n">
         <v>1390584000</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="13" t="n">
         <v>787831501</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="13" t="n">
         <v>946274271</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="n">
         <v>1272653294</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="13" t="n">
         <v>632854418</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="n">
         <v>786510954</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="13" t="n">
         <v>766161183</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="n">
         <v>660565119</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="13" t="n">
         <v>687767624</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="13" t="n">
         <v>837983431</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="13" t="n">
         <v>654796452</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="13" t="n">
         <v>1232632023.5469</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="13" t="n">
         <v>1130246775</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="13" t="n">
         <v>1452056837.7656</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="13" t="n">
         <v>3175176391.8047</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="13" t="n">
         <v>5464560482.4938</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="13" t="n">
         <v>6839356875.6788</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="13" t="n">
         <v>8072001124.3207</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="13" t="n">
         <v>6889143890.0566</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="13" t="n">
         <v>4409505235.2583</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="13" t="n">
         <v>3759524033.3481</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="13" t="n">
         <v>2599820201.5748</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="13" t="n">
         <v>1889131684.3013</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>1565931717.3698</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="13" t="n">
         <v>946564294.1378</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="13" t="n">
         <v>1087968235.4018</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="13" t="n">
         <v>1847667812.8519</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="13" t="n">
         <v>3115080987.0877</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="13" t="n">
         <v>2572654093.846</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="13" t="n">
         <v>2399351621.3374</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>3118901947.6276</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2425,106 +2427,106 @@
       <c r="K3" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>1736961000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>2569710000</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="13" t="n">
         <v>1047483450</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="13" t="n">
         <v>1765906809</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="13" t="n">
         <v>1093701750</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="13" t="n">
         <v>581555298</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="13" t="n">
         <v>935647780</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>764560458</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="13" t="n">
         <v>567043252</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="13" t="n">
         <v>843543561</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="13" t="n">
         <v>1025239831</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="13" t="n">
         <v>947593124</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="13" t="n">
         <v>1127138533.8008</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="13" t="n">
         <v>1651912417</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="13" t="n">
         <v>2892760009.2356</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="13" t="n">
         <v>4129119086.259</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>4544241089.2704</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="13" t="n">
         <v>12648494883.5832</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="13" t="n">
         <v>20858036064.0062</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="13" t="n">
         <v>13622013113.1193</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="13" t="n">
         <v>15004232791.5379</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="13" t="n">
         <v>10193711518.7293</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="13" t="n">
         <v>5699762350.0308</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="13" t="n">
         <v>3374878029.5538</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>2313306874.1224</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="13" t="n">
         <v>3414878675.6013</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="13" t="n">
         <v>3613418724.8578</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="13" t="n">
         <v>3117253588.9273</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="13" t="n">
         <v>6355866206.1668</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="13" t="n">
         <v>6360102440.9942</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="13" t="n">
         <v>6018929149.3179</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>4007922055.994</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2533,110 +2535,110 @@
       <c r="K4" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="13" t="n">
         <v>439697000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>1679467708</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>1559758204</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>1133491170</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>866321181</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>1399806805</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>1414530321</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>1622527379</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="13" t="n">
         <v>1166632543</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>1573910138</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>1183270198.9815</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>1363634907.7969</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>1874804529.77</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>5830983311.2621</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="13" t="n">
         <v>2794342367.6039</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="13" t="n">
         <v>6164786409.6763</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>4371065261.4864</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="13" t="n">
         <v>6496004124.9463</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>8202368974.6011</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
         <v>5866416808.7428</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="13" t="n">
         <v>4280836282.3881</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="13" t="n">
         <v>3826443933.2041</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="13" t="n">
         <v>1131332144.546</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="13" t="n">
         <v>1224676378.0847</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>959348126.6333</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="13" t="n">
         <v>2065296629.7012</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>1618001138.1234</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="13" t="n">
         <v>2076016845.49</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="13" t="n">
         <v>1791692041.0738</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="13" t="n">
         <v>2464835320.6091</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="13" t="n">
         <v>1782219028.4007</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>1569588495.1783</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="13" t="n">
         <v>9796358546.0087</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="13" t="n">
         <v>6013243352.5354</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2645,110 +2647,110 @@
       <c r="K5" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>331377000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>710348473</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <v>556826915</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="13" t="n">
         <v>418439411</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="13" t="n">
         <v>330150636</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="13" t="n">
         <v>387903859</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="13" t="n">
         <v>419014865</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>489491374</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="13" t="n">
         <v>401054209</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="13" t="n">
         <v>401762355</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="13" t="n">
         <v>349773513.4375</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="13" t="n">
         <v>331714055.4609</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="13" t="n">
         <v>549534587.9297</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="13" t="n">
         <v>1023217740.7969</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="13" t="n">
         <v>1404530414.6925</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="13" t="n">
         <v>1773892246.9974</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="13" t="n">
         <v>1661296795.5901</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="13" t="n">
         <v>2171131463.3616</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="13" t="n">
         <v>2539247331.377</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="13" t="n">
         <v>2351550644.3131</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="13" t="n">
         <v>1432646464.3045</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="13" t="n">
         <v>1618013234.5207</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="13" t="n">
         <v>1253903797.7823</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="13" t="n">
         <v>876150172.7099</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>977614355.5743</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="13" t="n">
         <v>1052267047.6487</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="13" t="n">
         <v>1022932355.3975</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="13" t="n">
         <v>1198500764.761</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="13" t="n">
         <v>1410043432.9273</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="13" t="n">
         <v>1505081025.544</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="13" t="n">
         <v>1428022139.3594</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>919900293.3019</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="13" t="n">
         <v>960009063.0999</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="13" t="n">
         <v>397902298.5076</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2757,104 +2759,104 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>880491000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>153865708</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>214912380</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="13" t="n">
         <v>132252869</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="13" t="n">
         <v>56216550</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="13" t="n">
         <v>96334279</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="13" t="n">
         <v>122546148</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>9907152</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="13" t="n">
         <v>8955292</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="13" t="n">
         <v>409918</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="n">
         <v>51127</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="13" t="n">
         <v>648164.2998</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="13" t="n">
         <v>5152386.375</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="13" t="n">
         <v>1801058.1382</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="13" t="n">
         <v>18798448.0566</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>90601292.4389</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="13" t="n">
         <v>43609526.641</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="13" t="n">
         <v>85478110.6526</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="13" t="n">
         <v>106029241.5681</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="13" t="n">
         <v>208874137.2263</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="13" t="n">
         <v>180495380.7503</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="13" t="n">
         <v>151710134.5468</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="13" t="n">
         <v>70063824.929</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>9385460.353</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="13" t="n">
         <v>19126215.6387</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="13" t="n">
         <v>10277277.7617</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="13" t="n">
         <v>13865441.729</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="13" t="n">
         <v>16426736.1795</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="13" t="n">
         <v>6066737.0697</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="13" t="n">
         <v>117230837.0275</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>71493208.3606</v>
       </c>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2863,110 +2865,110 @@
       <c r="K7" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="13" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="13" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="13" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3085,106 +3087,106 @@
       <c r="K11" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="13" t="n">
         <v>1761958658.93398</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>2668641317.6434</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="13" t="n">
         <v>1475046399.47576</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>1731033106.26896</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="13" t="n">
         <v>2278436582.88197</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="13" t="n">
         <v>1109499608.00233</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="13" t="n">
         <v>1353447997.90427</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="13" t="n">
         <v>1295417262.7397</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="13" t="n">
         <v>1103102578.20609</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="13" t="n">
         <v>1134388695.89775</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="13" t="n">
         <v>1353955010.67537</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="13" t="n">
         <v>1032926434.25263</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="13" t="n">
         <v>1914235426.374</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="13" t="n">
         <v>1722313364.51692</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="13" t="n">
         <v>2159904530.25306</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="13" t="n">
         <v>4583858340.82283</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="13" t="n">
         <v>7640192086.23388</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="13" t="n">
         <v>9307112721.91998</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="13" t="n">
         <v>10760104807.5128</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="13" t="n">
         <v>9090955575.90441</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="13" t="n">
         <v>5768636962.99569</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="13" t="n">
         <v>4821149300.43699</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="13" t="n">
         <v>3273953579.21848</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="13" t="n">
         <v>2336230510.63833</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>1899785946.13896</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="13" t="n">
         <v>1135354239.6842</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="13" t="n">
         <v>1294236160.58301</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="13" t="n">
         <v>2159413529.3595</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="13" t="n">
         <v>3557146796.00571</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="13" t="n">
         <v>2881308520.94134</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="13" t="n">
         <v>2651837369.14086</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="13" t="n">
         <v>3335003162.38342</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3193,106 +3195,106 @@
       <c r="K12" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="13" t="n">
         <v>3452264817.36236</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>4931477911.69855</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="13" t="n">
         <v>1961189276.47823</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="13" t="n">
         <v>3230398672.61145</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="13" t="n">
         <v>1958058875.66581</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="13" t="n">
         <v>1019563673.43031</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="13" t="n">
         <v>1610086430.6393</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="13" t="n">
         <v>1292710773.76074</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>946926889.180117</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="13" t="n">
         <v>1391322078.42301</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="13" t="n">
         <v>1656510803.16697</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="13" t="n">
         <v>1494806490.94236</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="13" t="n">
         <v>1750407640.41179</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="13" t="n">
         <v>2517247468.20051</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="13" t="n">
         <v>4302920716.58662</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="13" t="n">
         <v>5961022201.05045</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>6353461530.78688</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="13" t="n">
         <v>17212286152.6294</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="13" t="n">
         <v>27804091039.0082</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="13" t="n">
         <v>17975690164.4186</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="13" t="n">
         <v>19628953196.5115</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="13" t="n">
         <v>13072241252.2021</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="13" t="n">
         <v>7177710726.02428</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="13" t="n">
         <v>4173606894.55731</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>2806500334.47566</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="13" t="n">
         <v>4095967919.30825</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="13" t="n">
         <v>4298486872.01019</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="13" t="n">
         <v>3643208767.0478</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="13" t="n">
         <v>7257836699.85549</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="13" t="n">
         <v>7123156354.80585</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="13" t="n">
         <v>6652306022.35601</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="13" t="n">
         <v>4285621335.89786</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3301,110 +3303,110 @@
       <c r="K13" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="13" t="n">
         <v>873911667.216348</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>3223032134.13692</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>2920314458.03152</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="13" t="n">
         <v>2073511666.82364</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="13" t="n">
         <v>1550978479.85919</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="13" t="n">
         <v>2454095376.83989</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="13" t="n">
         <v>2434159653.08009</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="13" t="n">
         <v>2743352211.8601</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="13" t="n">
         <v>1948203635.0188</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="13" t="n">
         <v>2595972544.50882</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="13" t="n">
         <v>1911845217.49076</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="13" t="n">
         <v>2151102894.08389</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="13" t="n">
         <v>2911507392.19427</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="13" t="n">
         <v>8885475904.37657</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="13" t="n">
         <v>4156526509.08147</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="13" t="n">
         <v>8899822912.6176</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
         <v>6111338382.32856</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="13" t="n">
         <v>8839872480.98264</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="13" t="n">
         <v>10933887208.053</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="13" t="n">
         <v>7741358788.42582</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="13" t="n">
         <v>5600308672.651</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="13" t="n">
         <v>4906966235.11123</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="13" t="n">
         <v>1424686569.35495</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="13" t="n">
         <v>1514519259.78242</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>1163879668.70862</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="13" t="n">
         <v>2477215017.7845</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="13" t="n">
         <v>1924758014.69554</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="13" t="n">
         <v>2426290501.00181</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="13" t="n">
         <v>2045953742.37542</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="13" t="n">
         <v>2760554179.81634</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="13" t="n">
         <v>1969763405.02879</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="13" t="n">
         <v>1678341507.03005</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="13" t="n">
         <v>9796358546.0087</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="13" t="n">
         <v>5735421764.79847</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3413,110 +3415,110 @@
       <c r="K14" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>658622247.927895</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>1363215228.25856</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>1042539597.69241</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="13" t="n">
         <v>765457220.603944</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="13" t="n">
         <v>591070082.064431</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="13" t="n">
         <v>680060322.345877</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="13" t="n">
         <v>721051407.15736</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="13" t="n">
         <v>827626862.220942</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="13" t="n">
         <v>669735532.83897</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="13" t="n">
         <v>662657935.682734</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="13" t="n">
         <v>565139576.27431</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="13" t="n">
         <v>523271339.440162</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="13" t="n">
         <v>853408443.183161</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="13" t="n">
         <v>1559218419.16807</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="13" t="n">
         <v>2089209958.36545</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="13" t="n">
         <v>2560887890.54593</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="13" t="n">
         <v>2322716835.364</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="13" t="n">
         <v>2954512482.81411</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="13" t="n">
         <v>3384856740.85101</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="13" t="n">
         <v>3103120327.15638</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="13" t="n">
         <v>1874227811.95721</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="13" t="n">
         <v>2074912490.12185</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="13" t="n">
         <v>1579041052.24597</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="13" t="n">
         <v>1083507720.71401</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="13" t="n">
         <v>1186040229.5084</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="13" t="n">
         <v>1262139150.21604</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="13" t="n">
         <v>1216870126.44892</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="13" t="n">
         <v>1400716486.14039</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="13" t="n">
         <v>1610144808.58023</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="13" t="n">
         <v>1685653269.12023</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="13" t="n">
         <v>1578294085.55088</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>983637972.194942</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="13" t="n">
         <v>960009063.0999</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="13" t="n">
         <v>379518567.490138</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3525,145 +3527,145 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="13" t="n">
         <v>1750003656.5612</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>295280533.744998</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>402377579.367401</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="13" t="n">
         <v>241932071.550587</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="13" t="n">
         <v>100644727.583924</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="13" t="n">
         <v>168890098.176872</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="13" t="n">
         <v>210880519.613819</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="13" t="n">
         <v>16750908.3077446</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="13" t="n">
         <v>14954779.4905416</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="13" t="n">
         <v>676109.676027748</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12" t="n">
+      <c r="V15" s="13"/>
+      <c r="W15" s="13" t="n">
         <v>80651.673726592</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="13" t="n">
         <v>1006577.01656804</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="13" t="n">
         <v>7851403.87842945</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="13" t="n">
         <v>2679036.75033366</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="13" t="n">
         <v>27138468.0048575</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>126672818.374287</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="13" t="n">
         <v>59344582.7692792</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="13" t="n">
         <v>113943669.630938</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="13" t="n">
         <v>139916822.790374</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="13" t="n">
         <v>273254935.493208</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="13" t="n">
         <v>231464188.263601</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="13" t="n">
         <v>191048572.398333</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="13" t="n">
         <v>86645757.3346412</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="13" t="n">
         <v>11386426.0356271</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="13" t="n">
         <v>22940892.8152016</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="13" t="n">
         <v>12225747.1116659</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="13" t="n">
         <v>16204873.1118684</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="13" t="n">
         <v>18757878.9161331</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="13" t="n">
         <v>6794594.44433329</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="13" t="n">
         <v>129567134.587762</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>76446800.8213275</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -700,8 +700,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -750,8 +750,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2415,8 +2415,12 @@
       <c r="AQ2" s="13" t="n">
         <v>3118901947.6276</v>
       </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
+      <c r="AR2" s="13" t="n">
+        <v>4403866497.644</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>2360528547.9345</v>
+      </c>
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
     </row>
@@ -2461,28 +2465,28 @@
         <v>1025239831</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>947593124</v>
+        <v>941396748</v>
       </c>
       <c r="X3" s="13" t="n">
-        <v>1127138533.8008</v>
+        <v>1120245130.8008</v>
       </c>
       <c r="Y3" s="13" t="n">
-        <v>1651912417</v>
+        <v>1646776230</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>2892760009.2356</v>
+        <v>2887605302.2356</v>
       </c>
       <c r="AA3" s="13" t="n">
-        <v>4129119086.259</v>
+        <v>4123836974.259</v>
       </c>
       <c r="AB3" s="13" t="n">
-        <v>4544241089.2704</v>
+        <v>4537946570.2704</v>
       </c>
       <c r="AC3" s="13" t="n">
-        <v>12648494883.5832</v>
+        <v>12643182968.4787</v>
       </c>
       <c r="AD3" s="13" t="n">
-        <v>20858036064.0062</v>
+        <v>20850220680.0062</v>
       </c>
       <c r="AE3" s="13" t="n">
         <v>13622013113.1193</v>
@@ -2518,13 +2522,17 @@
         <v>6360102440.9942</v>
       </c>
       <c r="AP3" s="13" t="n">
-        <v>6018929149.3179</v>
+        <v>6018929049.3179</v>
       </c>
       <c r="AQ3" s="13" t="n">
         <v>4007922055.994</v>
       </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
+      <c r="AR3" s="13" t="n">
+        <v>3740907018.4825</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>2651952272.7688</v>
+      </c>
       <c r="AT3" s="13"/>
       <c r="AU3" s="13"/>
     </row>
@@ -2569,28 +2577,28 @@
         <v>1183270198.9815</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>1363634907.7969</v>
+        <v>1369831283.7969</v>
       </c>
       <c r="X4" s="13" t="n">
-        <v>1874804529.77</v>
+        <v>1881697932.77</v>
       </c>
       <c r="Y4" s="13" t="n">
-        <v>5830983311.2621</v>
+        <v>5836119498.2621</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>2794342367.6039</v>
+        <v>2799497074.6039</v>
       </c>
       <c r="AA4" s="13" t="n">
-        <v>6164786409.6763</v>
+        <v>6170068521.6763</v>
       </c>
       <c r="AB4" s="13" t="n">
-        <v>4371065261.4864</v>
+        <v>4377359780.4864</v>
       </c>
       <c r="AC4" s="13" t="n">
-        <v>6496004124.9463</v>
+        <v>6501316040.0508</v>
       </c>
       <c r="AD4" s="13" t="n">
-        <v>8202368974.6011</v>
+        <v>8210198278.6011</v>
       </c>
       <c r="AE4" s="13" t="n">
         <v>5866416808.7428</v>
@@ -2626,16 +2634,16 @@
         <v>2464835320.6091</v>
       </c>
       <c r="AP4" s="13" t="n">
-        <v>1782219028.4007</v>
+        <v>1782219128.4007</v>
       </c>
       <c r="AQ4" s="13" t="n">
         <v>1569588495.1783</v>
       </c>
       <c r="AR4" s="13" t="n">
-        <v>9796358546.0087</v>
+        <v>1656848366.2614</v>
       </c>
       <c r="AS4" s="13" t="n">
-        <v>6013243352.5354</v>
+        <v>1000237442.273</v>
       </c>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
@@ -2702,7 +2710,7 @@
         <v>2171131463.3616</v>
       </c>
       <c r="AD5" s="13" t="n">
-        <v>2539247331.377</v>
+        <v>2539233411.377</v>
       </c>
       <c r="AE5" s="13" t="n">
         <v>2351550644.3131</v>
@@ -2744,10 +2752,10 @@
         <v>919900293.3019</v>
       </c>
       <c r="AR5" s="13" t="n">
-        <v>960009063.0999</v>
+        <v>951873235.1444</v>
       </c>
       <c r="AS5" s="13" t="n">
-        <v>397902298.5076</v>
+        <v>397366686.3691</v>
       </c>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
@@ -2853,8 +2861,12 @@
       <c r="AQ6" s="13" t="n">
         <v>71493208.3606</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AR6" s="13" t="n">
+        <v>2872491.5763</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>1060701.6976</v>
+      </c>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
     </row>
@@ -3183,8 +3195,12 @@
       <c r="AQ11" s="13" t="n">
         <v>3335003162.38342</v>
       </c>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
+      <c r="AR11" s="13" t="n">
+        <v>4403866497.644</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>2251468303.63073</v>
+      </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
     </row>
@@ -3229,28 +3245,28 @@
         <v>1656510803.16697</v>
       </c>
       <c r="W12" s="13" t="n">
-        <v>1494806490.94236</v>
+        <v>1485031849.45275</v>
       </c>
       <c r="X12" s="13" t="n">
-        <v>1750407640.41179</v>
+        <v>1739702421.02855</v>
       </c>
       <c r="Y12" s="13" t="n">
-        <v>2517247468.20051</v>
+        <v>2509420749.55072</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>4302920716.58662</v>
+        <v>4295253196.47869</v>
       </c>
       <c r="AA12" s="13" t="n">
-        <v>5961022201.05045</v>
+        <v>5953396655.20334</v>
       </c>
       <c r="AB12" s="13" t="n">
-        <v>6353461530.78688</v>
+        <v>6344660944.82859</v>
       </c>
       <c r="AC12" s="13" t="n">
-        <v>17212286152.6294</v>
+        <v>17205057608.5506</v>
       </c>
       <c r="AD12" s="13" t="n">
-        <v>27804091039.0082</v>
+        <v>27793673008.8747</v>
       </c>
       <c r="AE12" s="13" t="n">
         <v>17975690164.4186</v>
@@ -3286,13 +3302,17 @@
         <v>7123156354.80585</v>
       </c>
       <c r="AP12" s="13" t="n">
-        <v>6652306022.35601</v>
+        <v>6652305911.83293</v>
       </c>
       <c r="AQ12" s="13" t="n">
         <v>4285621335.89786</v>
       </c>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
+      <c r="AR12" s="13" t="n">
+        <v>3740907018.4825</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>2529427780.10669</v>
+      </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
     </row>
@@ -3337,28 +3357,28 @@
         <v>1911845217.49076</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2151102894.08389</v>
+        <v>2160877535.5735</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2911507392.19427</v>
+        <v>2922212611.57751</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>8885475904.37657</v>
+        <v>8893302623.02636</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>4156526509.08147</v>
+        <v>4164194029.1894</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>8899822912.6176</v>
+        <v>8907448458.46471</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>6111338382.32856</v>
+        <v>6120138968.28684</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>8839872480.98264</v>
+        <v>8847101025.06149</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>10933887208.053</v>
+        <v>10944323793.7661</v>
       </c>
       <c r="AE13" s="13" t="n">
         <v>7741358788.42582</v>
@@ -3394,16 +3414,16 @@
         <v>2760554179.81634</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1969763405.02879</v>
+        <v>1969763515.55187</v>
       </c>
       <c r="AQ13" s="13" t="n">
         <v>1678341507.03005</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>9796358546.0087</v>
+        <v>1656848366.2614</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>5735421764.79847</v>
+        <v>954024851.490516</v>
       </c>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
@@ -3470,7 +3490,7 @@
         <v>2954512482.81411</v>
       </c>
       <c r="AD14" s="13" t="n">
-        <v>3384856740.85101</v>
+        <v>3384838185.27147</v>
       </c>
       <c r="AE14" s="13" t="n">
         <v>3103120327.15638</v>
@@ -3512,10 +3532,10 @@
         <v>983637972.194942</v>
       </c>
       <c r="AR14" s="13" t="n">
-        <v>960009063.0999</v>
+        <v>951873235.1444</v>
       </c>
       <c r="AS14" s="13" t="n">
-        <v>379518567.490138</v>
+        <v>379007701.50043</v>
       </c>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
@@ -3598,7 +3618,7 @@
         <v>86645757.3346412</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>11386426.0356271</v>
+        <v>11386426.0356272</v>
       </c>
       <c r="AK15" s="13" t="n">
         <v>22940892.8152016</v>
@@ -3621,8 +3641,12 @@
       <c r="AQ15" s="13" t="n">
         <v>76446800.8213275</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
+      <c r="AR15" s="13" t="n">
+        <v>2872491.5763</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>1011695.56023517</v>
+      </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
     </row>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -684,6 +684,9 @@
   <si>
     <t xml:space="preserve">Small</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -700,8 +703,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -750,8 +753,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2319,110 +2322,110 @@
       <c r="K2" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>886506000</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="12" t="n">
         <v>1390584000</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="12" t="n">
         <v>787831501</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="12" t="n">
         <v>946274271</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="12" t="n">
         <v>1272653294</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="12" t="n">
         <v>632854418</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="12" t="n">
         <v>786510954</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="12" t="n">
         <v>766161183</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="12" t="n">
         <v>660565119</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="12" t="n">
         <v>687767624</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="12" t="n">
         <v>837983431</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="12" t="n">
         <v>654796452</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="12" t="n">
         <v>1232632023.5469</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="12" t="n">
         <v>1130246775</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="12" t="n">
         <v>1452056837.7656</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="12" t="n">
         <v>3175176391.8047</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="12" t="n">
         <v>5464560482.4938</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="12" t="n">
         <v>6839356875.6788</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="12" t="n">
         <v>8072001124.3207</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="12" t="n">
         <v>6889143890.0566</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="12" t="n">
         <v>4409505235.2583</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="12" t="n">
         <v>3759524033.3481</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="12" t="n">
         <v>2599820201.5748</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="12" t="n">
         <v>1889131684.3013</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>1565931717.3698</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="12" t="n">
         <v>946564294.1378</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="12" t="n">
         <v>1087968235.4018</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="12" t="n">
         <v>1847667812.8519</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="12" t="n">
         <v>3115080987.0877</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="12" t="n">
         <v>2572654093.846</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="12" t="n">
         <v>2399351621.3374</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>3118901947.6276</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="12" t="n">
         <v>4403866497.644</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="12" t="n">
         <v>2360528547.9345</v>
       </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2431,110 +2434,110 @@
       <c r="K3" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>1736961000</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="12" t="n">
         <v>2569710000</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="12" t="n">
         <v>1047483450</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="12" t="n">
         <v>1765906809</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="12" t="n">
         <v>1093701750</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <v>581555298</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <v>935647780</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <v>764560458</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <v>567043252</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <v>843543561</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <v>1025239831</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="12" t="n">
         <v>941396748</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="12" t="n">
         <v>1120245130.8008</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="12" t="n">
         <v>1646776230</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="12" t="n">
         <v>2887605302.2356</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="12" t="n">
         <v>4123836974.259</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="12" t="n">
         <v>4537946570.2704</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="12" t="n">
         <v>12643182968.4787</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="12" t="n">
         <v>20850220680.0062</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="12" t="n">
         <v>13622013113.1193</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="12" t="n">
         <v>15004232791.5379</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="12" t="n">
         <v>10193711518.7293</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="12" t="n">
         <v>5699762350.0308</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="12" t="n">
         <v>3374878029.5538</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>2313306874.1224</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="12" t="n">
         <v>3414878675.6013</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="12" t="n">
         <v>3613418724.8578</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="12" t="n">
         <v>3117253588.9273</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="12" t="n">
         <v>6355866206.1668</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="12" t="n">
         <v>6360102440.9942</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="12" t="n">
         <v>6018929049.3179</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>4007922055.994</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="12" t="n">
         <v>3740907018.4825</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="12" t="n">
         <v>2651952272.7688</v>
       </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2543,110 +2546,110 @@
       <c r="K4" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="12" t="n">
         <v>439697000</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="12" t="n">
         <v>1679467708</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="12" t="n">
         <v>1559758204</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="12" t="n">
         <v>1133491170</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="12" t="n">
         <v>866321181</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="12" t="n">
         <v>1399806805</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="12" t="n">
         <v>1414530321</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="12" t="n">
         <v>1622527379</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="12" t="n">
         <v>1166632543</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="12" t="n">
         <v>1573910138</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="12" t="n">
         <v>1183270198.9815</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="12" t="n">
         <v>1369831283.7969</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="12" t="n">
         <v>1881697932.77</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="12" t="n">
         <v>5836119498.2621</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="12" t="n">
         <v>2799497074.6039</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="12" t="n">
         <v>6170068521.6763</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="12" t="n">
         <v>4377359780.4864</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="12" t="n">
         <v>6501316040.0508</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="12" t="n">
         <v>8210198278.6011</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="12" t="n">
         <v>5866416808.7428</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="12" t="n">
         <v>4280836282.3881</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="12" t="n">
         <v>3826443933.2041</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="12" t="n">
         <v>1131332144.546</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="12" t="n">
         <v>1224676378.0847</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>959348126.6333</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="12" t="n">
         <v>2065296629.7012</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="12" t="n">
         <v>1618001138.1234</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="12" t="n">
         <v>2076016845.49</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="12" t="n">
         <v>1791692041.0738</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="12" t="n">
         <v>2464835320.6091</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="12" t="n">
         <v>1782219128.4007</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>1569588495.1783</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="12" t="n">
         <v>1656848366.2614</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="12" t="n">
         <v>1000237442.273</v>
       </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2655,110 +2658,110 @@
       <c r="K5" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="12" t="n">
         <v>331377000</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>710348473</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="12" t="n">
         <v>556826915</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>418439411</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <v>330150636</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="12" t="n">
         <v>387903859</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <v>419014865</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <v>489491374</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <v>401054209</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>401762355</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <v>349773513.4375</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="12" t="n">
         <v>331714055.4609</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="12" t="n">
         <v>549534587.9297</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="12" t="n">
         <v>1023217740.7969</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="12" t="n">
         <v>1404530414.6925</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="12" t="n">
         <v>1773892246.9974</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="12" t="n">
         <v>1661296795.5901</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="12" t="n">
         <v>2171131463.3616</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="12" t="n">
         <v>2539233411.377</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="12" t="n">
         <v>2351550644.3131</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="12" t="n">
         <v>1432646464.3045</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="12" t="n">
         <v>1618013234.5207</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="12" t="n">
         <v>1253903797.7823</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="12" t="n">
         <v>876150172.7099</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>977614355.5743</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="12" t="n">
         <v>1052267047.6487</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="12" t="n">
         <v>1022932355.3975</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="12" t="n">
         <v>1198500764.761</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="12" t="n">
         <v>1410043432.9273</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="12" t="n">
         <v>1505081025.544</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="12" t="n">
         <v>1428022139.3594</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>919900293.3019</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="12" t="n">
         <v>951873235.1444</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="12" t="n">
         <v>397366686.3691</v>
       </c>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2767,108 +2770,108 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="12" t="n">
         <v>880491000</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="12" t="n">
         <v>153865708</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="12" t="n">
         <v>214912380</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="12" t="n">
         <v>132252869</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="12" t="n">
         <v>56216550</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="12" t="n">
         <v>96334279</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="12" t="n">
         <v>122546148</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <v>9907152</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="12" t="n">
         <v>8955292</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="12" t="n">
         <v>409918</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="n">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
         <v>51127</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="12" t="n">
         <v>648164.2998</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="12" t="n">
         <v>5152386.375</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="12" t="n">
         <v>1801058.1382</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="12" t="n">
         <v>18798448.0566</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="12" t="n">
         <v>90601292.4389</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="12" t="n">
         <v>43609526.641</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="12" t="n">
         <v>85478110.6526</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="12" t="n">
         <v>106029241.5681</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="12" t="n">
         <v>208874137.2263</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="12" t="n">
         <v>180495380.7503</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="12" t="n">
         <v>151710134.5468</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="12" t="n">
         <v>70063824.929</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>9385460.353</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="12" t="n">
         <v>19126215.6387</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="12" t="n">
         <v>10277277.7617</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="12" t="n">
         <v>13865441.729</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="12" t="n">
         <v>16426736.1795</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="12" t="n">
         <v>6066737.0697</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="12" t="n">
         <v>117230837.0275</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>71493208.3606</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="12" t="n">
         <v>2872491.5763</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="12" t="n">
         <v>1060701.6976</v>
       </c>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2877,110 +2880,110 @@
       <c r="K7" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="13" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="13" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="13" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="13" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="13" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="13" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="13" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="13" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="13" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="13" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="13" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="13" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="13" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="13" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="13" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="13" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="13" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="13" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3099,110 +3102,110 @@
       <c r="K11" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="12" t="n">
         <v>1761958658.93398</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="12" t="n">
         <v>2668641317.6434</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="12" t="n">
         <v>1475046399.47576</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>1731033106.26896</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>2278436582.88197</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>1109499608.00233</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>1353447997.90427</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>1295417262.7397</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>1103102578.20609</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>1134388695.89775</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>1353955010.67537</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>1032926434.25263</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>1914235426.374</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>1722313364.51692</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>2159904530.25306</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="12" t="n">
         <v>4583858340.82283</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>7640192086.23388</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>9307112721.91998</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>10760104807.5128</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>9090955575.90441</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="12" t="n">
         <v>5768636962.99569</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="12" t="n">
         <v>4821149300.43699</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="12" t="n">
         <v>3273953579.21848</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="12" t="n">
         <v>2336230510.63833</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>1899785946.13896</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="12" t="n">
         <v>1135354239.6842</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="12" t="n">
         <v>1294236160.58301</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="12" t="n">
         <v>2159413529.3595</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="12" t="n">
         <v>3557146796.00571</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="12" t="n">
         <v>2881308520.94134</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="12" t="n">
         <v>2651837369.14086</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>3335003162.38342</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="12" t="n">
         <v>4403866497.644</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="12" t="n">
         <v>2251468303.63073</v>
       </c>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3211,110 +3214,110 @@
       <c r="K12" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="12" t="n">
         <v>3452264817.36236</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="12" t="n">
         <v>4931477911.69855</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="12" t="n">
         <v>1961189276.47823</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="12" t="n">
         <v>3230398672.61145</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="12" t="n">
         <v>1958058875.66581</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <v>1019563673.43031</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <v>1610086430.6393</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <v>1292710773.76074</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <v>946926889.180117</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <v>1391322078.42301</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <v>1656510803.16697</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="12" t="n">
         <v>1485031849.45275</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="12" t="n">
         <v>1739702421.02855</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="12" t="n">
         <v>2509420749.55072</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="12" t="n">
         <v>4295253196.47869</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="12" t="n">
         <v>5953396655.20334</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="12" t="n">
         <v>6344660944.82859</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="12" t="n">
         <v>17205057608.5506</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="12" t="n">
         <v>27793673008.8747</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="12" t="n">
         <v>17975690164.4186</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="12" t="n">
         <v>19628953196.5115</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="12" t="n">
         <v>13072241252.2021</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="12" t="n">
         <v>7177710726.02428</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="12" t="n">
         <v>4173606894.55731</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>2806500334.47566</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="12" t="n">
         <v>4095967919.30825</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="12" t="n">
         <v>4298486872.01019</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="12" t="n">
         <v>3643208767.0478</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="12" t="n">
         <v>7257836699.85549</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="12" t="n">
         <v>7123156354.80585</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="12" t="n">
         <v>6652305911.83293</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>4285621335.89786</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="12" t="n">
         <v>3740907018.4825</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="12" t="n">
         <v>2529427780.10669</v>
       </c>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3323,110 +3326,110 @@
       <c r="K13" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="12" t="n">
         <v>873911667.216348</v>
       </c>
-      <c r="M13" s="13" t="n">
+      <c r="M13" s="12" t="n">
         <v>3223032134.13692</v>
       </c>
-      <c r="N13" s="13" t="n">
+      <c r="N13" s="12" t="n">
         <v>2920314458.03152</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="12" t="n">
         <v>2073511666.82364</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="12" t="n">
         <v>1550978479.85919</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <v>2454095376.83989</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <v>2434159653.08009</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <v>2743352211.8601</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <v>1948203635.0188</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <v>2595972544.50882</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <v>1911845217.49076</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="12" t="n">
         <v>2160877535.5735</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="12" t="n">
         <v>2922212611.57751</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="12" t="n">
         <v>8893302623.02636</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="12" t="n">
         <v>4164194029.1894</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="12" t="n">
         <v>8907448458.46471</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="12" t="n">
         <v>6120138968.28684</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="12" t="n">
         <v>8847101025.06149</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="12" t="n">
         <v>10944323793.7661</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="12" t="n">
         <v>7741358788.42582</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="12" t="n">
         <v>5600308672.651</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AG13" s="12" t="n">
         <v>4906966235.11123</v>
       </c>
-      <c r="AH13" s="13" t="n">
+      <c r="AH13" s="12" t="n">
         <v>1424686569.35495</v>
       </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AI13" s="12" t="n">
         <v>1514519259.78242</v>
       </c>
-      <c r="AJ13" s="13" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>1163879668.70862</v>
       </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AK13" s="12" t="n">
         <v>2477215017.7845</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="12" t="n">
         <v>1924758014.69554</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="12" t="n">
         <v>2426290501.00181</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="12" t="n">
         <v>2045953742.37542</v>
       </c>
-      <c r="AO13" s="13" t="n">
+      <c r="AO13" s="12" t="n">
         <v>2760554179.81634</v>
       </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AP13" s="12" t="n">
         <v>1969763515.55187</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>1678341507.03005</v>
       </c>
-      <c r="AR13" s="13" t="n">
+      <c r="AR13" s="12" t="n">
         <v>1656848366.2614</v>
       </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AS13" s="12" t="n">
         <v>954024851.490516</v>
       </c>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3435,110 +3438,110 @@
       <c r="K14" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="12" t="n">
         <v>658622247.927895</v>
       </c>
-      <c r="M14" s="13" t="n">
+      <c r="M14" s="12" t="n">
         <v>1363215228.25856</v>
       </c>
-      <c r="N14" s="13" t="n">
+      <c r="N14" s="12" t="n">
         <v>1042539597.69241</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="12" t="n">
         <v>765457220.603944</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="12" t="n">
         <v>591070082.064431</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <v>680060322.345877</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <v>721051407.15736</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <v>827626862.220942</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <v>669735532.83897</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <v>662657935.682734</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <v>565139576.27431</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="12" t="n">
         <v>523271339.440162</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="12" t="n">
         <v>853408443.183161</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="12" t="n">
         <v>1559218419.16807</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="12" t="n">
         <v>2089209958.36545</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="12" t="n">
         <v>2560887890.54593</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="12" t="n">
         <v>2322716835.364</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="12" t="n">
         <v>2954512482.81411</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="12" t="n">
         <v>3384838185.27147</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="12" t="n">
         <v>3103120327.15638</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="12" t="n">
         <v>1874227811.95721</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="12" t="n">
         <v>2074912490.12185</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="12" t="n">
         <v>1579041052.24597</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="12" t="n">
         <v>1083507720.71401</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>1186040229.5084</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="12" t="n">
         <v>1262139150.21604</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="12" t="n">
         <v>1216870126.44892</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="12" t="n">
         <v>1400716486.14039</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="12" t="n">
         <v>1610144808.58023</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="12" t="n">
         <v>1685653269.12023</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="12" t="n">
         <v>1578294085.55088</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>983637972.194942</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="12" t="n">
         <v>951873235.1444</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="12" t="n">
         <v>379007701.50043</v>
       </c>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3547,149 +3550,149 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="12" t="n">
         <v>1750003656.5612</v>
       </c>
-      <c r="M15" s="13" t="n">
+      <c r="M15" s="12" t="n">
         <v>295280533.744998</v>
       </c>
-      <c r="N15" s="13" t="n">
+      <c r="N15" s="12" t="n">
         <v>402377579.367401</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="12" t="n">
         <v>241932071.550587</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="12" t="n">
         <v>100644727.583924</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <v>168890098.176872</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <v>210880519.613819</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <v>16750908.3077446</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <v>14954779.4905416</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <v>676109.676027748</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13" t="n">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="n">
         <v>80651.673726592</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="12" t="n">
         <v>1006577.01656804</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="12" t="n">
         <v>7851403.87842945</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="12" t="n">
         <v>2679036.75033366</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="12" t="n">
         <v>27138468.0048575</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="12" t="n">
         <v>126672818.374287</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="12" t="n">
         <v>59344582.7692792</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="12" t="n">
         <v>113943669.630938</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="12" t="n">
         <v>139916822.790374</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="12" t="n">
         <v>273254935.493208</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="12" t="n">
         <v>231464188.263601</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="12" t="n">
         <v>191048572.398333</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="12" t="n">
         <v>86645757.3346412</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>11386426.0356272</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="12" t="n">
         <v>22940892.8152016</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="12" t="n">
         <v>12225747.1116659</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="12" t="n">
         <v>16204873.1118684</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="12" t="n">
         <v>18757878.9161331</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="12" t="n">
         <v>6794594.44433329</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="12" t="n">
         <v>129567134.587762</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>76446800.8213275</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="12" t="n">
         <v>2872491.5763</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="12" t="n">
         <v>1011695.56023517</v>
       </c>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5415,94 +5418,94 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="n">
         <v>2093456735.9815</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>2343488085</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>3835139136.8467</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>8700836474.0441</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>6759772951.4358</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>11117816201.8684</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>9604689248.3746</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>20152059832.0111</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>28767470659.2672</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>19557716682.1136</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AA2" s="13" t="n">
+        <v>2343488075</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>3835139134.8448</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>8700836390.8537</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>6759772953.4385</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>11117816196.0198</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>9604689269.2526</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>20152059892.8297</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>28767470702.0476</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>19557716669.1172</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
         <v>16235343814.0836</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="13" t="n">
         <v>12428436251.991</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="13" t="n">
         <v>6519820010.5957</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="13" t="n">
         <v>4621227533.9046</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="13" t="n">
         <v>3587679208.2345</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="13" t="n">
         <v>5338394558.6023</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="13" t="n">
         <v>5006344883.5449</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>6050990172.1041</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>7469442700.8342</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>7830903930.8369</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>7853888109.4488</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>5872857274.0338</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>5898471649.5064</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>3391137360.8292</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="13" t="n">
+        <v>7469821294.3635</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>7831255776.9281</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>7852947830.3223</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>5870053002.1311</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>5893384224.6054</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>8650053026.656</v>
+      </c>
+      <c r="AX2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5520,89 +5523,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="n">
         <v>84160718</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="13" t="n">
         <v>80387605</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="13" t="n">
         <v>79689745</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="13" t="n">
         <v>135933144</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="13" t="n">
         <v>163198600</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="13" t="n">
         <v>196189849.1371</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="13" t="n">
         <v>108484498.0493</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="13" t="n">
         <v>101211759.8302</v>
       </c>
-      <c r="AH3" s="3" t="n">
-        <v>190127627.8942</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>371482128.9517</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AH3" s="13" t="n">
+        <v>190127628.4595</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>371482126.3623</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
         <v>11302768.5422</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="13" t="n">
         <v>52871985.3049</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="13" t="n">
         <v>83384355.8596</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="13" t="n">
         <v>77168108.3885</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="13" t="n">
         <v>56985068.2196</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="13" t="n">
         <v>68701439.3897</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="13" t="n">
         <v>69171381.6357</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>103154932.7858</v>
       </c>
-      <c r="AR3" s="3" t="n">
+      <c r="AR3" s="13" t="n">
         <v>93183548.2283</v>
       </c>
-      <c r="AS3" s="3" t="n">
+      <c r="AS3" s="13" t="n">
         <v>59221283.6536</v>
       </c>
-      <c r="AT3" s="3" t="n">
+      <c r="AT3" s="13" t="n">
         <v>63356169.8832</v>
       </c>
-      <c r="AU3" s="3" t="n">
+      <c r="AU3" s="13" t="n">
         <v>43816364.2871</v>
       </c>
-      <c r="AV3" s="3" t="n">
-        <v>54082670.4849</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>34485608.6397</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AV3" s="13" t="n">
+        <v>54082670.4924</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>76340437.4977</v>
+      </c>
+      <c r="AX3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5620,89 +5623,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="n">
         <v>91304644</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="13" t="n">
         <v>32940794</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="13" t="n">
         <v>54237461</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="13" t="n">
         <v>59654793</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="13" t="n">
         <v>135335517</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="13" t="n">
         <v>320771590.6533</v>
       </c>
-      <c r="AF4" s="3" t="n">
-        <v>332621519.5732</v>
-      </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AF4" s="13" t="n">
+        <v>332621519.5669</v>
+      </c>
+      <c r="AG4" s="13" t="n">
         <v>189403707.5138</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>632226459.1588</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>461879992.5888</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AH4" s="13" t="n">
+        <v>632226455.1251</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>461879987.8917</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
         <v>255457700.6809</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="13" t="n">
         <v>195276084.7593</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="13" t="n">
         <v>68314482.9297</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="13" t="n">
         <v>23928411.6059</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="13" t="n">
         <v>-5718044.7806</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="13" t="n">
         <v>26468673.8959</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="13" t="n">
         <v>52461607.4648</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>4073545.1261</v>
       </c>
-      <c r="AR4" s="3" t="n">
+      <c r="AR4" s="13" t="n">
         <v>28288111.745</v>
       </c>
-      <c r="AS4" s="3" t="n">
+      <c r="AS4" s="13" t="n">
         <v>84754626.0529</v>
       </c>
-      <c r="AT4" s="3" t="n">
+      <c r="AT4" s="13" t="n">
         <v>57117742.1071</v>
       </c>
-      <c r="AU4" s="3" t="n">
+      <c r="AU4" s="13" t="n">
         <v>133327128.9644</v>
       </c>
-      <c r="AV4" s="3" t="n">
-        <v>42207712.5864</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>11561085.9936</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AV4" s="13" t="n">
+        <v>42207712.5526</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>4525630.9705</v>
+      </c>
+      <c r="AX4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5720,89 +5723,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="n">
         <v>30955836</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="13" t="n">
         <v>1150507</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AB5" s="13" t="n">
         <v>8264374</v>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AC5" s="13" t="n">
         <v>2908169</v>
       </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AD5" s="13" t="n">
         <v>20655709</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AE5" s="13" t="n">
         <v>30330308.9477</v>
       </c>
-      <c r="AF5" s="3" t="n">
-        <v>111052625</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>28066851.7188</v>
-      </c>
-      <c r="AH5" s="3" t="n">
+      <c r="AF5" s="13" t="n">
+        <v>111052629</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>28066851.72</v>
+      </c>
+      <c r="AH5" s="13" t="n">
         <v>86722462</v>
       </c>
-      <c r="AI5" s="3" t="n">
-        <v>372286358.0604</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AI5" s="13" t="n">
+        <v>372286357.062</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
         <v>363479757.816</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="13" t="n">
         <v>400838494.7965</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="13" t="n">
         <v>644408586.099</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="13" t="n">
         <v>626922842.85</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="13" t="n">
         <v>591656248.0272</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="13" t="n">
         <v>1123132705.986</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="13" t="n">
         <v>966374377.951</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>958803560.0879</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>3245394608.0548</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>3226424318.7664</v>
-      </c>
-      <c r="AT5" s="3" t="n">
+      <c r="AR5" s="13" t="n">
+        <v>3245394609.0548</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>3226424324.7664</v>
+      </c>
+      <c r="AT5" s="13" t="n">
         <v>2113491716.9231</v>
       </c>
-      <c r="AU5" s="3" t="n">
-        <v>1891871805.327</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>2151339847.4692</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>1200508032.5771</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AU5" s="13" t="n">
+        <v>1895771805.4707</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>2151339847.9155</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>2787725535.669</v>
+      </c>
+      <c r="AX5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5820,89 +5823,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="n">
         <v>918847493.4375</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>793624060</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>721644049</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>562887710</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>989854346</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>2093088902</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>4800736041.7039</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>5832042117.4612</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>7963998824.6952</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>6120470286.7576</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="13" t="n">
+        <v>793624064</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>721644047</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>562887707</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>989854347</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>1838843200</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>2056340372.6981</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>3101368334.9257</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>5269413742.0495</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>5878942682.2611</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
         <v>3855801663.6071</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="13" t="n">
         <v>3597766300.2285</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="13" t="n">
         <v>1982832090.3539</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="13" t="n">
         <v>1390400591.7497</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="13" t="n">
         <v>1182623716.6221</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="13" t="n">
         <v>911377393.098</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="13" t="n">
         <v>649563464.814</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>774798581.1456</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>1269206377.2964</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>1027000021.2847</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>1277191303.8535</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>1647567482.4849</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>2253175886.1074</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1240361379.8584</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="13" t="n">
+        <v>1269206378.2579</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>1027000021.43</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>1277191303.5226</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>1647567480.7375</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>2253175912.208</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>1608121893.6625</v>
+      </c>
+      <c r="AX6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5920,89 +5923,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="n">
         <v>110027344</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="13" t="n">
         <v>15855492</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="13" t="n">
         <v>32382282</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="13" t="n">
         <v>45992146</v>
       </c>
-      <c r="AD7" s="3" t="n">
-        <v>367042946</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1350412609</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>767525774.02</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1459077137.7921</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1905587007.1178</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1138805194.3427</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AD7" s="13" t="n">
+        <v>367042944</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>1604658298</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>3511921413.58</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>4189750854.5588</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>4600172090.6768</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>1380332769.4846</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
         <v>4821736617.3757</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="13" t="n">
         <v>2903816859.8941</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="13" t="n">
         <v>1538442768.7119</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="13" t="n">
         <v>695403207.51</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="13" t="n">
         <v>412624387.29</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="13" t="n">
         <v>29957755.7005</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="13" t="n">
         <v>604099156.4609</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="13" t="n">
         <v>345442314.1106</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>583594057.2764</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>680435437.4685</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>380707733.2272</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>98365945.3652</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>357089842.9543</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>533092183.145</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="13" t="n">
+        <v>583203575.7095</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>680005915.9922</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>380707732.8472</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>98365945.85</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>357089843.5836</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>1352999345.6959</v>
+      </c>
+      <c r="AX7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6020,67 +6023,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13" t="n">
         <v>13216.3203</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="13" t="n">
         <v>114874</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AD8" s="13" t="n">
         <v>234500</v>
       </c>
-      <c r="AE8" s="3" t="n">
-        <v>13451884.1875</v>
-      </c>
-      <c r="AF8" s="3" t="n">
+      <c r="AE8" s="13" t="n">
+        <v>13451884.2</v>
+      </c>
+      <c r="AF8" s="13" t="n">
         <v>54597604</v>
       </c>
-      <c r="AG8" s="3" t="n">
-        <v>436281795.5313</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>168328364.132</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>813187516.6452</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AG8" s="13" t="n">
+        <v>436281795.5375</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>168328364.2322</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>813187518.8145</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
         <v>-224822649.1682</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="13" t="n">
         <v>-793142.3124</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="13" t="n">
         <v>-673666.0691</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="13" t="n">
         <v>-150606.43</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="13" t="n">
         <v>-264049.56</v>
       </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6096,109 +6099,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="13" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="13" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="13" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="13" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="13" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="13" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="13" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="13" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="13" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="13" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="13" t="n">
         <v>67514203</v>
       </c>
-      <c r="AA9" s="3" t="n">
-        <v>30343123.2578</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>53387575.1802</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>133185320.3899</v>
-      </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AA9" s="13" t="n">
+        <v>30343123.2609</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>53387575.1804</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>133185321.62</v>
+      </c>
+      <c r="AD9" s="13" t="n">
         <v>109396118</v>
       </c>
-      <c r="AE9" s="3" t="n">
-        <v>139711237</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>352057610.5586</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>453672.3524</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>42670200.6924</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>-674461.6601</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AE9" s="13" t="n">
+        <v>139711236.61</v>
+      </c>
+      <c r="AF9" s="13" t="n">
+        <v>352057609.0186</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>453672.3525</v>
+      </c>
+      <c r="AH9" s="13" t="n">
+        <v>42670200.6644</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>-674461.6509</v>
+      </c>
+      <c r="AJ9" s="13" t="n">
         <v>17795237.7778</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="13" t="n">
         <v>-24734.1094</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="13" t="n">
         <v>100336.0553</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="13" t="n">
         <v>4582859.6709</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="13" t="n">
         <v>16041348.3991</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6213,107 +6216,107 @@
       <c r="O10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="13" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="13" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="13" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="13" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="13" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="13" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="13" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="13" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="13" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="13" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="13" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="13" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="13" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="13" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="13" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="13" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="13" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="13" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="13" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="13" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="13" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="13" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="13" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="13" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="13" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="13" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="13" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="13" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="13" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="13" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="13" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="13" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6445,94 +6448,94 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13" t="n">
         <v>3382460956.217</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>3696798881.48289</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>5955840072.77418</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>13258668171.5791</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>10055022531.8695</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>16050287681.7195</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>13428650121.3138</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>27423264474.2329</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>38347492099.3418</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>25808480177.028</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AA14" s="13" t="n">
+        <v>3696798865.70812</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>5955840069.6653</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>13258668044.8104</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>10055022534.8485</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>16050287673.2762</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>13428650150.5041</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>27423264556.9959</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>38347492156.3687</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>25808480159.8779</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
         <v>21239526757.786</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="13" t="n">
         <v>15938014017.2824</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="13" t="n">
         <v>8210409337.77662</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="13" t="n">
         <v>5714928636.80538</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="13" t="n">
         <v>4352566886.19028</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="13" t="n">
         <v>6403124365.40504</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="13" t="n">
         <v>5955497936.24319</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>7071936823.6948</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>8529442502.89328</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>8770417397.56874</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>8680359225.58041</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>6279773429.88525</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>5898471649.5064</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>3234461319.20146</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="13" t="n">
+        <v>8529874823.19741</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>8770811456.42923</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>8679320000.10679</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>6276774856.7269</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>5893384224.6054</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>8250406558.85407</v>
+      </c>
+      <c r="AX14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6550,89 +6553,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13" t="n">
         <v>135981001.082749</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="13" t="n">
         <v>126809609.210831</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="13" t="n">
         <v>123755451.816644</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="13" t="n">
         <v>207140135.915896</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="13" t="n">
         <v>242754543.970447</v>
       </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AE15" s="13" t="n">
         <v>283230399.001777</v>
       </c>
-      <c r="AF15" s="3" t="n">
+      <c r="AF15" s="13" t="n">
         <v>151675950.175789</v>
       </c>
-      <c r="AG15" s="3" t="n">
+      <c r="AG15" s="13" t="n">
         <v>137730677.70061</v>
       </c>
-      <c r="AH15" s="3" t="n">
-        <v>253443126.609767</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>490210044.301245</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AH15" s="13" t="n">
+        <v>253443127.363321</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>490210040.884257</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
         <v>14786595.0754224</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="13" t="n">
         <v>67802129.3930724</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="13" t="n">
         <v>105005919.313959</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="13" t="n">
         <v>95431404.1544105</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="13" t="n">
         <v>69134196.940083</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="13" t="n">
         <v>82403774.330566</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="13" t="n">
         <v>82285585.6240586</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>120559635.194382</v>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="13" t="n">
         <v>106407365.135836</v>
       </c>
-      <c r="AS15" s="3" t="n">
+      <c r="AS15" s="13" t="n">
         <v>66326362.9651473</v>
       </c>
-      <c r="AT15" s="3" t="n">
+      <c r="AT15" s="13" t="n">
         <v>70023191.835575</v>
       </c>
-      <c r="AU15" s="3" t="n">
+      <c r="AU15" s="13" t="n">
         <v>46852294.7868799</v>
       </c>
-      <c r="AV15" s="3" t="n">
-        <v>54082670.4849</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>32892317.6343865</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AV15" s="13" t="n">
+        <v>54082670.4924</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>72813385.5706895</v>
+      </c>
+      <c r="AX15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6650,89 +6653,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="n">
         <v>147523656.994276</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="13" t="n">
         <v>51963349.5018851</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="13" t="n">
         <v>84228924.2040188</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="13" t="n">
         <v>90904260.4800976</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="13" t="n">
         <v>201308783.974493</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="13" t="n">
         <v>463083416.439554</v>
       </c>
-      <c r="AF16" s="3" t="n">
-        <v>465049716.202337</v>
-      </c>
-      <c r="AG16" s="3" t="n">
+      <c r="AF16" s="13" t="n">
+        <v>465049716.193529</v>
+      </c>
+      <c r="AG16" s="13" t="n">
         <v>257743774.425507</v>
       </c>
-      <c r="AH16" s="3" t="n">
-        <v>842767841.314433</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>609499607.067917</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AH16" s="13" t="n">
+        <v>842767835.937447</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>609499600.869596</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
         <v>334196844.318614</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="13" t="n">
         <v>250418710.208629</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="13" t="n">
         <v>86028428.336957</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="13" t="n">
         <v>29591523.8357201</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="13" t="n">
         <v>-6937123.11531894</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="13" t="n">
         <v>31747786.5081541</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="13" t="n">
         <v>62407804.9467873</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="13" t="n">
         <v>4760849.5404698</v>
       </c>
-      <c r="AR16" s="3" t="n">
+      <c r="AR16" s="13" t="n">
         <v>32302520.0551376</v>
       </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AS16" s="13" t="n">
         <v>94923070.6217266</v>
       </c>
-      <c r="AT16" s="3" t="n">
+      <c r="AT16" s="13" t="n">
         <v>63128289.1651081</v>
       </c>
-      <c r="AU16" s="3" t="n">
+      <c r="AU16" s="13" t="n">
         <v>142565045.068505</v>
       </c>
-      <c r="AV16" s="3" t="n">
-        <v>42207712.5864</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>11026945.085208</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AV16" s="13" t="n">
+        <v>42207712.5526</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>4316539.48558519</v>
+      </c>
+      <c r="AX16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6750,89 +6753,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="n">
         <v>50016274.4409263</v>
       </c>
-      <c r="AA17" s="3" t="n">
+      <c r="AA17" s="13" t="n">
         <v>1814898.49168072</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AB17" s="13" t="n">
         <v>12834290.514441</v>
       </c>
-      <c r="AC17" s="3" t="n">
+      <c r="AC17" s="13" t="n">
         <v>4431579.40881875</v>
       </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="13" t="n">
         <v>30724940.1568473</v>
       </c>
-      <c r="AE17" s="3" t="n">
+      <c r="AE17" s="13" t="n">
         <v>43786493.2507345</v>
       </c>
-      <c r="AF17" s="3" t="n">
-        <v>155266537.793593</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>38193847.3813533</v>
-      </c>
-      <c r="AH17" s="3" t="n">
+      <c r="AF17" s="13" t="n">
+        <v>155266543.386132</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>38193847.3829863</v>
+      </c>
+      <c r="AH17" s="13" t="n">
         <v>115602409.602499</v>
       </c>
-      <c r="AI17" s="3" t="n">
-        <v>491271309.854225</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AI17" s="13" t="n">
+        <v>491271308.536731</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
         <v>475514293.411486</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="13" t="n">
         <v>514028427.969735</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="13" t="n">
         <v>811503732.319636</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="13" t="n">
         <v>775296018.511272</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="13" t="n">
         <v>717796448.261059</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="13" t="n">
         <v>1347138791.69792</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="13" t="n">
         <v>1149589320.63232</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="13" t="n">
         <v>1120576634.63656</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>3705953418.11937</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>3613514892.68284</v>
-      </c>
-      <c r="AT17" s="3" t="n">
+      <c r="AR17" s="13" t="n">
+        <v>3705953419.26128</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>3613514899.40269</v>
+      </c>
+      <c r="AT17" s="13" t="n">
         <v>2335896191.48124</v>
       </c>
-      <c r="AU17" s="3" t="n">
-        <v>2022955052.62319</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>2151339847.4692</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>1145042615.97112</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AU17" s="13" t="n">
+        <v>2027125274.39705</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>2151339847.9155</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>2658928098.23155</v>
+      </c>
+      <c r="AX17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6850,89 +6853,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="n">
         <v>1484609506.30205</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>1251923812.24584</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>1120688557.03814</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>857749871.177755</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>1472387878.08471</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>3021697643.7215</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>6712076045.53501</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>7936341731.07967</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>10616136038.7374</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>8076609280.9972</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="13" t="n">
+        <v>1251923818.55575</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>1120688553.93221</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>857749866.60624</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>1472387879.57219</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>2654654639.51579</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>2875041001.45333</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>4220394579.49502</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>7024211625.51221</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>7757888006.20985</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
         <v>5044266604.06522</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="13" t="n">
         <v>4613713950.92139</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="13" t="n">
         <v>2496980450.90624</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="13" t="n">
         <v>1719465250.33094</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="13" t="n">
         <v>1434757270.37638</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="13" t="n">
         <v>1093149396.83908</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="13" t="n">
         <v>772714218.485795</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="13" t="n">
         <v>905525618.304672</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>1449321355.4267</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>1150214449.51071</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>1411591196.9637</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>1761723470.82175</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>2253175886.1074</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>1183054674.0231</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="13" t="n">
+        <v>1449321356.52465</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>1150214449.67344</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>1411591196.59798</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>1761723468.95328</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>2253175912.208</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>1533824056.10975</v>
+      </c>
+      <c r="AX18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6950,89 +6953,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13" t="n">
         <v>177774485.99709</v>
       </c>
-      <c r="AA19" s="3" t="n">
+      <c r="AA19" s="13" t="n">
         <v>25011676.1702934</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="13" t="n">
         <v>50288577.7807918</v>
       </c>
-      <c r="AC19" s="3" t="n">
+      <c r="AC19" s="13" t="n">
         <v>70084595.2147161</v>
       </c>
-      <c r="AD19" s="3" t="n">
-        <v>545968794.914903</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>1949529518.20061</v>
-      </c>
-      <c r="AF19" s="3" t="n">
-        <v>1073104481.76649</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>1985536891.58963</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>2540177534.74332</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>1502774161.28895</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AD19" s="13" t="n">
+        <v>545968791.939945</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>2316572503.63881</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>4910139484.67898</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>5701483953.67498</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>6132101949.18592</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>1821495397.33978</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
         <v>6307929482.52253</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="13" t="n">
         <v>3723805061.09118</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="13" t="n">
         <v>1937360978.26925</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="13" t="n">
         <v>859983559.685779</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="13" t="n">
         <v>500595270.734032</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="13" t="n">
         <v>35932757.1900093</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="13" t="n">
         <v>718630330.765721</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="13" t="n">
         <v>403726688.052382</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>666412764.102647</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>762070745.77893</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>420769921.638273</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>105181485.142009</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>357089842.9543</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>508462460.373338</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="13" t="n">
+        <v>665966868.711691</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>761589692.421407</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>420769921.218285</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>105181485.6604</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>357089843.5836</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>1290488583.3018</v>
+      </c>
+      <c r="AX19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7050,67 +7053,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="n">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13" t="n">
         <v>20524.4939619267</v>
       </c>
-      <c r="AC20" s="3" t="n">
+      <c r="AC20" s="13" t="n">
         <v>175049.404972216</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="13" t="n">
         <v>348813.902576798</v>
       </c>
-      <c r="AE20" s="3" t="n">
-        <v>19419875.9136048</v>
-      </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AE20" s="13" t="n">
+        <v>19419875.9316505</v>
+      </c>
+      <c r="AF20" s="13" t="n">
         <v>76334809.239364</v>
       </c>
-      <c r="AG20" s="3" t="n">
-        <v>593699659.681592</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>224384364.204351</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>1073087121.80793</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AG20" s="13" t="n">
+        <v>593699659.690029</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>224384364.337919</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>1073087124.67055</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
         <v>-294119220.845946</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="13" t="n">
         <v>-1017112.13192294</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="13" t="n">
         <v>-848347.680655765</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="13" t="n">
         <v>-186250.296783546</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="13" t="n">
         <v>-320344.519245543</v>
       </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7126,109 +7129,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="13" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="13" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="13" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="13" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="13" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="13" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="13" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="13" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="13" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="13" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="13" t="n">
         <v>109084726.573316</v>
       </c>
-      <c r="AA21" s="3" t="n">
-        <v>47865583.2893354</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>82909080.5576136</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>202952896.959155</v>
-      </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AA21" s="13" t="n">
+        <v>47865583.2942256</v>
+      </c>
+      <c r="AB21" s="13" t="n">
+        <v>82909080.5579242</v>
+      </c>
+      <c r="AC21" s="13" t="n">
+        <v>202952898.833629</v>
+      </c>
+      <c r="AD21" s="13" t="n">
         <v>162724464.163462</v>
       </c>
-      <c r="AE21" s="3" t="n">
-        <v>201694784.794342</v>
-      </c>
-      <c r="AF21" s="3" t="n">
-        <v>492223991.061165</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>617365.024132673</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>56880050.5025289</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>-890023.649886265</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AE21" s="13" t="n">
+        <v>201694784.231317</v>
+      </c>
+      <c r="AF21" s="13" t="n">
+        <v>492223988.908037</v>
+      </c>
+      <c r="AG21" s="13" t="n">
+        <v>617365.024268755</v>
+      </c>
+      <c r="AH21" s="13" t="n">
+        <v>56880050.4652045</v>
+      </c>
+      <c r="AI21" s="13" t="n">
+        <v>-890023.63774589</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
         <v>23280223.2752766</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="13" t="n">
         <v>-31718.5987303145</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="13" t="n">
         <v>120347.837419546</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="13" t="n">
         <v>5451724.15145544</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="13" t="n">
         <v>18747907.2381084</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7237,41 +7240,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -693,9 +693,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -704,7 +704,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -742,9 +742,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -754,7 +754,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,110 +1168,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="13" t="n">
         <v>3597409000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="13" t="n">
         <v>5768448183</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="13" t="n">
         <v>3439853184</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="13" t="n">
         <v>3666795123</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="13" t="n">
         <v>2930131504</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="13" t="n">
         <v>2309272172</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="13" t="n">
         <v>2623635564</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="13" t="n">
         <v>2737327075</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="13" t="n">
         <v>2121719228</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="13" t="n">
         <v>2777452514</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="13" t="n">
         <v>2782364582.4375</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>2367420117.2578</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>4062575750.7466</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>8793972764.472</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>7076340882.6739</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>11400322129.7695</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>10972472978.0185</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>23071479946.4838</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>34807076689.142</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>23567125617.8053</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="13" t="n">
+        <v>2367420112.2609</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>4062575745.7449</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>8793972678.5119</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>7076340884.6739</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>11400322123.5642</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>10972473001.7521</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>23071480003.5654</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>34807076732.2012</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>23567125595.7303</v>
+      </c>
+      <c r="AH2" s="13" t="n">
         <v>22479997339</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="13" t="n">
         <v>17376702346.8245</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>9856459006.7874</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="13" t="n">
         <v>6215287777.4871</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="13" t="n">
         <v>4946270470.6479</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="13" t="n">
         <v>6334173895.1973</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="13" t="n">
         <v>6416981325.1237</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="13" t="n">
         <v>7123820041.9618</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>9981538520.4861</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>10626125994.0552</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>9556354379.4487</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>7278255950.0575</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>8636481518.3467</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>4606084528.5502</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="13" t="n">
+        <v>9981535614.8134</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>10619177679.6977</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>9555270529.3331</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>7275497608.7232</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>8631394107.3559</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>11149252714.0137</v>
+      </c>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1280,110 +1280,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="13" t="n">
         <v>351754000</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>484858000</v>
-      </c>
-      <c r="P3" s="1" t="n">
+      <c r="O3" s="13" t="n">
+        <v>484665000</v>
+      </c>
+      <c r="P3" s="13" t="n">
         <v>443671830</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="13" t="n">
         <v>429638209</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="13" t="n">
         <v>349171791</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="13" t="n">
         <v>382403570</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="13" t="n">
         <v>531758374</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="13" t="n">
         <v>411854162</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="13" t="n">
         <v>324163518</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="13" t="n">
         <v>326263181</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="13" t="n">
         <v>210356234</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="13" t="n">
         <v>412702575</v>
       </c>
-      <c r="Z3" s="1" t="n">
-        <v>390143836.8008</v>
-      </c>
-      <c r="AA3" s="1" t="n">
+      <c r="Z3" s="13" t="n">
+        <v>390143838.8008</v>
+      </c>
+      <c r="AA3" s="13" t="n">
         <v>241577284</v>
       </c>
-      <c r="AB3" s="1" t="n">
-        <v>493484356</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>1036489717.5</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>3459369374.2071</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>3481653897.3261</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>3339866554.9889</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>3310468781.869</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AB3" s="13" t="n">
+        <v>493484354</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>1036489709.5125</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>3459369344.1969</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>3481653834.4118</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>3339866551.2625</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>3310468757.179</v>
+      </c>
+      <c r="AH3" s="13" t="n">
         <v>1802932763.3673</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="13" t="n">
         <v>1223600957.4111</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>161307879.1099</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="13" t="n">
         <v>222606754.8022</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="13" t="n">
         <v>210078790.2694</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="13" t="n">
         <v>131502972.6195</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="13" t="n">
         <v>109397194.3049</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="13" t="n">
         <v>17457287.2686</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>283621430.7422</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>123414848.8662</v>
-      </c>
-      <c r="AR3" s="1" t="n">
+      <c r="AP3" s="13" t="n">
+        <v>283621430.7437</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>123414841.8673</v>
+      </c>
+      <c r="AR3" s="13" t="n">
         <v>379370983.2401</v>
       </c>
-      <c r="AS3" s="1" t="n">
-        <v>468449786.6178</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>481766291.9331</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>400162017.5743</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AS3" s="13" t="n">
+        <v>468449786.6911</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>481766303.0172</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>401635971.7469</v>
+      </c>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1392,110 +1392,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="13" t="n">
         <v>325869000</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <v>250669706</v>
-      </c>
-      <c r="P4" s="1" t="n">
+      <c r="O4" s="13" t="n">
+        <v>250862706</v>
+      </c>
+      <c r="P4" s="13" t="n">
         <v>283287436</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="13" t="n">
         <v>299931198</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="13" t="n">
         <v>339740116</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="13" t="n">
         <v>406778917</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="13" t="n">
         <v>522856130</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="13" t="n">
         <v>503466309</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="13" t="n">
         <v>358367669</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="13" t="n">
         <v>403677901</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="13" t="n">
         <v>403546157.9815</v>
       </c>
-      <c r="Y4" s="1" t="n">
-        <v>517666974</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>332038251.7998</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>605962581.962</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>975665448.7619</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>2824960735.5245</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>1699922569.054</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>1645463030.401</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>1610188360.8267</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>1957559298.1256</v>
-      </c>
-      <c r="AH4" s="1" t="n">
+      <c r="Y4" s="13" t="n">
+        <v>517666973</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>332038250.7998</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>605962582.9618</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>975665449.7646</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <v>2824960730.4912</v>
+      </c>
+      <c r="AD4" s="13" t="n">
+        <v>1699922569.2165</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>1645463031.291</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>1610188361.7914</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>1957559296.4332</v>
+      </c>
+      <c r="AH4" s="13" t="n">
         <v>1053164808.3478</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="13" t="n">
         <v>977884796.3169</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>818761742.5834</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="13" t="n">
         <v>997005557.2894</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="13" t="n">
         <v>669237273.1355</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="13" t="n">
         <v>1032455994.9109</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="13" t="n">
         <v>826219212.1136</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="13" t="n">
         <v>1112027124.5288</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>2423949452.2068</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>2159198775.1416</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>1810027412.7541</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>1941100263.7871</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>1638119798.8288</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>1404899104.9185</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AP4" s="13" t="n">
+        <v>2423940471.8019</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>2166069427.2582</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>1810170983.0323</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>1944954332.0265</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>1638119800.9844</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>2928877184.391</v>
+      </c>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1504,44 +1504,44 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="n">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1550,110 +1550,110 @@
       <c r="M6" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="13" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="13" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="13" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="13" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="13" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="13" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="T6" s="13" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="13" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="V6" s="13" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="13" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="X6" s="13" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Y6" s="13" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="1" t="str">
+      <c r="Z6" s="13" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="1" t="str">
+      <c r="AA6" s="13" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="1" t="str">
+      <c r="AB6" s="13" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="1" t="str">
+      <c r="AC6" s="13" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="1" t="str">
+      <c r="AD6" s="13" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="1" t="str">
+      <c r="AE6" s="13" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="1" t="str">
+      <c r="AF6" s="13" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AG6" s="13" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="AH6" s="13" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AI6" s="13" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AK6" s="13" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AL6" s="13" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AM6" s="13" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AN6" s="13" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="1" t="str">
+      <c r="AO6" s="13" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="1" t="str">
+      <c r="AP6" s="13" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AQ6" s="13" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AR6" s="13" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="1" t="str">
+      <c r="AS6" s="13" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="1" t="str">
+      <c r="AT6" s="13" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="1" t="str">
+      <c r="AU6" s="13" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1772,110 +1772,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="13" t="n">
         <v>7149963945.28299</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="13" t="n">
         <v>11070110946.0765</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="13" t="n">
         <v>6440391184.33832</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="13" t="n">
         <v>6707720949.77372</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="13" t="n">
         <v>5245826842.89863</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="13" t="n">
         <v>4048540227.78537</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="13" t="n">
         <v>4514818621.74578</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="13" t="n">
         <v>4628243802.21801</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="V10" s="13" t="n">
         <v>3543138872.03031</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="13" t="n">
         <v>4581068700.13758</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="13" t="n">
         <v>4495550065.25772</v>
       </c>
-      <c r="Y10" s="1" t="n">
-        <v>3734551115.27855</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>6309041365.02113</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>13400592821.3756</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>10525910785.711</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>16458128694.0437</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>15340996129.814</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>31396060832.4199</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>46398382191.7299</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>31099320243.9072</v>
-      </c>
-      <c r="AH10" s="1" t="n">
+      <c r="Y10" s="13" t="n">
+        <v>3734551107.39605</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>6309041357.25366</v>
+      </c>
+      <c r="AA10" s="13" t="n">
+        <v>13400592690.3863</v>
+      </c>
+      <c r="AB10" s="13" t="n">
+        <v>10525910788.6859</v>
+      </c>
+      <c r="AC10" s="13" t="n">
+        <v>16458128685.0854</v>
+      </c>
+      <c r="AD10" s="13" t="n">
+        <v>15340996162.9968</v>
+      </c>
+      <c r="AE10" s="13" t="n">
+        <v>31396060910.0976</v>
+      </c>
+      <c r="AF10" s="13" t="n">
+        <v>46398382249.1285</v>
+      </c>
+      <c r="AG10" s="13" t="n">
+        <v>31099320214.7769</v>
+      </c>
+      <c r="AH10" s="13" t="n">
         <v>29408955576.4421</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="13" t="n">
         <v>22283585799.7394</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="13" t="n">
         <v>12412238824.8791</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="13" t="n">
         <v>7686253456.45678</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="13" t="n">
         <v>6000807711.92396</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="13" t="n">
         <v>7597509468.02804</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="13" t="n">
         <v>7633576976.34787</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="13" t="n">
         <v>8325778731.61649</v>
       </c>
-      <c r="AP10" s="1" t="n">
-        <v>11398033603.1485</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>11900996501.8252</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>10561977423.7381</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>7782548800.08043</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>8636481518.3467</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>4393275958.87328</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AP10" s="13" t="n">
+        <v>11398030285.1275</v>
+      </c>
+      <c r="AQ10" s="13" t="n">
+        <v>11893214562.7716</v>
+      </c>
+      <c r="AR10" s="13" t="n">
+        <v>10560779519.1819</v>
+      </c>
+      <c r="AS10" s="13" t="n">
+        <v>7779599339.90909</v>
+      </c>
+      <c r="AT10" s="13" t="n">
+        <v>8631394107.3559</v>
+      </c>
+      <c r="AU10" s="13" t="n">
+        <v>10634139170.5411</v>
+      </c>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1884,110 +1884,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="13" t="n">
         <v>699122178.659439</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <v>930481072.693158</v>
-      </c>
-      <c r="P11" s="1" t="n">
+      <c r="O11" s="13" t="n">
+        <v>930110690.339913</v>
+      </c>
+      <c r="P11" s="13" t="n">
         <v>830680842.997063</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="13" t="n">
         <v>785943342.527065</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="13" t="n">
         <v>625123736.429677</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="13" t="n">
         <v>670417396.080646</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="13" t="n">
         <v>915063296.955848</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="13" t="n">
         <v>696358681.468196</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="13" t="n">
         <v>541332871.174742</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="13" t="n">
         <v>538131269.194552</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="13" t="n">
         <v>339878888.430075</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Y11" s="13" t="n">
         <v>651028877.599397</v>
       </c>
-      <c r="Z11" s="1" t="n">
-        <v>605880051.401368</v>
-      </c>
-      <c r="AA11" s="1" t="n">
+      <c r="Z11" s="13" t="n">
+        <v>605880054.5073</v>
+      </c>
+      <c r="AA11" s="13" t="n">
         <v>368124726.387208</v>
       </c>
-      <c r="AB11" s="1" t="n">
-        <v>734047778.579777</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>1496333258.52459</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>4836664650.49633</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>4737893616.33654</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>4452094793.01352</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>4368514449.93439</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="AB11" s="13" t="n">
+        <v>734047775.604818</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>1496333246.9934</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>4836664608.53802</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>4737893530.7217</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>4452094788.04617</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>4368514417.35332</v>
+      </c>
+      <c r="AH11" s="13" t="n">
         <v>2358646611.27845</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="13" t="n">
         <v>1569124933.77066</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>203135012.124339</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="13" t="n">
         <v>275290863.39761</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="13" t="n">
         <v>254867264.586755</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="13" t="n">
         <v>157730920.571666</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="13" t="n">
         <v>130137811.131442</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="13" t="n">
         <v>20402748.8337006</v>
       </c>
-      <c r="AP11" s="1" t="n">
-        <v>323870572.811778</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>138221557.456747</v>
-      </c>
-      <c r="AR11" s="1" t="n">
+      <c r="AP11" s="13" t="n">
+        <v>323870572.813491</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>138221549.618153</v>
+      </c>
+      <c r="AR11" s="13" t="n">
         <v>419292504.348757</v>
       </c>
-      <c r="AS11" s="1" t="n">
-        <v>500907545.675347</v>
-      </c>
-      <c r="AT11" s="1" t="n">
-        <v>481766291.9331</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>381673883.873935</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AS11" s="13" t="n">
+        <v>500907545.753725</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>481766303.0172</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>383079738.975123</v>
+      </c>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1996,110 +1996,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="13" t="n">
         <v>647674924.05935</v>
       </c>
-      <c r="O12" s="1" t="n">
-        <v>481055106.712808</v>
-      </c>
-      <c r="P12" s="1" t="n">
+      <c r="O12" s="13" t="n">
+        <v>481425489.066053</v>
+      </c>
+      <c r="P12" s="13" t="n">
         <v>530395283.709936</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="13" t="n">
         <v>548668445.557799</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="13" t="n">
         <v>608238168.727015</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="13" t="n">
         <v>713151454.929266</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="13" t="n">
         <v>899744089.693218</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="13" t="n">
         <v>851255535.203015</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="V12" s="13" t="n">
         <v>598451671.529458</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="W12" s="13" t="n">
         <v>665817394.856219</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="X12" s="13" t="n">
         <v>652021653.919607</v>
       </c>
-      <c r="Y12" s="1" t="n">
-        <v>816607817.51482</v>
-      </c>
-      <c r="Z12" s="1" t="n">
-        <v>515644062.757294</v>
-      </c>
-      <c r="AA12" s="1" t="n">
-        <v>923389012.3777</v>
-      </c>
-      <c r="AB12" s="1" t="n">
-        <v>1451282186.74619</v>
-      </c>
-      <c r="AC12" s="1" t="n">
-        <v>4078267860.47339</v>
-      </c>
-      <c r="AD12" s="1" t="n">
-        <v>2376720872.77725</v>
-      </c>
-      <c r="AE12" s="1" t="n">
-        <v>2239173972.35894</v>
-      </c>
-      <c r="AF12" s="1" t="n">
-        <v>2146406480.31261</v>
-      </c>
-      <c r="AG12" s="1" t="n">
-        <v>2583206984.854</v>
-      </c>
-      <c r="AH12" s="1" t="n">
+      <c r="Y12" s="13" t="n">
+        <v>816607815.937342</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>515644061.204328</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>923389013.901234</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>1451282188.23768</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>4078267853.20705</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>2376720873.00445</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>2239173973.57007</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>2146406481.59857</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>2583206982.6207</v>
+      </c>
+      <c r="AH12" s="13" t="n">
         <v>1377779391.88806</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="13" t="n">
         <v>1254022732.6257</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>1031066662.23855</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AK12" s="13" t="n">
         <v>1232965823.17232</v>
       </c>
-      <c r="AL12" s="1" t="n">
+      <c r="AL12" s="13" t="n">
         <v>811917628.356549</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AM12" s="13" t="n">
         <v>1238376831.20848</v>
       </c>
-      <c r="AN12" s="1" t="n">
+      <c r="AN12" s="13" t="n">
         <v>982862133.37002</v>
       </c>
-      <c r="AO12" s="1" t="n">
+      <c r="AO12" s="13" t="n">
         <v>1299652676.21118</v>
       </c>
-      <c r="AP12" s="1" t="n">
-        <v>2767935749.77268</v>
-      </c>
-      <c r="AQ12" s="1" t="n">
-        <v>2418248859.84614</v>
-      </c>
-      <c r="AR12" s="1" t="n">
-        <v>2000498088.57745</v>
-      </c>
-      <c r="AS12" s="1" t="n">
-        <v>2075594432.57182</v>
-      </c>
-      <c r="AT12" s="1" t="n">
-        <v>1638119798.8288</v>
-      </c>
-      <c r="AU12" s="1" t="n">
-        <v>1339990489.5414</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="AP12" s="13" t="n">
+        <v>2767925494.94507</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>2425943819.12393</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>2000656766.87431</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>2079715539.93021</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>1638119800.9844</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>2793558312.03722</v>
+      </c>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2108,85 +2108,85 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="n">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5423,89 +5423,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>2093456735.9815</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="3" t="n">
         <v>2343488075</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="3" t="n">
         <v>3835139134.8448</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="3" t="n">
         <v>8700836390.8537</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="3" t="n">
         <v>6759772953.4385</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="3" t="n">
         <v>11117816196.0198</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="3" t="n">
         <v>9604689269.2526</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="3" t="n">
         <v>20152059892.8297</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="3" t="n">
         <v>28767470702.0476</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="3" t="n">
         <v>19557716669.1172</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>16235343814.0836</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="3" t="n">
         <v>12428436251.991</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="3" t="n">
         <v>6519820010.5957</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="3" t="n">
         <v>4621227533.9046</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="3" t="n">
         <v>3587679208.2345</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="3" t="n">
         <v>5338394558.6023</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="3" t="n">
         <v>5006344883.5449</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>6050990172.1041</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="3" t="n">
         <v>7469821294.3635</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="3" t="n">
         <v>7831255776.9281</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="3" t="n">
         <v>7852947830.3223</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="3" t="n">
         <v>5870053002.1311</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="3" t="n">
         <v>5893384224.6054</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="3" t="n">
         <v>8650053026.656</v>
       </c>
-      <c r="AX2" s="13"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5523,89 +5523,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>84160718</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="3" t="n">
         <v>80387605</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="3" t="n">
         <v>79689745</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="3" t="n">
         <v>135933144</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="3" t="n">
         <v>163198600</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="3" t="n">
         <v>196189849.1371</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="3" t="n">
         <v>108484498.0493</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="3" t="n">
         <v>101211759.8302</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="3" t="n">
         <v>190127628.4595</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="3" t="n">
         <v>371482126.3623</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>11302768.5422</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="3" t="n">
         <v>52871985.3049</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="3" t="n">
         <v>83384355.8596</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="3" t="n">
         <v>77168108.3885</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="3" t="n">
         <v>56985068.2196</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="3" t="n">
         <v>68701439.3897</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="3" t="n">
         <v>69171381.6357</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>103154932.7858</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="3" t="n">
         <v>93183548.2283</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="3" t="n">
         <v>59221283.6536</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="3" t="n">
         <v>63356169.8832</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="3" t="n">
         <v>43816364.2871</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="3" t="n">
         <v>54082670.4924</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="3" t="n">
         <v>76340437.4977</v>
       </c>
-      <c r="AX3" s="13"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5623,89 +5623,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>91304644</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="3" t="n">
         <v>32940794</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="3" t="n">
         <v>54237461</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="3" t="n">
         <v>59654793</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="3" t="n">
         <v>135335517</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="3" t="n">
         <v>320771590.6533</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="3" t="n">
         <v>332621519.5669</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="3" t="n">
         <v>189403707.5138</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="3" t="n">
         <v>632226455.1251</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="3" t="n">
         <v>461879987.8917</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>255457700.6809</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="3" t="n">
         <v>195276084.7593</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="3" t="n">
         <v>68314482.9297</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="3" t="n">
         <v>23928411.6059</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="3" t="n">
         <v>-5718044.7806</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="3" t="n">
         <v>26468673.8959</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="3" t="n">
         <v>52461607.4648</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>4073545.1261</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="3" t="n">
         <v>28288111.745</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="3" t="n">
         <v>84754626.0529</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="3" t="n">
         <v>57117742.1071</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="3" t="n">
         <v>133327128.9644</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="3" t="n">
         <v>42207712.5526</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="3" t="n">
         <v>4525630.9705</v>
       </c>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5723,89 +5723,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>30955836</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="3" t="n">
         <v>1150507</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="3" t="n">
         <v>8264374</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="3" t="n">
         <v>2908169</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="3" t="n">
         <v>20655709</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="3" t="n">
         <v>30330308.9477</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="3" t="n">
         <v>111052629</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="3" t="n">
         <v>28066851.72</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="3" t="n">
         <v>86722462</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="3" t="n">
         <v>372286357.062</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>363479757.816</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="3" t="n">
         <v>400838494.7965</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="3" t="n">
         <v>644408586.099</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="3" t="n">
         <v>626922842.85</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="3" t="n">
         <v>591656248.0272</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="3" t="n">
         <v>1123132705.986</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="3" t="n">
         <v>966374377.951</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>958803560.0879</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3245394609.0548</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="3" t="n">
         <v>3226424324.7664</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="3" t="n">
         <v>2113491716.9231</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="3" t="n">
         <v>1895771805.4707</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="3" t="n">
         <v>2151339847.9155</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="3" t="n">
         <v>2787725535.669</v>
       </c>
-      <c r="AX5" s="13"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5823,89 +5823,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>918847493.4375</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="3" t="n">
         <v>793624064</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="3" t="n">
         <v>721644047</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="3" t="n">
         <v>562887707</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="3" t="n">
         <v>989854347</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="3" t="n">
         <v>1838843200</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="3" t="n">
         <v>2056340372.6981</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="3" t="n">
         <v>3101368334.9257</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="3" t="n">
         <v>5269413742.0495</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="3" t="n">
         <v>5878942682.2611</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>3855801663.6071</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3597766300.2285</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="3" t="n">
         <v>1982832090.3539</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="3" t="n">
         <v>1390400591.7497</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="3" t="n">
         <v>1182623716.6221</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="3" t="n">
         <v>911377393.098</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="3" t="n">
         <v>649563464.814</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>774798581.1456</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="3" t="n">
         <v>1269206378.2579</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="3" t="n">
         <v>1027000021.43</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="3" t="n">
         <v>1277191303.5226</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="3" t="n">
         <v>1647567480.7375</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="3" t="n">
         <v>2253175912.208</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="3" t="n">
         <v>1608121893.6625</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5923,89 +5923,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>110027344</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="3" t="n">
         <v>15855492</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="3" t="n">
         <v>32382282</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="3" t="n">
         <v>45992146</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="3" t="n">
         <v>367042944</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1604658298</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="3" t="n">
         <v>3511921413.58</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="3" t="n">
         <v>4189750854.5588</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="3" t="n">
         <v>4600172090.6768</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1380332769.4846</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>4821736617.3757</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="3" t="n">
         <v>2903816859.8941</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1538442768.7119</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="3" t="n">
         <v>695403207.51</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="3" t="n">
         <v>412624387.29</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="3" t="n">
         <v>29957755.7005</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="3" t="n">
         <v>604099156.4609</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>345442314.1106</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="3" t="n">
         <v>583203575.7095</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="3" t="n">
         <v>680005915.9922</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="3" t="n">
         <v>380707732.8472</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="3" t="n">
         <v>98365945.85</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="3" t="n">
         <v>357089843.5836</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="3" t="n">
         <v>1352999345.6959</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6023,67 +6023,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="n">
         <v>13216.3203</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="3" t="n">
         <v>114874</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="3" t="n">
         <v>234500</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="3" t="n">
         <v>13451884.2</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="3" t="n">
         <v>54597604</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="3" t="n">
         <v>436281795.5375</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="3" t="n">
         <v>168328364.2322</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="3" t="n">
         <v>813187518.8145</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>-224822649.1682</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="3" t="n">
         <v>-793142.3124</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-673666.0691</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-150606.43</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-264049.56</v>
       </c>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6099,109 +6099,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="3" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="3" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="3" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="3" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="3" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="3" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="3" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="3" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="3" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="3" t="n">
         <v>67514203</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="3" t="n">
         <v>30343123.2609</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="3" t="n">
         <v>53387575.1804</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="3" t="n">
         <v>133185321.62</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="3" t="n">
         <v>109396118</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="3" t="n">
         <v>139711236.61</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="3" t="n">
         <v>352057609.0186</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="3" t="n">
         <v>453672.3525</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="3" t="n">
         <v>42670200.6644</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="3" t="n">
         <v>-674461.6509</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>17795237.7778</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-24734.1094</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="3" t="n">
         <v>100336.0553</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="3" t="n">
         <v>4582859.6709</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>16041348.3991</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6216,107 +6216,107 @@
       <c r="O10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6453,89 +6453,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>3382460956.217</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="3" t="n">
         <v>3696798865.70812</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="3" t="n">
         <v>5955840069.6653</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="3" t="n">
         <v>13258668044.8104</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="3" t="n">
         <v>10055022534.8485</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="3" t="n">
         <v>16050287673.2762</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="3" t="n">
         <v>13428650150.5041</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="3" t="n">
         <v>27423264556.9959</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="3" t="n">
         <v>38347492156.3687</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="3" t="n">
         <v>25808480159.8779</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>21239526757.786</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="3" t="n">
         <v>15938014017.2824</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="3" t="n">
         <v>8210409337.77662</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="3" t="n">
         <v>5714928636.80538</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="3" t="n">
         <v>4352566886.19028</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="3" t="n">
         <v>6403124365.40504</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="3" t="n">
         <v>5955497936.24319</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>7071936823.6948</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="3" t="n">
         <v>8529874823.19741</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="3" t="n">
         <v>8770811456.42923</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="3" t="n">
         <v>8679320000.10679</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="3" t="n">
         <v>6276774856.7269</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="3" t="n">
         <v>5893384224.6054</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="3" t="n">
         <v>8250406558.85407</v>
       </c>
-      <c r="AX14" s="13"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6553,89 +6553,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>135981001.082749</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="3" t="n">
         <v>126809609.210831</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="3" t="n">
         <v>123755451.816644</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="3" t="n">
         <v>207140135.915896</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="3" t="n">
         <v>242754543.970447</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="3" t="n">
         <v>283230399.001777</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="3" t="n">
         <v>151675950.175789</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="3" t="n">
         <v>137730677.70061</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="3" t="n">
         <v>253443127.363321</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="3" t="n">
         <v>490210040.884257</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>14786595.0754224</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="3" t="n">
         <v>67802129.3930724</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="3" t="n">
         <v>105005919.313959</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="3" t="n">
         <v>95431404.1544105</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="3" t="n">
         <v>69134196.940083</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="3" t="n">
         <v>82403774.330566</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="3" t="n">
         <v>82285585.6240586</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>120559635.194382</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="3" t="n">
         <v>106407365.135836</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="3" t="n">
         <v>66326362.9651473</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="3" t="n">
         <v>70023191.835575</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="3" t="n">
         <v>46852294.7868799</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="3" t="n">
         <v>54082670.4924</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="3" t="n">
         <v>72813385.5706895</v>
       </c>
-      <c r="AX15" s="13"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6653,89 +6653,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>147523656.994276</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="3" t="n">
         <v>51963349.5018851</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="3" t="n">
         <v>84228924.2040188</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="3" t="n">
         <v>90904260.4800976</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="3" t="n">
         <v>201308783.974493</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="3" t="n">
         <v>463083416.439554</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="3" t="n">
         <v>465049716.193529</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="3" t="n">
         <v>257743774.425507</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="3" t="n">
         <v>842767835.937447</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="3" t="n">
         <v>609499600.869596</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>334196844.318614</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="3" t="n">
         <v>250418710.208629</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="3" t="n">
         <v>86028428.336957</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="3" t="n">
         <v>29591523.8357201</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="3" t="n">
         <v>-6937123.11531894</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="3" t="n">
         <v>31747786.5081541</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="3" t="n">
         <v>62407804.9467873</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>4760849.5404698</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="3" t="n">
         <v>32302520.0551376</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="3" t="n">
         <v>94923070.6217266</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="3" t="n">
         <v>63128289.1651081</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="3" t="n">
         <v>142565045.068505</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="3" t="n">
         <v>42207712.5526</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="3" t="n">
         <v>4316539.48558519</v>
       </c>
-      <c r="AX16" s="13"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6753,89 +6753,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>50016274.4409263</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="3" t="n">
         <v>1814898.49168072</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="3" t="n">
         <v>12834290.514441</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="3" t="n">
         <v>4431579.40881875</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="3" t="n">
         <v>30724940.1568473</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="3" t="n">
         <v>43786493.2507345</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="3" t="n">
         <v>155266543.386132</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="3" t="n">
         <v>38193847.3829863</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="3" t="n">
         <v>115602409.602499</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="3" t="n">
         <v>491271308.536731</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>475514293.411486</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="3" t="n">
         <v>514028427.969735</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="3" t="n">
         <v>811503732.319636</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="3" t="n">
         <v>775296018.511272</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="3" t="n">
         <v>717796448.261059</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1347138791.69792</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1149589320.63232</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1120576634.63656</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="3" t="n">
         <v>3705953419.26128</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="3" t="n">
         <v>3613514899.40269</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="3" t="n">
         <v>2335896191.48124</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="3" t="n">
         <v>2027125274.39705</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="3" t="n">
         <v>2151339847.9155</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="3" t="n">
         <v>2658928098.23155</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6853,89 +6853,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>1484609506.30205</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="3" t="n">
         <v>1251923818.55575</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="3" t="n">
         <v>1120688553.93221</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="3" t="n">
         <v>857749866.60624</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="3" t="n">
         <v>1472387879.57219</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="3" t="n">
         <v>2654654639.51579</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="3" t="n">
         <v>2875041001.45333</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="3" t="n">
         <v>4220394579.49502</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="3" t="n">
         <v>7024211625.51221</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="3" t="n">
         <v>7757888006.20985</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5044266604.06522</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4613713950.92139</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="3" t="n">
         <v>2496980450.90624</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="3" t="n">
         <v>1719465250.33094</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="3" t="n">
         <v>1434757270.37638</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="3" t="n">
         <v>1093149396.83908</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="3" t="n">
         <v>772714218.485795</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>905525618.304672</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="3" t="n">
         <v>1449321356.52465</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="3" t="n">
         <v>1150214449.67344</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="3" t="n">
         <v>1411591196.59798</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="3" t="n">
         <v>1761723468.95328</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="3" t="n">
         <v>2253175912.208</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="3" t="n">
         <v>1533824056.10975</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6953,89 +6953,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>177774485.99709</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="3" t="n">
         <v>25011676.1702934</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="3" t="n">
         <v>50288577.7807918</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="3" t="n">
         <v>70084595.2147161</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="3" t="n">
         <v>545968791.939945</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="3" t="n">
         <v>2316572503.63881</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="3" t="n">
         <v>4910139484.67898</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="3" t="n">
         <v>5701483953.67498</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="3" t="n">
         <v>6132101949.18592</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="3" t="n">
         <v>1821495397.33978</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>6307929482.52253</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="3" t="n">
         <v>3723805061.09118</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="3" t="n">
         <v>1937360978.26925</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="3" t="n">
         <v>859983559.685779</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="3" t="n">
         <v>500595270.734032</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="3" t="n">
         <v>35932757.1900093</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="3" t="n">
         <v>718630330.765721</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>403726688.052382</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="3" t="n">
         <v>665966868.711691</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="3" t="n">
         <v>761589692.421407</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="3" t="n">
         <v>420769921.218285</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="3" t="n">
         <v>105181485.6604</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="3" t="n">
         <v>357089843.5836</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="3" t="n">
         <v>1290488583.3018</v>
       </c>
-      <c r="AX19" s="13"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7053,67 +7053,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="n">
         <v>20524.4939619267</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="3" t="n">
         <v>175049.404972216</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="3" t="n">
         <v>348813.902576798</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="3" t="n">
         <v>19419875.9316505</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="3" t="n">
         <v>76334809.239364</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="3" t="n">
         <v>593699659.690029</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="3" t="n">
         <v>224384364.337919</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="3" t="n">
         <v>1073087124.67055</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>-294119220.845946</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="3" t="n">
         <v>-1017112.13192294</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-848347.680655765</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-186250.296783546</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-320344.519245543</v>
       </c>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7129,109 +7129,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="3" t="n">
         <v>8496761048.00178</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="3" t="n">
         <v>12481647125.4824</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="3" t="n">
         <v>7801467311.04532</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="3" t="n">
         <v>8042332737.85858</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="3" t="n">
         <v>6479188748.05532</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="3" t="n">
         <v>5432109078.79528</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="3" t="n">
         <v>6329626008.39484</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="3" t="n">
         <v>6175858018.88923</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="3" t="n">
         <v>4682923414.73451</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="3" t="n">
         <v>5785017364.18835</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="3" t="n">
         <v>109084726.573316</v>
       </c>
-      <c r="AA21" s="13" t="n">
+      <c r="AA21" s="3" t="n">
         <v>47865583.2942256</v>
       </c>
-      <c r="AB21" s="13" t="n">
+      <c r="AB21" s="3" t="n">
         <v>82909080.5579242</v>
       </c>
-      <c r="AC21" s="13" t="n">
+      <c r="AC21" s="3" t="n">
         <v>202952898.833629</v>
       </c>
-      <c r="AD21" s="13" t="n">
+      <c r="AD21" s="3" t="n">
         <v>162724464.163462</v>
       </c>
-      <c r="AE21" s="13" t="n">
+      <c r="AE21" s="3" t="n">
         <v>201694784.231317</v>
       </c>
-      <c r="AF21" s="13" t="n">
+      <c r="AF21" s="3" t="n">
         <v>492223988.908037</v>
       </c>
-      <c r="AG21" s="13" t="n">
+      <c r="AG21" s="3" t="n">
         <v>617365.024268755</v>
       </c>
-      <c r="AH21" s="13" t="n">
+      <c r="AH21" s="3" t="n">
         <v>56880050.4652045</v>
       </c>
-      <c r="AI21" s="13" t="n">
+      <c r="AI21" s="3" t="n">
         <v>-890023.63774589</v>
       </c>
-      <c r="AJ21" s="13" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>23280223.2752766</v>
       </c>
-      <c r="AK21" s="13" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-31718.5987303145</v>
       </c>
-      <c r="AL21" s="13" t="n">
+      <c r="AL21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="13" t="n">
+      <c r="AM21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="13" t="n">
+      <c r="AN21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="13" t="n">
+      <c r="AO21" s="3" t="n">
         <v>120347.837419546</v>
       </c>
-      <c r="AP21" s="13" t="n">
+      <c r="AP21" s="3" t="n">
         <v>5451724.15145544</v>
       </c>
-      <c r="AQ21" s="13" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>18747907.2381084</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="13" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7240,41 +7240,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -687,24 +687,30 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -742,11 +748,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -754,7 +760,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,110 +1174,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="1" t="n">
         <v>3597409000</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="1" t="n">
         <v>5768448183</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="1" t="n">
         <v>3439853184</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="1" t="n">
         <v>3666795123</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="1" t="n">
         <v>2930131504</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="1" t="n">
         <v>2309272172</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="1" t="n">
         <v>2623635564</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="1" t="n">
         <v>2737327075</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="1" t="n">
         <v>2121719228</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="1" t="n">
         <v>2777452514</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="1" t="n">
         <v>2782364582.4375</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="1" t="n">
         <v>2367420112.2609</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="1" t="n">
         <v>4062575745.7449</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="1" t="n">
         <v>8793972678.5119</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="1" t="n">
         <v>7076340884.6739</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="1" t="n">
         <v>11400322123.5642</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="1" t="n">
         <v>10972473001.7521</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="1" t="n">
         <v>23071480003.5654</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="1" t="n">
         <v>34807076732.2012</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="1" t="n">
         <v>23567125595.7303</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="1" t="n">
         <v>22479997339</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="1" t="n">
         <v>17376702346.8245</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>9856459006.7874</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="1" t="n">
         <v>6215287777.4871</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="1" t="n">
         <v>4946270470.6479</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="1" t="n">
         <v>6334173895.1973</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="1" t="n">
         <v>6416981325.1237</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="1" t="n">
         <v>7123820041.9618</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="1" t="n">
         <v>9981535614.8134</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>10619177679.6977</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="1" t="n">
         <v>9555270529.3331</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="1" t="n">
         <v>7275497608.7232</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="1" t="n">
         <v>8631394107.3559</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="1" t="n">
         <v>11149252714.0137</v>
       </c>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1280,110 +1286,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="1" t="n">
         <v>351754000</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="1" t="n">
         <v>484665000</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="1" t="n">
         <v>443671830</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="1" t="n">
         <v>429638209</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="1" t="n">
         <v>349171791</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="1" t="n">
         <v>382403570</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="1" t="n">
         <v>531758374</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="1" t="n">
         <v>411854162</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="1" t="n">
         <v>324163518</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="1" t="n">
         <v>326263181</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="1" t="n">
         <v>210356234</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="1" t="n">
         <v>412702575</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="1" t="n">
         <v>390143838.8008</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="1" t="n">
         <v>241577284</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="1" t="n">
         <v>493484354</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="1" t="n">
         <v>1036489709.5125</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="1" t="n">
         <v>3459369344.1969</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="1" t="n">
         <v>3481653834.4118</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="1" t="n">
         <v>3339866551.2625</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="1" t="n">
         <v>3310468757.179</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="1" t="n">
         <v>1802932763.3673</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="1" t="n">
         <v>1223600957.4111</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>161307879.1099</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="1" t="n">
         <v>222606754.8022</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="1" t="n">
         <v>210078790.2694</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="1" t="n">
         <v>131502972.6195</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="1" t="n">
         <v>109397194.3049</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="1" t="n">
         <v>17457287.2686</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="1" t="n">
         <v>283621430.7437</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>123414841.8673</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="1" t="n">
         <v>379370983.2401</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="1" t="n">
         <v>468449786.6911</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="1" t="n">
         <v>481766303.0172</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="1" t="n">
         <v>401635971.7469</v>
       </c>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1392,110 +1398,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="1" t="n">
         <v>325869000</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="1" t="n">
         <v>250862706</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="1" t="n">
         <v>283287436</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="1" t="n">
         <v>299931198</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="1" t="n">
         <v>339740116</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="1" t="n">
         <v>406778917</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="1" t="n">
         <v>522856130</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="1" t="n">
         <v>503466309</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="1" t="n">
         <v>358367669</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="1" t="n">
         <v>403677901</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="1" t="n">
         <v>403546157.9815</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="1" t="n">
         <v>517666973</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="1" t="n">
         <v>332038250.7998</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="1" t="n">
         <v>605962582.9618</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="1" t="n">
         <v>975665449.7646</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="1" t="n">
         <v>2824960730.4912</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="1" t="n">
         <v>1699922569.2165</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="1" t="n">
         <v>1645463031.291</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="1" t="n">
         <v>1610188361.7914</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="1" t="n">
         <v>1957559296.4332</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="1" t="n">
         <v>1053164808.3478</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="1" t="n">
         <v>977884796.3169</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>818761742.5834</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="1" t="n">
         <v>997005557.2894</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="1" t="n">
         <v>669237273.1355</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="1" t="n">
         <v>1032455994.9109</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="1" t="n">
         <v>826219212.1136</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="1" t="n">
         <v>1112027124.5288</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="1" t="n">
         <v>2423940471.8019</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>2166069427.2582</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="1" t="n">
         <v>1810170983.0323</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="1" t="n">
         <v>1944954332.0265</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="1" t="n">
         <v>1638119800.9844</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="1" t="n">
         <v>2928877184.391</v>
       </c>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1504,44 +1510,44 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13" t="n">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1550,110 +1556,110 @@
       <c r="M6" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="1" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="1" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="1" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="1" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="1" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="1" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="1" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="1" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="1" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="1" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X6" s="1" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="1" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="1" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="1" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB6" s="1" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="1" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD6" s="1" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE6" s="1" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF6" s="1" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG6" s="1" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH6" s="1" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI6" s="1" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ6" s="1" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK6" s="1" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL6" s="1" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM6" s="1" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN6" s="1" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO6" s="1" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP6" s="1" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ6" s="1" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR6" s="1" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="13" t="str">
+      <c r="AS6" s="1" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT6" s="1" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1772,110 +1778,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="13" t="n">
+      <c r="N10" s="1" t="n">
         <v>7149963945.28299</v>
       </c>
-      <c r="O10" s="13" t="n">
+      <c r="O10" s="1" t="n">
         <v>11070110946.0765</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="1" t="n">
         <v>6440391184.33832</v>
       </c>
-      <c r="Q10" s="13" t="n">
+      <c r="Q10" s="1" t="n">
         <v>6707720949.77372</v>
       </c>
-      <c r="R10" s="13" t="n">
+      <c r="R10" s="1" t="n">
         <v>5245826842.89863</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="1" t="n">
         <v>4048540227.78537</v>
       </c>
-      <c r="T10" s="13" t="n">
+      <c r="T10" s="1" t="n">
         <v>4514818621.74578</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="1" t="n">
         <v>4628243802.21801</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="1" t="n">
         <v>3543138872.03031</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="1" t="n">
         <v>4581068700.13758</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="1" t="n">
         <v>4495550065.25772</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="1" t="n">
         <v>3734551107.39605</v>
       </c>
-      <c r="Z10" s="13" t="n">
+      <c r="Z10" s="1" t="n">
         <v>6309041357.25366</v>
       </c>
-      <c r="AA10" s="13" t="n">
+      <c r="AA10" s="1" t="n">
         <v>13400592690.3863</v>
       </c>
-      <c r="AB10" s="13" t="n">
+      <c r="AB10" s="1" t="n">
         <v>10525910788.6859</v>
       </c>
-      <c r="AC10" s="13" t="n">
+      <c r="AC10" s="1" t="n">
         <v>16458128685.0854</v>
       </c>
-      <c r="AD10" s="13" t="n">
+      <c r="AD10" s="1" t="n">
         <v>15340996162.9968</v>
       </c>
-      <c r="AE10" s="13" t="n">
+      <c r="AE10" s="1" t="n">
         <v>31396060910.0976</v>
       </c>
-      <c r="AF10" s="13" t="n">
+      <c r="AF10" s="1" t="n">
         <v>46398382249.1285</v>
       </c>
-      <c r="AG10" s="13" t="n">
+      <c r="AG10" s="1" t="n">
         <v>31099320214.7769</v>
       </c>
-      <c r="AH10" s="13" t="n">
+      <c r="AH10" s="1" t="n">
         <v>29408955576.4421</v>
       </c>
-      <c r="AI10" s="13" t="n">
+      <c r="AI10" s="1" t="n">
         <v>22283585799.7394</v>
       </c>
-      <c r="AJ10" s="13" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>12412238824.8791</v>
       </c>
-      <c r="AK10" s="13" t="n">
+      <c r="AK10" s="1" t="n">
         <v>7686253456.45678</v>
       </c>
-      <c r="AL10" s="13" t="n">
+      <c r="AL10" s="1" t="n">
         <v>6000807711.92396</v>
       </c>
-      <c r="AM10" s="13" t="n">
+      <c r="AM10" s="1" t="n">
         <v>7597509468.02804</v>
       </c>
-      <c r="AN10" s="13" t="n">
+      <c r="AN10" s="1" t="n">
         <v>7633576976.34787</v>
       </c>
-      <c r="AO10" s="13" t="n">
+      <c r="AO10" s="1" t="n">
         <v>8325778731.61649</v>
       </c>
-      <c r="AP10" s="13" t="n">
+      <c r="AP10" s="1" t="n">
         <v>11398030285.1275</v>
       </c>
-      <c r="AQ10" s="13" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>11893214562.7716</v>
       </c>
-      <c r="AR10" s="13" t="n">
+      <c r="AR10" s="1" t="n">
         <v>10560779519.1819</v>
       </c>
-      <c r="AS10" s="13" t="n">
+      <c r="AS10" s="1" t="n">
         <v>7779599339.90909</v>
       </c>
-      <c r="AT10" s="13" t="n">
+      <c r="AT10" s="1" t="n">
         <v>8631394107.3559</v>
       </c>
-      <c r="AU10" s="13" t="n">
+      <c r="AU10" s="1" t="n">
         <v>10634139170.5411</v>
       </c>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1884,110 +1890,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="1" t="n">
         <v>699122178.659439</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="1" t="n">
         <v>930110690.339913</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="1" t="n">
         <v>830680842.997063</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="1" t="n">
         <v>785943342.527065</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="1" t="n">
         <v>625123736.429677</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="1" t="n">
         <v>670417396.080646</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="1" t="n">
         <v>915063296.955848</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="1" t="n">
         <v>696358681.468196</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="1" t="n">
         <v>541332871.174742</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="1" t="n">
         <v>538131269.194552</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="1" t="n">
         <v>339878888.430075</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="1" t="n">
         <v>651028877.599397</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="1" t="n">
         <v>605880054.5073</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="1" t="n">
         <v>368124726.387208</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="1" t="n">
         <v>734047775.604818</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="1" t="n">
         <v>1496333246.9934</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="1" t="n">
         <v>4836664608.53802</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="1" t="n">
         <v>4737893530.7217</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="1" t="n">
         <v>4452094788.04617</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="1" t="n">
         <v>4368514417.35332</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="1" t="n">
         <v>2358646611.27845</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="1" t="n">
         <v>1569124933.77066</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>203135012.124339</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="1" t="n">
         <v>275290863.39761</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="1" t="n">
         <v>254867264.586755</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="1" t="n">
         <v>157730920.571666</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="1" t="n">
         <v>130137811.131442</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="1" t="n">
         <v>20402748.8337006</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="1" t="n">
         <v>323870572.813491</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>138221549.618153</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="1" t="n">
         <v>419292504.348757</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="1" t="n">
         <v>500907545.753725</v>
       </c>
-      <c r="AT11" s="13" t="n">
+      <c r="AT11" s="1" t="n">
         <v>481766303.0172</v>
       </c>
-      <c r="AU11" s="13" t="n">
+      <c r="AU11" s="1" t="n">
         <v>383079738.975123</v>
       </c>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1996,110 +2002,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="1" t="n">
         <v>647674924.05935</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="1" t="n">
         <v>481425489.066053</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="1" t="n">
         <v>530395283.709936</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="1" t="n">
         <v>548668445.557799</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="1" t="n">
         <v>608238168.727015</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="1" t="n">
         <v>713151454.929266</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="1" t="n">
         <v>899744089.693218</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="1" t="n">
         <v>851255535.203015</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="1" t="n">
         <v>598451671.529458</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="1" t="n">
         <v>665817394.856219</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="1" t="n">
         <v>652021653.919607</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="1" t="n">
         <v>816607815.937342</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="1" t="n">
         <v>515644061.204328</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="1" t="n">
         <v>923389013.901234</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="1" t="n">
         <v>1451282188.23768</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="1" t="n">
         <v>4078267853.20705</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="1" t="n">
         <v>2376720873.00445</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="1" t="n">
         <v>2239173973.57007</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="1" t="n">
         <v>2146406481.59857</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="1" t="n">
         <v>2583206982.6207</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="1" t="n">
         <v>1377779391.88806</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="1" t="n">
         <v>1254022732.6257</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>1031066662.23855</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="1" t="n">
         <v>1232965823.17232</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="1" t="n">
         <v>811917628.356549</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="1" t="n">
         <v>1238376831.20848</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="1" t="n">
         <v>982862133.37002</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="1" t="n">
         <v>1299652676.21118</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="1" t="n">
         <v>2767925494.94507</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="1" t="n">
         <v>2425943819.12393</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="1" t="n">
         <v>2000656766.87431</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="1" t="n">
         <v>2079715539.93021</v>
       </c>
-      <c r="AT12" s="13" t="n">
+      <c r="AT12" s="1" t="n">
         <v>1638119800.9844</v>
       </c>
-      <c r="AU12" s="13" t="n">
+      <c r="AU12" s="1" t="n">
         <v>2793558312.03722</v>
       </c>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2108,85 +2114,85 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13" t="n">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7294,6 +7300,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>60</v>
       </c>
@@ -7402,706 +7414,977 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
-        <v>2567960782</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>2039148182.7969</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>2458932140.9917</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>6164126778.125</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>3756314888.1182</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>6393170389.22</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>8563835464.208</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>12917488185.2072</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>17694784367.1524</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>9980548003.375</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>8201568872.0863</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>6128335341.3711</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>3632894190.242</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>2784852680.752</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>2906630361.1316</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>3900560170.0003</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>4232566764.82</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>3766849635.7367</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>5162977225.3893</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>6261437086.375</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>5759005401.1018</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>3354601889.87</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>3653281351.1445</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>2240346193.4822</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="P2" s="13" t="n">
+        <v>5737000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>9278000</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>2638000</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>-5573000</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>672000</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>219000</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>671993186</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>601007258</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>1057202492</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>2567053933</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>2039148176.8</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>2458932139.99</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>6164126681.21</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>3756314887.29</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>6393170370.07</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>8563835455.88</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>12917488183.77</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>17694784391.04</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>9980547947.37</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>8200598168.8238</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>6127439826.4516</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>3630730752.3167</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>2786384860.3542</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>2908209773.9275</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>3898799756.1311</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>4225888919.115</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>3772309202.0111</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>5163455534.9</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>6260981165.43</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>5759093412.22</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>3390775312.78</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>3693970710.99</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>4649519417.58</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>4737836216.76</v>
+      </c>
+      <c r="AY2" s="13" t="n">
+        <v>1594231607.68</v>
+      </c>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="13" t="n">
+        <v>54000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>235000</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>292000</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>884000</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="n">
+        <v>243000</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>1221000</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>8514815</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>42803630</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>68504175</v>
+      </c>
+      <c r="Z3" s="13" t="n">
         <v>102774117</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="13" t="n">
         <v>120885561</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>183530727.7793</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>326891545.5003</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>418175853.9423</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>509943877.3732</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>504282143.5415</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>494436783.3608</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>638209522.533</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>651894974.3977</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>695410487.1099</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>733786807.2216</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>598610129.3638</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>482406806.3622</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>508077877.5637</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>587183609.9264</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>526678612.7845</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>525878228.1736</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>878190321.8045</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>784805190.8353</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>589091254.3553</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>409348770.4257</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>461326793.3857</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>212852961.781</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AB3" s="13" t="n">
+        <v>183530727.78</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>326891545.5</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>418175853.94</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>509943877.34</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>504264516.51</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>494436785.25</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>638293953.77</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>651894974.89</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>692100808.9208</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>732790835.2834</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>593749315.1256</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>477678382.6022</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>506735211.3537</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>589654540.5028</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>526295077.4845</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>525474084.487</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>878119428.16</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>785223956.28</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>589746121.93</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>409678101.77</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>461544997.49</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>543765155.25</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>673213541.72</v>
+      </c>
+      <c r="AY3" s="13" t="n">
+        <v>351852758.51</v>
+      </c>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4" t="n">
+      <c r="P4" s="13" t="n">
+        <v>98000</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="n">
+        <v>495378</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>204268</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13" t="n">
         <v>21226070.5736</v>
       </c>
-      <c r="AK4" s="4" t="n">
-        <v>759941264.3133</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>604490429.72</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>114768722.4538</v>
-      </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AK4" s="13" t="n">
+        <v>759941264.7233</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>604487924.1251</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>114837584.7538</v>
+      </c>
+      <c r="AN4" s="13" t="n">
         <v>209831912.8197</v>
       </c>
-      <c r="AO4" s="4" t="n">
-        <v>118706724.218</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>47904950.322</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>56542700.0405</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>73269034.2496</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>79529681.0209</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>119588151.14</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>159828626.3764</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>119364319.9636</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>124831577.0079</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AO4" s="13" t="n">
+        <v>118711632.3364</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>47900237.6385</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>56920411.7879</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>73266797.563</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>79637531.1846</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>122401536.8601</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>164283184.9282</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>119939124.7293</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>283475400.6124</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>288369839.4532</v>
+      </c>
+      <c r="AY4" s="13" t="n">
+        <v>121316276.71</v>
+      </c>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>22115873</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13" t="n">
+        <v>136000</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>498000</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>1377000</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>2469531</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>2513449</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>4466020</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>22315428</v>
+      </c>
+      <c r="AA5" s="13" t="n">
         <v>26933843</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>45428040.3301</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>76796251</v>
-      </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AB5" s="13" t="n">
+        <v>45501003.3301</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>76852605</v>
+      </c>
+      <c r="AD5" s="13" t="n">
         <v>106973980.8999</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>150193947.3984</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>163591306.5192</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>181859904.7916</v>
-      </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AE5" s="13" t="n">
+        <v>150437934.3984</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>163671921.5192</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>181866187.7916</v>
+      </c>
+      <c r="AH5" s="13" t="n">
         <v>98071860.1189</v>
       </c>
-      <c r="AI5" s="4" t="n">
-        <v>247874885.6545</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>171444761.0126</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>133624853.5705</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>106034763.9892</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>77304620.1385</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>76913865.8155</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>38154734.6105</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>36755260.8908</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>38105230.3268</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>48732607.2898</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>71724630.559</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>125740590.5561</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>168266427.6754</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>34947229.9748</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>5200679.0326</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="AI5" s="13" t="n">
+        <v>247874885.6489</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>171532518.4082</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>133614340.0305</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>106045471.9929</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>77460337.6685</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>77644704.6359</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>38691959.4711</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>36582612.5629</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>37840199.504</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>48887107.339</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>71741070.4917</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>125776252.2645</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>168355554.7664</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>34949063.9193</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>28682218.1085</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>33160167.71</v>
+      </c>
+      <c r="AY5" s="13" t="n">
+        <v>5799306.2</v>
+      </c>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>65</v>
       </c>
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="n">
+        <v>11269281</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>15859303</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>12786607</v>
+      </c>
+      <c r="Z6" s="13" t="n">
         <v>123125334</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="13" t="n">
         <v>218853345</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="13" t="n">
         <v>276817698.3203</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="13" t="n">
         <v>468345261</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="13" t="n">
         <v>480349307.5091</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="13" t="n">
         <v>1275203785.3917</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="13" t="n">
         <v>1084465304.4663</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="13" t="n">
         <v>1132844429.0062</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="13" t="n">
         <v>1058552498.467</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="13" t="n">
         <v>3683927087.3396</v>
       </c>
-      <c r="AJ6" s="4" t="n">
-        <v>4517256548.8732</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>3388583251.8504</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>999941989.5241</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>589107984.7742</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>342327670.9851</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>398641230.4256</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>611380485.1311</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>457036306.7709</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>452743532.8054</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>598116282.2647</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>343342039.5915</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>236755350.8714</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>122871394.476</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>166791468.1403</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="AJ6" s="13" t="n">
+        <v>4517216205.7898</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>3386506662.337</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>999938309.0311</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>589023461.7002</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>342322284.5268</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>398641233.4044</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>613551555.8887</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>457036309.0818</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>452429262.101</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>597987575.2476</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>344225539.2126</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>236755352.938</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>122507629.8245</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>240471910.5197</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>307919058.1801</v>
+      </c>
+      <c r="AY6" s="13" t="n">
+        <v>269275276.79</v>
+      </c>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>555182489.419</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>890600070.4609</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1813980771.9258</v>
-      </c>
-      <c r="AC7" s="4" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13" t="n">
+        <v>85000</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>180000</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>78000</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>348569419</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>456116890</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>634571529</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>556291028.419</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>890663639.4609</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>1813994521.9258</v>
+      </c>
+      <c r="AC7" s="13" t="n">
         <v>2599956323.8087</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="13" t="n">
         <v>3781070117.9663</v>
       </c>
-      <c r="AE7" s="4" t="n">
-        <v>6932901396.4107</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5813270990.5446</v>
-      </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AE7" s="13" t="n">
+        <v>6932972391.4107</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>5813272591.5446</v>
+      </c>
+      <c r="AG7" s="13" t="n">
         <v>13471961288.8451</v>
       </c>
-      <c r="AH7" s="4" t="n">
-        <v>20267282509.6863</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>14270908747.0331</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>11729100413.6606</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>8433927095.7656</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>4894546417.6416</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>3386422401.928</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>1781065546.9168</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>2454349168.576</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>1897292483.5938</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>3408668344.743</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>6073152593.7559</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>5113126747.0081</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>4808985338.6982</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>5359004935.2435</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>6364576520.164</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>3661122771.599</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="AH7" s="13" t="n">
+        <v>20267513356.6863</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>14270885299.8344</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>11729510218.2631</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>8433915343.2038</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>4893721355.1361</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>3389729174.5099</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>1780728347.1637</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>2449273122.2905</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>1902180626.7556</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>3409599388.5963</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>6049529744.1783</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>5123819646.087</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>4812391769.0819</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>5312829959.0641</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>6387741184.1576</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>8788622460.6187</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>7672366690.42</v>
+      </c>
+      <c r="AY7" s="13" t="n">
+        <v>4700386740.85</v>
+      </c>
+      <c r="AZ7" s="13"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>25108379</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1368664</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>6068460</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>5396471</v>
-      </c>
-      <c r="AD8" s="4" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>16880561</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>23410394</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>14691568</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>23800285</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>1305095</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>5981747</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>5340117</v>
+      </c>
+      <c r="AD8" s="13" t="n">
         <v>2606539</v>
       </c>
-      <c r="AE8" s="4" t="n">
-        <v>359187</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2319712</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>6283</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>230847</v>
-      </c>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4" t="n">
-        <v>87757.3989</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>-10513.54</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>10708</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>36873.17</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>739298.8204</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>537224.9709</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>19174</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>224007.9677</v>
-      </c>
-      <c r="AR8" s="4" t="n">
+      <c r="AE8" s="13" t="n">
+        <v>44205</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>2237496</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
+        <v>40343.0392</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>1348949.963</v>
+      </c>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13" t="n">
         <v>44088.1406</v>
       </c>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="13" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="13" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="13" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="13" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="13" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="13" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="13" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="13" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="13" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="13" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="4" t="n">
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AY9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O10" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="13" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="13" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="13" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="13" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="13" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="13" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="13" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="13" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="13" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="13" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="13" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="13" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="13" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="13" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="13" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="13" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="13" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="13" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="13" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="13" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="13" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="13" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="13" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="13" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="13" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="13" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="13" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="13" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="13" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="13" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="13" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="13" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="13" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="13" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="13"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
@@ -8210,704 +8493,891 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>4149131402.10614</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>3216709643.02831</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>3818637618.8667</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>9393132690.4616</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>5587440748.11018</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>9229530519.49064</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>11973396241.3006</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>17578336795.2796</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>23587426637.3969</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>13170390975.985</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>10729519713.8598</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>7858872394.96704</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>4574903652.89886</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>3443940861.54564</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>3526319474.50018</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>4678517406.13877</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>5035019204.47966</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>4402407191.32165</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>5895663057.00255</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>7012653614.59447</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>6365030283.97865</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>3587034186.74759</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>3653281351.1445</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>2136838568.71741</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="13" t="n">
+        <v>11865733.4738513</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>18527162.7675869</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>5139174.27464792</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>-10608079.0562856</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>1251808.94309223</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>399481.919013293</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>2255913.75706161</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>1182161813.61012</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>1044192371.80539</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>1814321778.90872</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>4315662766.38867</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>3347032644.90252</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>3973548403.78657</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>9773411397.58187</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>5813786716.25933</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>9602735418.927</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>12458436344.663</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>18288538424.6147</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>24542692077.4917</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>13702907290.9379</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>11162433297.295</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>8176394622.79835</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>4758463636.51631</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>3586776334.35746</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>3676524100.14635</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>4878295266.73863</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>5245619896.04432</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>4604857843.77954</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>6166141820.87818</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>7341062061.0716</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>6665521311.51462</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>3793876649.225</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>3862957292.00816</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>4649519417.58</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>4614598796.67128</v>
+      </c>
+      <c r="AY14" s="13" t="n">
+        <v>1519424206.40819</v>
+      </c>
+      <c r="AZ14" s="13"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>62</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>166055229.175393</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>190694209.009487</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>285016950.90836</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>498129868.641082</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>622027938.494663</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>736182878.432177</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>705054405.50208</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>672837952.493271</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>850743359.155035</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>860244516.15223</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>909755273.294742</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>940995647.567588</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>753829735.764003</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>596577522.323331</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>616399298.023597</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>704295952.352876</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>626531624.261676</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>614606452.964551</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>1002815625.80195</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>878962270.536828</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>651081812.370082</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>437711562.213714</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>461326793.3857</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>203018810.004726</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="13" t="n">
+        <v>111687.22461007</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>469269.589392424</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>568854.771871567</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>1682673.94325435</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="n">
+        <v>443260.759453106</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>2186087.85505733</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>14979153.5876596</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>74367194.9658554</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>117563681.119922</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>172781110.822642</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>198420067.539819</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>296579242.084725</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>518296544.148199</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>647226150.534669</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>765951139.910599</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>733590388.579753</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>700022017.976293</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>885314656.34779</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>895026650.986623</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>942068975.401385</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>977828785.748653</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>778172417.062003</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>614891913.364016</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>640608608.648833</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>737793457.953891</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>653293066.260021</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>641446215.056503</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>1048640565.04514</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>920682819.925998</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>682566692.835117</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>458381355.481123</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>482659109.434587</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>543765155.25</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>655702362.300823</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>335342490.887872</v>
+      </c>
+      <c r="AZ15" s="13"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>65</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4" t="n">
-        <v>27768533.8280025</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>974535675.877678</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>761234798.001152</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>141930916.352566</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>254567753.24526</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>142382491.558792</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>56987251.061395</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>66082804.8227513</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>83666752.64872</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>89071262.2973336</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>132172510.806378</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>170902767.498075</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>119364319.9636</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>119064155.85249</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="13" t="n">
+        <v>202691.629847904</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13" t="n">
+        <v>871462.638465735</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>354896.02590447</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13" t="n">
+        <v>28892355.4189302</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>1014058048.14316</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>792246520.573612</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>147824780.829932</v>
+      </c>
+      <c r="AN16" s="13" t="n">
+        <v>265267000.811843</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>148535557.185975</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>59458836.8012257</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>69482746.6828372</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>87494403.9861437</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>93375789.4121571</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>141666403.738473</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>183813459.066507</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>125425931.259199</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>283475400.6124</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>280868956.472084</v>
+      </c>
+      <c r="AY16" s="13" t="n">
+        <v>115623656.297177</v>
+      </c>
+      <c r="AZ16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>65</v>
       </c>
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>35733280.5829787</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>42487521.6194819</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>70548194.8297894</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>117025071.309844</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>159121585.295821</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>216828198.993994</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>228722695.896352</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>247478039.859569</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>130731336.293751</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>327097185.053705</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>224288788.134598</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>171358226.094032</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>133529578.266122</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>95600223.9979719</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>93311783.4696736</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>45764603.6009786</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>43723691.7298122</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>44534493.3405773</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>55648324.5862513</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>80329800.1411718</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>138972376.490881</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>179925203.755531</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>34947229.9748</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>4960399.23325712</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13" t="n">
+        <v>253342.286101999</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>908410.939126119</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>2465391.46307448</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>4344367.33369856</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>4366876.16960838</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>7664375.94723523</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>37516103.770784</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>44208877.4123064</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>73528031.218357</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>121852155.94781</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>165567564.967884</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>225962331.265374</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>238105487.449033</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>257485566.56269</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>136025814.792284</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>340322655.199885</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>233485442.845833</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>178293643.397032</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>138984010.856062</v>
+      </c>
+      <c r="AM17" s="13" t="n">
+        <v>99710887.0184559</v>
+      </c>
+      <c r="AN17" s="13" t="n">
+        <v>98157509.269738</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>48412540.9241364</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>45410204.5705019</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>46191531.5434062</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>58380446.0069988</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>84117111.5024608</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>145572268.053956</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>188369959.39784</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>36547864.5822118</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>28682218.1085</v>
+      </c>
+      <c r="AX17" s="13" t="n">
+        <v>32297627.6534583</v>
+      </c>
+      <c r="AY17" s="13" t="n">
+        <v>5527180.72970347</v>
+      </c>
+      <c r="AZ17" s="13"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>198937302.031666</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>345236148.706423</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>429888429.514639</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>713682463.04305</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>714509665.468279</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>1840953946.05596</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>1516228663.49856</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>1541593893.81379</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>1411067175.57823</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>4861332268.61663</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>5909600217.91149</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>4345461188.49572</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>1259226947.16744</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>728531557.395997</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>415311402.852436</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>478149253.970001</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>727292126.722091</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>534149254.20292</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>516993045.704623</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>669875341.860163</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>379472205.277806</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>253159559.718737</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>122871394.476</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>159085432.015856</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13" t="n">
+        <v>19824774.9271703</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>27554015.3539215</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>21943780.6229147</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>206995035.325177</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>359223178.822948</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>447327726.297063</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>742575736.772876</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>743454291.494592</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>1915394686.43889</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>1577650812.33693</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>1603877516.60741</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>1468213878.37256</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>5057889768.23581</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>6148713002.21513</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>4518920731.70108</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>1310526835.19647</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>758220963.251654</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>432759748.063246</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>498791875.367641</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>761605028.059454</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>557904222.603327</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>540286049.753707</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>701146319.666474</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>398403447.098237</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>264901245.949581</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>128111936.716022</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>240471910.5197</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>299909674.024517</v>
+      </c>
+      <c r="AY18" s="13" t="n">
+        <v>256639858.205669</v>
+      </c>
+      <c r="AZ18" s="13"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>897025031.259933</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>1404901251.85699</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>2817050173.97636</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>3961913117.29777</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>5624263640.78609</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>10008715728.066</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>8127736376.85549</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>18332873189.6564</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>27016607233.9403</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>18831976732.888</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>15344334245.9185</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>10815523815.5175</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>6163702302.56003</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>4187883461.50651</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>2160785976.5866</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>2943863139.00245</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>2257000213.39556</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>3983792156.54362</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>6935002775.23422</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>5726574629.69813</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>5315038827.74051</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>5730317498.39395</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>6364576520.164</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>3491972966.46487</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13" t="n">
+        <v>165591.286332477</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <v>342625.916047266</v>
+      </c>
+      <c r="T19" s="13" t="n">
+        <v>145299.252323206</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>613198861.41534</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>792459277.071819</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>1089022163.73144</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>935221674.839638</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>1461924302.91235</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>2931351752.18994</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>4122310277.26689</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>5852101297.32675</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>10413534394.9411</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>8456991836.08264</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>19073559672.0366</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>28111070951.5894</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>19593374958.413</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>15965893307.5221</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>11254132560.1629</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>6413748830.25951</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>4363431827.38498</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>2251175531.71538</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>3064604038.87901</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>2361187606.3389</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>4162097974.45904</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>7224281898.06165</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>6007728983.33408</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>5569817608.46417</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>5944428534.3905</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>6679958591.27677</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>8788622460.6187</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>7472798230.54855</v>
+      </c>
+      <c r="AY19" s="13" t="n">
+        <v>4479826744.82334</v>
+      </c>
+      <c r="AZ19" s="13"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>65</v>
       </c>
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>40568362.4512932</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>2159036.17206823</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>9424111.08394473</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>8223349.38715306</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>3877172.88191311</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>518542.002930841</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>3243270.03452869</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>8550.01285863147</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>307722.691838569</v>
-      </c>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4" t="n">
-        <v>114806.661532684</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>-13482.3838247886</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>13484.5843974271</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>45599.9047042688</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>896916.189520768</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>644373.184318254</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>22809.1991434419</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>261803.465304226</v>
-      </c>
-      <c r="AR20" s="4" t="n">
-        <v>50344.7546716139</v>
-      </c>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13" t="n">
+        <v>29696066.8980895</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>40673310.530567</v>
+      </c>
+      <c r="Y20" s="13" t="n">
+        <v>25212986.1501674</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <v>40012405.8491835</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>2142166.82210608</v>
+      </c>
+      <c r="AB20" s="13" t="n">
+        <v>9666294.10269197</v>
+      </c>
+      <c r="AC20" s="13" t="n">
+        <v>8466918.84372106</v>
+      </c>
+      <c r="AD20" s="13" t="n">
+        <v>4034236.28431339</v>
+      </c>
+      <c r="AE20" s="13" t="n">
+        <v>66397.248097898</v>
+      </c>
+      <c r="AF20" s="13" t="n">
+        <v>3255048.7023076</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
+        <v>54913.8580880796</v>
+      </c>
+      <c r="AK20" s="13" t="n">
+        <v>1800025.38356781</v>
+      </c>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13" t="n">
+        <v>52649.5726981567</v>
+      </c>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>8496761048.00178</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>12481647125.4824</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>7801467311.04532</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>8042332737.85858</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>6479188748.05532</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>5432109078.79528</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>6329626008.39484</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>6175858018.88923</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>4682923414.73451</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>5785017364.18835</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="13" t="n">
+        <v>8841971466.65252</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>12987736573.8266</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>8117503923.54916</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>8368380135.38311</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>6741593612.09646</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>5651948005.26484</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>6585567405.01113</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>6425690821.59997</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>4872115690.78104</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>6019225868.8204</v>
+      </c>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="4" t="n">
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AY21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8927,6 +9397,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>60</v>
       </c>
@@ -9035,115 +9511,177 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>5737000</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>9278000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>2638000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>-5573000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>672000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>219000</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>671993186</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>601007258</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>1057202492</v>
+      </c>
       <c r="Y2" s="5" t="n">
-        <v>2567960782</v>
+        <v>2567053933</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>2039148182.7969</v>
+        <v>2039148176.8</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>2458932140.9917</v>
+        <v>2458932139.99</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>6164126778.125</v>
+        <v>6164126681.21</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>3756314888.1182</v>
+        <v>3756314887.29</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>6393170389.22</v>
+        <v>6393170370.07</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>8563835464.208</v>
+        <v>8563835455.88</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>12917488185.2072</v>
+        <v>12917488183.77</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>17694784367.1524</v>
+        <v>17694784391.04</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>9980548003.375</v>
+        <v>9980547947.37</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>8201568872.0863</v>
+        <v>8200598168.8238</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>6128335341.3711</v>
+        <v>6127439826.4516</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>3632894190.242</v>
+        <v>3630730752.3167</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>2784852680.752</v>
+        <v>2786384860.3542</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>2906630361.1316</v>
+        <v>2908209773.9275</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>3900560170.0003</v>
+        <v>3898799756.1311</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>4232566764.82</v>
+        <v>4225888919.115</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>3766849635.7367</v>
+        <v>3772309202.0111</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>5162977225.3893</v>
+        <v>5163455534.9</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>6261437086.375</v>
+        <v>6260981165.43</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>5759005401.1018</v>
+        <v>5759093412.22</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>3354601889.87</v>
+        <v>3390775312.78</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>3653281351.1445</v>
+        <v>3693970710.99</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>2240346193.4822</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>4649519417.58</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>4737836216.76</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>1594231607.68</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>235000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>292000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>884000</v>
+      </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="T3" s="5" t="n">
+        <v>243000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>1221000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>8514815</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>42803630</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>68504175</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>102774117</v>
       </c>
@@ -9151,89 +9689,107 @@
         <v>120885561</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>183530727.7793</v>
+        <v>183530727.78</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>326891545.5003</v>
+        <v>326891545.5</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>418175853.9423</v>
+        <v>418175853.94</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>509943877.3732</v>
+        <v>509943877.34</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>504282143.5415</v>
+        <v>504264516.51</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>494436783.3608</v>
+        <v>494436785.25</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>638209522.533</v>
+        <v>638293953.77</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>651894974.3977</v>
+        <v>651894974.89</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>695410487.1099</v>
+        <v>692100808.9208</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>733786807.2216</v>
+        <v>732790835.2834</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>598610129.3638</v>
+        <v>593749315.1256</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>482406806.3622</v>
+        <v>477678382.6022</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>508077877.5637</v>
+        <v>506735211.3537</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>587183609.9264</v>
+        <v>589654540.5028</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>526678612.7845</v>
+        <v>526295077.4845</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>525878228.1736</v>
+        <v>525474084.487</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>878190321.8045</v>
+        <v>878119428.16</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>784805190.8353</v>
+        <v>785223956.28</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>589091254.3553</v>
+        <v>589746121.93</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>409348770.4257</v>
+        <v>409678101.77</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>461326793.3857</v>
+        <v>461544997.49</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>212852961.781</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>543765155.25</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>673213541.72</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>351852758.51</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>98000</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="V4" s="5" t="n">
+        <v>495378</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>204268</v>
+      </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
@@ -9249,47 +9805,59 @@
         <v>21226070.5736</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>759941264.3133</v>
+        <v>759941264.7233</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>604490429.72</v>
+        <v>604487924.1251</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>114768722.4538</v>
+        <v>114837584.7538</v>
       </c>
       <c r="AM4" s="5" t="n">
         <v>209831912.8197</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>118706724.218</v>
+        <v>118711632.3364</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>47904950.322</v>
+        <v>47900237.6385</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>56542700.0405</v>
+        <v>56920411.7879</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>73269034.2496</v>
+        <v>73266797.563</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>79529681.0209</v>
+        <v>79637531.1846</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>119588151.14</v>
+        <v>122401536.8601</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>159828626.3764</v>
+        <v>164283184.9282</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>119364319.9636</v>
+        <v>119939124.7293</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>124831577.0079</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>283475400.6124</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>288369839.4532</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>121316276.71</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>65</v>
       </c>
@@ -9300,87 +9868,111 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="S5" s="5" t="n">
+        <v>136000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>498000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>1377000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>2469531</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>2513449</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>4466020</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>22115873</v>
+        <v>22315428</v>
       </c>
       <c r="Z5" s="5" t="n">
         <v>26933843</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>45428040.3301</v>
+        <v>45501003.3301</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>76796251</v>
+        <v>76852605</v>
       </c>
       <c r="AC5" s="5" t="n">
         <v>106973980.8999</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>150193947.3984</v>
+        <v>150437934.3984</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>163591306.5192</v>
+        <v>163671921.5192</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>181859904.7916</v>
+        <v>181866187.7916</v>
       </c>
       <c r="AG5" s="5" t="n">
         <v>98071860.1189</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>247874885.6545</v>
+        <v>247874885.6489</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>171444761.0126</v>
+        <v>171532518.4082</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>133624853.5705</v>
+        <v>133614340.0305</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>106034763.9892</v>
+        <v>106045471.9929</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>77304620.1385</v>
+        <v>77460337.6685</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>76913865.8155</v>
+        <v>77644704.6359</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>38154734.6105</v>
+        <v>38691959.4711</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>36755260.8908</v>
+        <v>36582612.5629</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>38105230.3268</v>
+        <v>37840199.504</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>48732607.2898</v>
+        <v>48887107.339</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>71724630.559</v>
+        <v>71741070.4917</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>125740590.5561</v>
+        <v>125776252.2645</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>168266427.6754</v>
+        <v>168355554.7664</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>34947229.9748</v>
+        <v>34949063.9193</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>5200679.0326</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>28682218.1085</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>33160167.71</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>5799306.2</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
@@ -9394,9 +9986,15 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>11269281</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>15859303</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>12786607</v>
+      </c>
       <c r="Y6" s="5" t="n">
         <v>123125334</v>
       </c>
@@ -9428,50 +10026,62 @@
         <v>3683927087.3396</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>4517256548.8732</v>
+        <v>4517216205.7898</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>3388583251.8504</v>
+        <v>3386506662.337</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>999941989.5241</v>
+        <v>999938309.0311</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>589107984.7742</v>
+        <v>589023461.7002</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>342327670.9851</v>
+        <v>342322284.5268</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>398641230.4256</v>
+        <v>398641233.4044</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>611380485.1311</v>
+        <v>613551555.8887</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>457036306.7709</v>
+        <v>457036309.0818</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>452743532.8054</v>
+        <v>452429262.101</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>598116282.2647</v>
+        <v>597987575.2476</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>343342039.5915</v>
+        <v>344225539.2126</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>236755350.8714</v>
+        <v>236755352.938</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>122871394.476</v>
+        <v>122507629.8245</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>166791468.1403</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>240471910.5197</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>307919058.1801</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>269275276.79</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
@@ -9480,22 +10090,36 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="Q7" s="5" t="n">
+        <v>85000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>180000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>78000</v>
+      </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="U7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>348569419</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>456116890</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>634571529</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>555182489.419</v>
+        <v>556291028.419</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>890600070.4609</v>
+        <v>890663639.4609</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>1813980771.9258</v>
+        <v>1813994521.9258</v>
       </c>
       <c r="AB7" s="5" t="n">
         <v>2599956323.8087</v>
@@ -9504,65 +10128,77 @@
         <v>3781070117.9663</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>6932901396.4107</v>
+        <v>6932972391.4107</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>5813270990.5446</v>
+        <v>5813272591.5446</v>
       </c>
       <c r="AF7" s="5" t="n">
         <v>13471961288.8451</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>20267282509.6863</v>
+        <v>20267513356.6863</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>14270908747.0331</v>
+        <v>14270885299.8344</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>11729100413.6606</v>
+        <v>11729510218.2631</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>8433927095.7656</v>
+        <v>8433915343.2038</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>4894546417.6416</v>
+        <v>4893721355.1361</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>3386422401.928</v>
+        <v>3389729174.5099</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>1781065546.9168</v>
+        <v>1780728347.1637</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>2454349168.576</v>
+        <v>2449273122.2905</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>1897292483.5938</v>
+        <v>1902180626.7556</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>3408668344.743</v>
+        <v>3409599388.5963</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>6073152593.7559</v>
+        <v>6049529744.1783</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>5113126747.0081</v>
+        <v>5123819646.087</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>4808985338.6982</v>
+        <v>4812391769.0819</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>5359004935.2435</v>
+        <v>5312829959.0641</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>6364576520.164</v>
+        <v>6387741184.1576</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>3661122771.599</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>8788622460.6187</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>7672366690.42</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>4700386740.85</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>65</v>
       </c>
@@ -9575,62 +10211,60 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>16880561</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>23410394</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>14691568</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>25108379</v>
+        <v>23800285</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>1368664</v>
+        <v>1305095</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>6068460</v>
+        <v>5981747</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>5396471</v>
+        <v>5340117</v>
       </c>
       <c r="AC8" s="5" t="n">
         <v>2606539</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>359187</v>
+        <v>44205</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>2319712</v>
+        <v>2237496</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>6283</v>
-      </c>
-      <c r="AG8" s="5" t="n">
-        <v>230847</v>
-      </c>
-      <c r="AH8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AI8" s="5" t="n">
-        <v>87757.3989</v>
+        <v>40343.0392</v>
       </c>
       <c r="AJ8" s="5" t="n">
-        <v>-10513.54</v>
-      </c>
-      <c r="AK8" s="5" t="n">
-        <v>10708</v>
-      </c>
+        <v>1348949.963</v>
+      </c>
+      <c r="AK8" s="5"/>
       <c r="AL8" s="5" t="n">
-        <v>36873.17</v>
-      </c>
-      <c r="AM8" s="5" t="n">
-        <v>739298.8204</v>
-      </c>
-      <c r="AN8" s="5" t="n">
-        <v>537224.9709</v>
-      </c>
-      <c r="AO8" s="5" t="n">
-        <v>19174</v>
-      </c>
-      <c r="AP8" s="5" t="n">
-        <v>224007.9677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
       <c r="AQ8" s="5" t="n">
         <v>44088.1406</v>
       </c>
@@ -9640,8 +10274,16 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9674,67 +10316,172 @@
       <c r="X9" s="5" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
       <c r="AP9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" s="5"/>
+      <c r="AQ9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AR9" s="5"/>
-      <c r="AS9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
       <c r="AU9" s="5"/>
-      <c r="AV9" s="5" t="n">
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>60</v>
       </c>
@@ -9843,205 +10590,285 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>62</v>
       </c>
       <c r="N14" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>11865733.4738513</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>18527162.7675869</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>5139174.27464792</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>-10608079.0562856</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>1251808.94309223</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>399481.919013293</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>2255913.75706161</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>1182161813.61012</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>1044192371.80539</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>1814321778.90872</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>4149131402.10614</v>
+        <v>4315662766.38867</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>3216709643.02831</v>
+        <v>3347032644.90252</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>3818637618.8667</v>
+        <v>3973548403.78657</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>9393132690.4616</v>
+        <v>9773411397.58187</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>5587440748.11018</v>
+        <v>5813786716.25933</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>9229530519.49064</v>
+        <v>9602735418.927</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>11973396241.3006</v>
+        <v>12458436344.663</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>17578336795.2796</v>
+        <v>18288538424.6147</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>23587426637.3969</v>
+        <v>24542692077.4917</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>13170390975.985</v>
+        <v>13702907290.9379</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>10729519713.8598</v>
+        <v>11162433297.295</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>7858872394.96704</v>
+        <v>8176394622.79835</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>4574903652.89886</v>
+        <v>4758463636.51631</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>3443940861.54564</v>
+        <v>3586776334.35746</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>3526319474.50018</v>
+        <v>3676524100.14635</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>4678517406.13877</v>
+        <v>4878295266.73863</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>5035019204.47966</v>
+        <v>5245619896.04432</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>4402407191.32165</v>
+        <v>4604857843.77954</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>5895663057.00255</v>
+        <v>6166141820.87818</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>7012653614.59447</v>
+        <v>7341062061.0716</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>6365030283.97865</v>
+        <v>6665521311.51462</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>3587034186.74759</v>
+        <v>3793876649.225</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>3653281351.1445</v>
+        <v>3862957292.00816</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>2136838568.71741</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>4649519417.58</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>4614598796.67128</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>1519424206.40819</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>111687.22461007</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>469269.589392424</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>568854.771871567</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>1682673.94325435</v>
+      </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="T15" s="5" t="n">
+        <v>443260.759453106</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>2186087.85505733</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>14979153.5876596</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>74367194.9658554</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>117563681.119922</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>166055229.175393</v>
+        <v>172781110.822642</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>190694209.009487</v>
+        <v>198420067.539819</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>285016950.90836</v>
+        <v>296579242.084725</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>498129868.641082</v>
+        <v>518296544.148199</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>622027938.494663</v>
+        <v>647226150.534669</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>736182878.432177</v>
+        <v>765951139.910599</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>705054405.50208</v>
+        <v>733590388.579753</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>672837952.493271</v>
+        <v>700022017.976293</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>850743359.155035</v>
+        <v>885314656.34779</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>860244516.15223</v>
+        <v>895026650.986623</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>909755273.294742</v>
+        <v>942068975.401385</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>940995647.567588</v>
+        <v>977828785.748653</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>753829735.764003</v>
+        <v>778172417.062003</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>596577522.323331</v>
+        <v>614891913.364016</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>616399298.023597</v>
+        <v>640608608.648833</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>704295952.352876</v>
+        <v>737793457.953891</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>626531624.261676</v>
+        <v>653293066.260021</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>614606452.964551</v>
+        <v>641446215.056503</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>1002815625.80195</v>
+        <v>1048640565.04514</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>878962270.536828</v>
+        <v>920682819.925998</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>651081812.370082</v>
+        <v>682566692.835117</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>437711562.213714</v>
+        <v>458381355.481123</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>461326793.3857</v>
+        <v>482659109.434587</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>203018810.004726</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>543765155.25</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>655702362.300823</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>335342490.887872</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>65</v>
       </c>
       <c r="N16" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="n">
+        <v>202691.629847904</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="V16" s="5" t="n">
+        <v>871462.638465735</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>354896.02590447</v>
+      </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -10054,50 +10881,62 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5" t="n">
-        <v>27768533.8280025</v>
+        <v>28892355.4189302</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>974535675.877678</v>
+        <v>1014058048.14316</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>761234798.001152</v>
+        <v>792246520.573612</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>141930916.352566</v>
+        <v>147824780.829932</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>254567753.24526</v>
+        <v>265267000.811843</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>142382491.558792</v>
+        <v>148535557.185975</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>56987251.061395</v>
+        <v>59458836.8012257</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>66082804.8227513</v>
+        <v>69482746.6828372</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>83666752.64872</v>
+        <v>87494403.9861437</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>89071262.2973336</v>
+        <v>93375789.4121571</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>132172510.806378</v>
+        <v>141666403.738473</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>170902767.498075</v>
+        <v>183813459.066507</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>119364319.9636</v>
+        <v>125425931.259199</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>119064155.85249</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>283475400.6124</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>280868956.472084</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>115623656.297177</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>65</v>
       </c>
@@ -10108,87 +10947,111 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="S17" s="5" t="n">
+        <v>253342.286101999</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>908410.939126119</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>2465391.46307448</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>4344367.33369856</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>4366876.16960838</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>7664375.94723523</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>35733280.5829787</v>
+        <v>37516103.770784</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>42487521.6194819</v>
+        <v>44208877.4123064</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>70548194.8297894</v>
+        <v>73528031.218357</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>117025071.309844</v>
+        <v>121852155.94781</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>159121585.295821</v>
+        <v>165567564.967884</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>216828198.993994</v>
+        <v>225962331.265374</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>228722695.896352</v>
+        <v>238105487.449033</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>247478039.859569</v>
+        <v>257485566.56269</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>130731336.293751</v>
+        <v>136025814.792284</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>327097185.053705</v>
+        <v>340322655.199885</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>224288788.134598</v>
+        <v>233485442.845833</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>171358226.094032</v>
+        <v>178293643.397032</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>133529578.266122</v>
+        <v>138984010.856062</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>95600223.9979719</v>
+        <v>99710887.0184559</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>93311783.4696736</v>
+        <v>98157509.269738</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>45764603.6009786</v>
+        <v>48412540.9241364</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>43723691.7298122</v>
+        <v>45410204.5705019</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>44534493.3405773</v>
+        <v>46191531.5434062</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>55648324.5862513</v>
+        <v>58380446.0069988</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>80329800.1411718</v>
+        <v>84117111.5024608</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>138972376.490881</v>
+        <v>145572268.053956</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>179925203.755531</v>
+        <v>188369959.39784</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>34947229.9748</v>
+        <v>36547864.5822118</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>4960399.23325712</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>28682218.1085</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>32297627.6534583</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>5527180.72970347</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
@@ -10202,84 +11065,102 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>19824774.9271703</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>27554015.3539215</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>21943780.6229147</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>198937302.031666</v>
+        <v>206995035.325177</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>345236148.706423</v>
+        <v>359223178.822948</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>429888429.514639</v>
+        <v>447327726.297063</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>713682463.04305</v>
+        <v>742575736.772876</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>714509665.468279</v>
+        <v>743454291.494592</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>1840953946.05596</v>
+        <v>1915394686.43889</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>1516228663.49856</v>
+        <v>1577650812.33693</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>1541593893.81379</v>
+        <v>1603877516.60741</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>1411067175.57823</v>
+        <v>1468213878.37256</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>4861332268.61663</v>
+        <v>5057889768.23581</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>5909600217.91149</v>
+        <v>6148713002.21513</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>4345461188.49572</v>
+        <v>4518920731.70108</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>1259226947.16744</v>
+        <v>1310526835.19647</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>728531557.395997</v>
+        <v>758220963.251654</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>415311402.852436</v>
+        <v>432759748.063246</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>478149253.970001</v>
+        <v>498791875.367641</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>727292126.722091</v>
+        <v>761605028.059454</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>534149254.20292</v>
+        <v>557904222.603327</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>516993045.704623</v>
+        <v>540286049.753707</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>669875341.860163</v>
+        <v>701146319.666474</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>379472205.277806</v>
+        <v>398403447.098237</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>253159559.718737</v>
+        <v>264901245.949581</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>122871394.476</v>
+        <v>128111936.716022</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>159085432.015856</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>240471910.5197</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>299909674.024517</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>256639858.205669</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
@@ -10288,89 +11169,115 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="Q19" s="5" t="n">
+        <v>165591.286332477</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>342625.916047266</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>145299.252323206</v>
+      </c>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="U19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>613198861.41534</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>792459277.071819</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>1089022163.73144</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>897025031.259933</v>
+        <v>935221674.839638</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>1404901251.85699</v>
+        <v>1461924302.91235</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>2817050173.97636</v>
+        <v>2931351752.18994</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>3961913117.29777</v>
+        <v>4122310277.26689</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>5624263640.78609</v>
+        <v>5852101297.32675</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>10008715728.066</v>
+        <v>10413534394.9411</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>8127736376.85549</v>
+        <v>8456991836.08264</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>18332873189.6564</v>
+        <v>19073559672.0366</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>27016607233.9403</v>
+        <v>28111070951.5894</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>18831976732.888</v>
+        <v>19593374958.413</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>15344334245.9185</v>
+        <v>15965893307.5221</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>10815523815.5175</v>
+        <v>11254132560.1629</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>6163702302.56003</v>
+        <v>6413748830.25951</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>4187883461.50651</v>
+        <v>4363431827.38498</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>2160785976.5866</v>
+        <v>2251175531.71538</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>2943863139.00245</v>
+        <v>3064604038.87901</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>2257000213.39556</v>
+        <v>2361187606.3389</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>3983792156.54362</v>
+        <v>4162097974.45904</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>6935002775.23422</v>
+        <v>7224281898.06165</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>5726574629.69813</v>
+        <v>6007728983.33408</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>5315038827.74051</v>
+        <v>5569817608.46417</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>5730317498.39395</v>
+        <v>5944428534.3905</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>6364576520.164</v>
+        <v>6679958591.27677</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>3491972966.46487</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>8788622460.6187</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>7472798230.54855</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>4479826744.82334</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>65</v>
       </c>
@@ -10383,64 +11290,62 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>29696066.8980895</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>40673310.530567</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>25212986.1501674</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>40568362.4512932</v>
+        <v>40012405.8491835</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>2159036.17206823</v>
+        <v>2142166.82210608</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>9424111.08394473</v>
+        <v>9666294.10269197</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>8223349.38715306</v>
+        <v>8466918.84372106</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>3877172.88191311</v>
+        <v>4034236.28431339</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>518542.002930841</v>
+        <v>66397.248097898</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>3243270.03452869</v>
+        <v>3255048.7023076</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>8550.01285863147</v>
-      </c>
-      <c r="AG20" s="5" t="n">
-        <v>307722.691838569</v>
-      </c>
-      <c r="AH20" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AI20" s="5" t="n">
-        <v>114806.661532684</v>
+        <v>54913.8580880796</v>
       </c>
       <c r="AJ20" s="5" t="n">
-        <v>-13482.3838247886</v>
-      </c>
-      <c r="AK20" s="5" t="n">
-        <v>13484.5843974271</v>
-      </c>
+        <v>1800025.38356781</v>
+      </c>
+      <c r="AK20" s="5"/>
       <c r="AL20" s="5" t="n">
-        <v>45599.9047042688</v>
-      </c>
-      <c r="AM20" s="5" t="n">
-        <v>896916.189520768</v>
-      </c>
-      <c r="AN20" s="5" t="n">
-        <v>644373.184318254</v>
-      </c>
-      <c r="AO20" s="5" t="n">
-        <v>22809.1991434419</v>
-      </c>
-      <c r="AP20" s="5" t="n">
-        <v>261803.465304226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
       <c r="AQ20" s="5" t="n">
-        <v>50344.7546716139</v>
+        <v>52649.5726981567</v>
       </c>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -10448,99 +11353,128 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>8496761048.00178</v>
+        <v>8841971466.65252</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>12481647125.4824</v>
+        <v>12987736573.8266</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>7801467311.04532</v>
+        <v>8117503923.54916</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>8042332737.85858</v>
+        <v>8368380135.38311</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6479188748.05532</v>
+        <v>6741593612.09646</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5432109078.79528</v>
+        <v>5651948005.26484</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>6329626008.39484</v>
+        <v>6585567405.01113</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>6175858018.88923</v>
+        <v>6425690821.59997</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>4682923414.73451</v>
+        <v>4872115690.78104</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>5785017364.18835</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>6019225868.8204</v>
+      </c>
+      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
       <c r="AP21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" s="5"/>
+      <c r="AQ21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AR21" s="5"/>
-      <c r="AS21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="5" t="n">
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -702,15 +702,15 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -751,8 +751,8 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -699,18 +699,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -748,11 +748,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,6 +1166,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1175,109 +1181,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>3597409000</v>
+        <v>3602948000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>5768448183</v>
+        <v>5777698183</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>3439853184</v>
+        <v>3442831184</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>3666795123</v>
+        <v>3665247123</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2930131504</v>
+        <v>2931017504</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>2309272172</v>
+        <v>2310002172</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>2623635564</v>
+        <v>2626867564</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>2737327075</v>
+        <v>3718677532</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>2121719228</v>
+        <v>3193060830</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2777452514</v>
+        <v>4467990376</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>2782364582.4375</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>2367420112.2609</v>
+        <v>2367420111.2609</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>4062575745.7449</v>
+        <v>4062575748.7451</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>8793972678.5119</v>
+        <v>8793972666.5569</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>7076340884.6739</v>
+        <v>7076340883.8406</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>11400322123.5642</v>
+        <v>11400322123.6242</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>10972473001.7521</v>
+        <v>10972455372.4823</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>23071480003.5654</v>
+        <v>23071480008.9941</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>34807076732.2012</v>
+        <v>34807161148.0298</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>23567125595.7303</v>
+        <v>23567102142.5534</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>22479997339</v>
+        <v>22476126762.142</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>17376702346.8245</v>
+        <v>17374071467.41</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>9856459006.7874</v>
+        <v>9848603507.6286</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>6215287777.4871</v>
+        <v>6212108763.0076</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>4946270470.6479</v>
+        <v>4944632169.5221</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>6334173895.1973</v>
+        <v>6612374145.483</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>6416981325.1237</v>
+        <v>6280467328.1898</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>7123820041.9618</v>
+        <v>7191776612.0129</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>9981535614.8134</v>
+        <v>9981281923.9662</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>10619177679.6977</v>
+        <v>10621480231.6057</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>9555270529.3331</v>
+        <v>9559025186.2797</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>7275497608.7232</v>
+        <v>7313889351.1837</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>8631394107.3559</v>
+        <v>8703171599.1497</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>11149252714.0137</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>11273038492.4866</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>10131310503.3732</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>5274179168.6</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1287,40 +1299,40 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>351754000</v>
+        <v>352050000</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>484665000</v>
+        <v>484900000</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>443671830</v>
+        <v>443708830</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>429638209</v>
+        <v>429785209</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>349171791</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>382403570</v>
+        <v>382445570</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>531758374</v>
+        <v>531892374</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>411854162</v>
+        <v>467218066</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>324163518</v>
+        <v>346932977</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>326263181</v>
+        <v>373599515</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>210356234</v>
+        <v>209449385</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>412702575</v>
+        <v>412702576</v>
       </c>
       <c r="Z3" s="1" t="n">
         <v>390143838.8008</v>
@@ -1329,67 +1341,73 @@
         <v>241577284</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>493484354</v>
+        <v>493484353</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>1036489709.5125</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>3459369344.1969</v>
+        <v>3459369344.2169</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>3481653834.4118</v>
+        <v>3481653834.3848</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>3339866551.2625</v>
+        <v>3339866551.2595</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>3310468757.179</v>
+        <v>3310468756.0942</v>
       </c>
       <c r="AH3" s="1" t="n">
         <v>1802932763.3673</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>1223600957.4111</v>
+        <v>1223600957.4361</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>161307879.1099</v>
+        <v>161307877.3427</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>222606754.8022</v>
+        <v>222817682.8022</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>210078790.2694</v>
+        <v>210582720.2094</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>131502972.6195</v>
+        <v>131502971.9972</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>109397194.3049</v>
+        <v>109397196.0009</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>17457287.2686</v>
+        <v>17479270.992</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>283621430.7437</v>
+        <v>283621435.0905</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>123414841.8673</v>
+        <v>123414837.7078</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>379370983.2401</v>
+        <v>379370984.1182</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>468449786.6911</v>
+        <v>468449792.8695</v>
       </c>
       <c r="AT3" s="1" t="n">
         <v>481766303.0172</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>401635971.7469</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>401635965.2288</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>406149124.6</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>181318186.61</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1399,34 +1417,34 @@
         <v>37</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>325869000</v>
+        <v>325923000</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>250862706</v>
+        <v>250890706</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>283287436</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>299931198</v>
+        <v>296823198</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>339740116</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>406778917</v>
+        <v>406966917</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>522856130</v>
+        <v>523348130</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>503466309</v>
+        <v>526944119</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>358367669</v>
+        <v>406171800</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>403677901</v>
+        <v>458026096</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>403546157.9815</v>
@@ -1435,73 +1453,79 @@
         <v>517666973</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>332038250.7998</v>
+        <v>332038250.8003</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>605962582.9618</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>975665449.7646</v>
+        <v>975665449.7647</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>2824960730.4912</v>
+        <v>2824960730.4741</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>1699922569.2165</v>
+        <v>1699922569.2209</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>1645463031.291</v>
+        <v>1645463031.284</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>1610188361.7914</v>
+        <v>1610188360.7929</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>1957559296.4332</v>
+        <v>1957559296.4353</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>1053164808.3478</v>
+        <v>1053164808.3092</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>977884796.3169</v>
+        <v>977884797.1465</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>818761742.5834</v>
+        <v>818761742.7562</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>997005557.2894</v>
+        <v>1000187355.779</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>669237273.1355</v>
+        <v>670257344.6958</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>1032455994.9109</v>
+        <v>749895126.6561</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>826219212.1136</v>
+        <v>962534505.2545</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>1112027124.5288</v>
+        <v>1049923712.4632</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>2423940471.8019</v>
+        <v>2400828603.3252</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>2166069427.2582</v>
+        <v>2174495875.4074</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>1810170983.0323</v>
+        <v>1815238461.1712</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>1944954332.0265</v>
+        <v>1900338322.1935</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>1638119800.9844</v>
+        <v>1635714808.9438</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>2928877184.391</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>2859862104.9739</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>3175405886.2701</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>1587364611.53</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1548,6 +1572,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1658,8 +1684,16 @@
       <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="1" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1770,6 +1804,12 @@
       <c r="AU9" t="s">
         <v>34</v>
       </c>
+      <c r="AV9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1779,109 +1819,115 @@
         <v>35</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>7149963945.28299</v>
+        <v>7451912269.15559</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>11070110946.0765</v>
+        <v>11537438527.5309</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>6440391184.33832</v>
+        <v>6707092286.87204</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>6707720949.77372</v>
+        <v>6976714739.20824</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>5245826842.89863</v>
+        <v>5459931434.326</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>4048540227.78537</v>
+        <v>4213717354.31706</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>4514818621.74578</v>
+        <v>4703164028.25915</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>4628243802.21801</v>
+        <v>6541849928.0145</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>3543138872.03031</v>
+        <v>5547636433.69607</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>4581068700.13758</v>
+        <v>7667757414.94505</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>4495550065.25772</v>
+        <v>4677637301.10305</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>3734551107.39605</v>
+        <v>3885854145.73635</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>6309041357.25366</v>
+        <v>6564980431.60872</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>13400592690.3863</v>
+        <v>13943112647.4642</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>10525910788.6859</v>
+        <v>10952313068.6938</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>16458128685.0854</v>
+        <v>17123628920.6703</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>15340996162.9968</v>
+        <v>15962431495.4425</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>31396060910.0976</v>
+        <v>32664527550.1288</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>46398382249.1285</v>
+        <v>48277583906.6055</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>31099320214.7769</v>
+        <v>32356722043.56</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>29408955576.4421</v>
+        <v>30593898225.3463</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>22283585799.7394</v>
+        <v>23183787772.0148</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>12412238824.8791</v>
+        <v>12907655471.7296</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>7686253456.45678</v>
+        <v>7996542406.84393</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>6000807711.92396</v>
+        <v>6250944997.36047</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>7597509468.02804</v>
+        <v>8273600983.24832</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>7633576976.34787</v>
+        <v>7795979734.39117</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>8325778731.61649</v>
+        <v>8779001711.97059</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>11398030285.1275</v>
+        <v>11919537116.443</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>11893214562.7716</v>
+        <v>12453790148.9291</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>10560779519.1819</v>
+        <v>11063527110.2316</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>7779599339.90909</v>
+        <v>8183377388.61306</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>8631394107.3559</v>
+        <v>9101312063.06271</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>10634139170.5411</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>11273038492.4866</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>9867781645.17065</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>5026694652.8344</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1891,109 +1937,115 @@
         <v>36</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>699122178.659439</v>
+        <v>728138655.999538</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>930110690.339913</v>
+        <v>968292867.644198</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>830680842.997063</v>
+        <v>864403716.667979</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>785943342.527065</v>
+        <v>818086394.095505</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>625123736.429677</v>
+        <v>650441027.751982</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>670417396.080646</v>
+        <v>697625982.747638</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>915063296.955848</v>
+        <v>952304225.224414</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>696358681.468196</v>
+        <v>821924042.923218</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>541332871.174742</v>
+        <v>602762717.5696</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>538131269.194552</v>
+        <v>641154123.059177</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>339878888.430075</v>
+        <v>352120732.902227</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>651028877.599397</v>
+        <v>677404913.59243</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>605880054.5073</v>
+        <v>630458808.806487</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>368124726.387208</v>
+        <v>383028172.999684</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>734047775.604818</v>
+        <v>763783884.535592</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>1496333246.9934</v>
+        <v>1556838918.5255</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>4836664608.53802</v>
+        <v>5032597016.7973</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>4737893530.7217</v>
+        <v>4929314354.73317</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>4452094788.04617</v>
+        <v>4632399838.05523</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>4368514417.35332</v>
+        <v>4545145887.1313</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>2358646611.27845</v>
+        <v>2454103505.16927</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>1569124933.77066</v>
+        <v>1632760920.08971</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>203135012.124339</v>
+        <v>211411344.156846</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>275290863.39761</v>
+        <v>286822255.935494</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>254867264.586755</v>
+        <v>266216162.556483</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>157730920.571666</v>
+        <v>164540465.266827</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>130137811.131442</v>
+        <v>135795360.194645</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>20402748.8337006</v>
+        <v>21336946.1040332</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>323870572.813491</v>
+        <v>338697598.999057</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>138221549.618153</v>
+        <v>144705112.334868</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>419292504.348757</v>
+        <v>439080459.130003</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>500907545.753725</v>
+        <v>524139928.647993</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>481766303.0172</v>
+        <v>503805470.830421</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>383079738.975123</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>401635965.2288</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>395584645.796378</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>172810048.721961</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2003,109 +2055,115 @@
         <v>37</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>647674924.05935</v>
+        <v>674100653.8257</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>481425489.066053</v>
+        <v>501001611.008491</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>530395283.709936</v>
+        <v>551881540.34199</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>548668445.557799</v>
+        <v>564996222.882384</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>608238168.727015</v>
+        <v>632871600.499989</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>713151454.929266</v>
+        <v>742355821.817734</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>899744089.693218</v>
+        <v>937006544.602754</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>851255535.203015</v>
+        <v>926993351.072801</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>598451671.529458</v>
+        <v>705684481.43843</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>665817394.856219</v>
+        <v>786043097.296576</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>652021653.919607</v>
+        <v>678431062.990822</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>816607815.937342</v>
+        <v>849692179.083272</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>515644061.204328</v>
+        <v>536562209.264132</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>923389013.901234</v>
+        <v>960772210.097485</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>1451282188.23768</v>
+        <v>1510073303.63816</v>
       </c>
       <c r="AC12" s="1" t="n">
-        <v>4078267853.20705</v>
+        <v>4243176529.5353</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>2376720873.00445</v>
+        <v>2473001405.57386</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>2239173973.57007</v>
+        <v>2329641292.93577</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>2146406481.59857</v>
+        <v>2233333633.93294</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>2583206982.6207</v>
+        <v>2687653393.08201</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>1377779391.88806</v>
+        <v>1433539564.04085</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>1254022732.6257</v>
+        <v>1304879725.23022</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>1031066662.23855</v>
+        <v>1073075434.57749</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>1232965823.17232</v>
+        <v>1287492043.42707</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>811917628.356549</v>
+        <v>847331338.738441</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>1238376831.20848</v>
+        <v>938291288.534134</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>982862133.37002</v>
+        <v>1194799543.48861</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>1299652676.21118</v>
+        <v>1281641876.05003</v>
       </c>
       <c r="AP12" s="1" t="n">
-        <v>2767925494.94507</v>
+        <v>2867043117.8625</v>
       </c>
       <c r="AQ12" s="1" t="n">
-        <v>2425943819.12393</v>
+        <v>2549617823.64883</v>
       </c>
       <c r="AR12" s="1" t="n">
-        <v>2000656766.87431</v>
+        <v>2100940162.34294</v>
       </c>
       <c r="AS12" s="1" t="n">
-        <v>2079715539.93021</v>
+        <v>2126253886.2495</v>
       </c>
       <c r="AT12" s="1" t="n">
-        <v>1638119800.9844</v>
+        <v>1710543191.38382</v>
       </c>
       <c r="AU12" s="1" t="n">
-        <v>2793558312.03722</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+        <v>2859862104.9739</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>3092809356.70368</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>1512879435.79559</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2152,6 +2210,8 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2193,6 +2253,8 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,6 +3894,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3846,109 +3914,115 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="13" t="n">
         <v>342933000</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="13" t="n">
         <v>159735000</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="13" t="n">
         <v>192066344</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="13" t="n">
         <v>145208659</v>
       </c>
-      <c r="S2" s="2" t="n">
-        <v>1265007231</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>179269474</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>126735321</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>107260449</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>147911366</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>164227243</v>
-      </c>
-      <c r="Y2" s="2" t="n">
+      <c r="S2" s="13" t="n">
+        <v>1265040231</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>179400474</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>127505321</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>118638031</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>171231096</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>248227020</v>
+      </c>
+      <c r="Y2" s="13" t="n">
         <v>238117034</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="13" t="n">
         <v>177784077.4609</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <v>196249384.8096</v>
-      </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AA2" s="13" t="n">
+        <v>196249384.8101</v>
+      </c>
+      <c r="AB2" s="13" t="n">
         <v>219867374</v>
       </c>
-      <c r="AC2" s="2" t="n">
-        <v>225814986.8999</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>289011539.3101</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>240105396.1779</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>285461942.8499</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>160960417.1483</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>134836446.7276</v>
-      </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AC2" s="13" t="n">
+        <v>225814987.9</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>289011539.31</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>240105396.1712</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>285461942.847</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>160960417.1094</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>134836446.6877</v>
+      </c>
+      <c r="AI2" s="13" t="n">
         <v>123907481.4749</v>
       </c>
-      <c r="AJ2" s="2" t="n">
-        <v>147985947.6319</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>144739721.9579</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>534486156.364</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>154967326.1598</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>218974516.0511</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>251335460.3488</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>292834585.9922</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>927642698.9539</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>961638642.1627</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>749004364.0103</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>819044005.0724</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>726402205.4638</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>831200238.304</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="AJ2" s="13" t="n">
+        <v>148021360.2119</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>144739721.9563</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>534486152.3765</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>154956406.1867</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>218981837.1948</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>251143638.2402</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>294312871.8701</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>903900179.011</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>967445568.1</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>752363764.4293</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>819054116.4404</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>730465272.6062</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>1882861193.0243</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>2059537121.1401</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>964786487.07</v>
+      </c>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3963,109 +4037,115 @@
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>3713769000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>6078720000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>3679541399</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>4043770387</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>224804379</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>2703040938</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>3303607630</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>3229113881</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>2403899910</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>2972163997</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2712425751.419</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>2572935205.7969</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>3624593665.5376</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>8541273987.5003</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>6725253894.6372</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>13179021662.9176</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>14005232443.4122</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>22313185090.754</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>28557815643.1036</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>24060196291.8646</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>20053234934.0584</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>14652100405.0422</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>7378172030.1515</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>5489499760.9968</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>4125718466.8439</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>5530855137.4357</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>5025288638.3715</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>5724492245.6807</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>8708242908.223</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>8946872365.7112</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>8064885011.4485</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>6823902570.1297</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>7670300303.97</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>4294071288.2246</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="O3" s="13" t="n">
+        <v>3719560000</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>6088233000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>3682471399</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>4039011387</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>225537379</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>2703509938</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>3305568630</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>4267497462</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>3491169608</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>4603761396</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>2711518902.419</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>2572935202.8</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>3624593660.5361</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>8541273889.54</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>6725253899.7808</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>13179021648.5024</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>14005214809.6139</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>22313185094.7931</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>28557900087.8699</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>24060172788.1136</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>20053234932.7509</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>14652100404.3176</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>7378169509.5406</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>5493859650.935</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>4126945711.6815</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>5527115659.3221</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>5023810020.4263</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>5684508262.5197</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>8710236958.3654</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>8951929943.5929</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>8068173897.2062</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>6815736343.5701</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>7729694532.2808</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>10147744413.125</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>8707463502</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>4711768808.29</v>
+      </c>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4080,109 +4160,115 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>97984000</v>
-      </c>
-      <c r="P4" s="2" t="n">
+      <c r="O4" s="13" t="n">
+        <v>98082000</v>
+      </c>
+      <c r="P4" s="13" t="n">
         <v>135301000</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>116075591</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>110500696</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>108267925</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>94262022</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>127728993</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>151205367</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>116364741</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>145108422</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Q4" s="13" t="n">
+        <v>116160591</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>110680696</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>108345925</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>94321022</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>128152993</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>151830273</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>137934225</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>200529119</v>
+      </c>
+      <c r="Y4" s="13" t="n">
         <v>162224229</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="13" t="n">
         <v>161889008</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="13" t="n">
         <v>209020593</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="13" t="n">
         <v>363085026</v>
       </c>
-      <c r="AC4" s="2" t="n">
-        <v>586985388.2188</v>
-      </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AC4" s="13" t="n">
+        <v>586985388.22</v>
+      </c>
+      <c r="AD4" s="13" t="n">
         <v>589787570.46</v>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v>540275674.1602</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>744069460.0529</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>1344987616.6357</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>1271439668.7834</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>1440587471.9528</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>1163035555.0505</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>1171136665.0352</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>853350008.7365</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>1006946695.0411</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>1293326802.5601</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>1442092201.2456</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>1767319942.525</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>2314365426.9541</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>2196635688.779</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>1969710831.0909</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>996598746.2033</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>1267695573.5046</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>563295439.7297</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AE4" s="13" t="n">
+        <v>540275674.16</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>744069460.0523</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>1344987616.6622</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>1271439667.2007</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>1436716896.3637</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>1160369264.6548</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>1163283684.2758</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>848636204.1059</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>1005616070.5511</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>1293532635.7167</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>1441417630.7703</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>1765733993.4348</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>2312736456.2264</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>2196527271.7984</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>1970928254.5111</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>998751066.4992</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>1268520376.419</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>1330422297.8676</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>1505278787.07</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>734248695.55</v>
+      </c>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4197,109 +4283,115 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="13" t="n">
         <v>117842000</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="13" t="n">
         <v>123549889</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="13" t="n">
         <v>174336236</v>
       </c>
-      <c r="R5" s="2" t="n">
-        <v>95925364</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>1332159432</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>112371739</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>117368912</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>163579286</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>134634042</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>223992378</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="R5" s="13" t="n">
+        <v>95995364</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>1332201432</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>112672739</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>118071912</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>173353826</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>144364456</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>245031927</v>
+      </c>
+      <c r="Y5" s="13" t="n">
         <v>273490486</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>380130784</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>738750529</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>493945778.7969</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>978108422.2809</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>1175625892.1925</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>1325546674.705</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>4827858196.5653</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>9660511925.3262</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>3265308918.0275</v>
-      </c>
-      <c r="AI5" s="2" t="n">
+      <c r="Z5" s="13" t="n">
+        <v>380130781</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>738750533</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>493945779.7969</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>978108415.281</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>1175625887.445</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>1325546673.1697</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>4827858192.982</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>9660511935.6484</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>3265308920.7498</v>
+      </c>
+      <c r="AI5" s="13" t="n">
         <v>3824480191.978</v>
       </c>
-      <c r="AJ5" s="2" t="n">
-        <v>3707641097.2808</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>2112769129.486</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>534354452.8897</v>
-      </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AJ5" s="13" t="n">
+        <v>3707641097.2612</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>2112769130.1197</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>534947701.1397</v>
+      </c>
+      <c r="AM5" s="13" t="n">
         <v>505578197.8576</v>
       </c>
-      <c r="AN5" s="2" t="n">
-        <v>385986722.4883</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>581201477.4216</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>341470941.6888</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>601002494.9974</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>655272839.4614</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>831056189.8662</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>1015950604.5179</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>1043903741.746</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>704132011.448</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="AN5" s="13" t="n">
+        <v>385991644.2034</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>583357333.2972</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>387787572.1053</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>601002495.4925</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>655248797.8125</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>831036678.1228</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>1017711996.0144</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>1043965182.4338</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>1151328890.5943</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>1423272382.2832</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>634639053.94</v>
+      </c>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4314,109 +4406,115 @@
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="13" t="n">
         <v>2504000</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="13" t="n">
         <v>6670000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="13" t="n">
         <v>4792880</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="13" t="n">
         <v>959424</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="13" t="n">
         <v>688804444</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="13" t="n">
         <v>9510486</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="13" t="n">
         <v>2809212</v>
       </c>
-      <c r="V6" s="2" t="n">
-        <v>1488563</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>1440356</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>1901556</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="V6" s="13" t="n">
+        <v>1520125</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>1466222</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>2066525</v>
+      </c>
+      <c r="Y6" s="13" t="n">
         <v>10009474</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="13" t="n">
         <v>5050591</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="13" t="n">
         <v>16143667</v>
       </c>
-      <c r="AB6" s="2" t="n">
-        <v>23340464.1368</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>29327995.399</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>28325917.9138</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>20604732.8243</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>28022183.9888</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>32856002.7438</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>103372372.3968</v>
-      </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AB6" s="13" t="n">
+        <v>23340464.1818</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>29327995.4235</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>28325917.8934</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>20604732.8053</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>28022183.9885</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>32856002.7923</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>103372372.3311</v>
+      </c>
+      <c r="AI6" s="13" t="n">
         <v>-106115168.749</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>-92574904.4529</v>
       </c>
-      <c r="AK6" s="2" t="n">
-        <v>29711081.8501</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>23209710.5917</v>
-      </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AK6" s="13" t="n">
+        <v>29711081.8351</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>23184093.0317</v>
+      </c>
+      <c r="AM6" s="13" t="n">
         <v>32375848.1504</v>
       </c>
-      <c r="AN6" s="2" t="n">
-        <v>68989684.1925</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>52679954.1547</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>127186737.8725</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>137855874.3067</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>148320081.9487</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>131096379.027</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>32310074.5391</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>48065784.4242</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>18446673.3367</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AN6" s="13" t="n">
+        <v>68150467.6993</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>52670406.7112</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>126836895.5382</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>137855873.2866</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>148239363.4171</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>131132037.2997</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>31423943.7226</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>48007347.3709</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>22179768.0781</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>17313721.75</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>-2581078.11</v>
+      </c>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4431,107 +4529,115 @@
       <c r="N7" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="13" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="13" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="13" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="13" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="13" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4648,6 +4754,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4662,109 +4774,115 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>681590162.710921</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>306544171.998073</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>359603251.225763</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>265632284.158257</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>2264747803.9063</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>314289361.775119</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>218089354.762127</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>181354838.024744</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>247002762.464338</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>270872779.579478</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>384732847.195707</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>280450318.015132</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>304768590.812411</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>335042333.265175</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>335895125.121034</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>417232868.851002</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>335699706.063693</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>388461448.673654</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>214562774.670382</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>177930983.410385</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>162099201.496002</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>189774647.421167</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>182270731.826806</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>660982437.79825</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>188006121.265373</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>262648450.529044</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>298986156.613353</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>342242778.954894</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>1059285863.86671</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>1077011332.52145</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>827822710.297447</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>875793594.321029</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>726402205.4638</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>792797440.280607</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="13" t="n">
+        <v>709282129.577872</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>318973522.815314</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>374170740.754541</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>276401387.821501</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>2356530765.68045</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>327247696.919701</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>228286514.081315</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>208706505.976526</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>297497579.07096</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>425995674.345811</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>400316021.594356</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>291812590.068521</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>317132147.355412</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>348606446.645282</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>349502162.725349</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>434104080.504953</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>349298840.41094</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>404156104.983473</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>223252336.195798</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>185125239.430159</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>168659525.625526</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>197518227.510159</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>189696992.333861</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>688017764.402478</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>195894040.012147</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>273996646.842203</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>311746023.318012</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>359267722.760846</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>1079427654.21857</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>1134339453.90938</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>870778844.318438</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>916424711.216618</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>763881571.388151</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>1882861193.0243</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>2005965821.97016</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>919515041.232278</v>
+      </c>
+      <c r="AY11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4779,109 +4897,115 @@
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>7381233118.36649</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>11665547245.1756</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>6889156228.74662</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>7397327211.11576</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>402468231.937537</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>4738882712.7146</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>5684931799.03603</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>5459751756.70025</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>4014363023.71633</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>4902221510.43137</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>4382547794.3354</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>4058746469.3331</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>5628870147.97638</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>13015520737.6482</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>10003676148.4359</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>19025956645.8648</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>19581202627.8813</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>30364160344.2576</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>38068018656.1897</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>31749979261.2234</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>26234197737.9395</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>18789602883.531</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>9291332035.797</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>6788693946.72496</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>5005315285.5228</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>6633970738.44472</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>5978033238.02501</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>6690350894.2748</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>9944042703.29578</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>10020274254.8107</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>8913559505.40596</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>7296714367.2117</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>7670300303.97</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>4095678235.88836</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="13" t="n">
+        <v>7693098762.4191</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>12157542978.8741</v>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v>7173943245.21135</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>7688166535.53453</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>420133494.09789</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>4931522091.79794</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>5918315672.48279</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>7507326925.86337</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>6065571796.06041</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>7900761328.94892</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>4558533428.96195</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>4223184079.98416</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>5857216683.60343</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>13542451007.1088</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>10408922829.7431</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>19795289448.7769</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>20374407950.4825</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>31590936037.7341</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>39609849588.8578</v>
+      </c>
+      <c r="AH12" s="13" t="n">
+        <v>33033689017.6804</v>
+      </c>
+      <c r="AI12" s="13" t="n">
+        <v>27295923141.6557</v>
+      </c>
+      <c r="AJ12" s="13" t="n">
+        <v>19551616719.4972</v>
+      </c>
+      <c r="AK12" s="13" t="n">
+        <v>9669885681.49817</v>
+      </c>
+      <c r="AL12" s="13" t="n">
+        <v>7071975612.78384</v>
+      </c>
+      <c r="AM12" s="13" t="n">
+        <v>5217235532.66997</v>
+      </c>
+      <c r="AN12" s="13" t="n">
+        <v>6915692994.28296</v>
+      </c>
+      <c r="AO12" s="13" t="n">
+        <v>6236083887.08286</v>
+      </c>
+      <c r="AP12" s="13" t="n">
+        <v>6939079237.39079</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>10401669195.3126</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>10496225998.1128</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>9338029652.84834</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>7626003074.77894</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>8083301735.34787</v>
+      </c>
+      <c r="AV12" s="13" t="n">
+        <v>10147744413.125</v>
+      </c>
+      <c r="AW12" s="13" t="n">
+        <v>8480970797.64962</v>
+      </c>
+      <c r="AX12" s="13" t="n">
+        <v>4490674722.43462</v>
+      </c>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4896,109 +5020,115 @@
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>194746293.016615</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>259653382.261316</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>217326779.081877</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>202140509.262311</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>193832524.722732</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>165257085.174536</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>219799290.742209</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>255656442.765376</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>194321864.896084</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>239338619.400265</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>262110561.595935</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>255376209.305018</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>324601840.872973</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>553282881.727995</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>873128631.216018</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>851449601.711763</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>755378212.635259</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>1012542328.69127</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>1792889705.65214</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>1677799408.8693</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>1884616458.25638</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>1491456897.96841</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>1474812401.99743</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>1055311465.70179</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>1221626178.54326</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>1551277686.76435</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>1715498498.03981</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>2065509053.1153</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>2642800491.35184</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>2460177270.86697</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>2176985124.57997</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>1065650676.43229</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>1267695573.5046</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>537270277.557493</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="13" t="n">
+        <v>202861228.966757</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>270181466.869721</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>226296255.115655</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>210678193.64305</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>201827973.009822</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>172052707.17742</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>229446111.045493</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>267097873.356412</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>239647464.550067</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>344138753.606986</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>272727057.231411</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>265722619.273896</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>337769973.463785</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>575682414.544916</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>908498875.911278</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>885878783.868094</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>785978447.36387</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>1053451159.94349</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>1865499810.24322</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>1745637612.03744</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>1955620333.12707</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>1548385179.56989</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>1524608539.76766</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>1092407691.65644</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>1271287839.00709</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>1618506855.67154</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>1789239884.72022</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>2155431486.19992</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>2761844444.48468</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>2575449852.83483</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>2281134085.45077</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>1117484350.93839</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>1326550863.97137</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>1330422297.8676</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>1466124484.18875</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>699794958.378619</v>
+      </c>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5013,109 +5143,115 @@
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>234214694.865121</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>237102065.445637</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>326407406.765976</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>175477645.227977</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>2384970673.79615</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>197006447.019922</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>201971400.594889</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>276578134.748749</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>224830458.909694</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>369448070.400092</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>441886796.556175</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>599647621.89453</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>1147254336.12794</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>752693513.475071</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>1454916059.35623</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>1697197851.91239</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>1853292912.8443</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>6569831236.71536</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>12877614758.6929</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>4308921222.88777</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>5003290986.7714</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>4754615510.86503</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>2660610164.25408</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>660819564.199986</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>613366690.456599</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>462970835.212068</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>691391480.180031</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>399085250.193201</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>686291659.296513</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>733889262.609347</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>918508917.386023</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>1086343378.46683</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>1043903741.746</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>671599971.427634</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="13" t="n">
+        <v>243730480.046293</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>246715768.853232</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>339630136.160026</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>182724997.37106</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>2481639384.78851</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>205528410.94157</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>211396865.558229</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>304961832.366576</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>250819373.15811</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>420512404.244383</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>459784927.857899</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>623941971.365664</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>1193795043.57146</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>783166142.378316</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>1513854371.22517</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>1765825669.47171</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>1928369471.20763</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>6835266176.73849</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>13399144318.9106</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>4483143175.43034</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>5205779403.029</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>4947439320.42302</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>2769011464.59671</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>688611893.449241</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>639145925.990676</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>482964329.716345</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>724124768.212791</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>473372289.359875</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>717710571.314182</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>768285666.908528</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>961834145.097251</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>1138699389.12278</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>1091723034.53496</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>1151328890.5943</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>1386251175.03766</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>604859379.42963</v>
+      </c>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5130,109 +5266,115 @@
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>4976779.04263558</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>12800260.6017914</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>8973645.22508396</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>1755088.09427303</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1233169513.69261</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>16673472.1111036</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>4834163.25958589</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>2516846.65010704</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>2405304.74806165</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>3136384.37714036</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>16172607.9241832</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>7967191.84498332</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>25070563.3900879</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>35567094.0240802</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>43624786.9078019</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>40892844.7017193</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>28808193.663059</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>38133062.777523</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>43797569.8509296</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>136410802.304702</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>-138822804.854692</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>-118716473.649896</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>37415165.3666921</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>28702728.6017226</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>39278329.0792327</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>82749508.8580066</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>62667547.9911308</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>148646180.123176</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>157419207.922133</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>166114798.319672</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>144891758.994905</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>34548761.895739</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>48065784.4242</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>17594407.1345172</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="13" t="n">
+        <v>5178977.97080768</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>13319268.7712658</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>9337166.64043766</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>1826241.8159874</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>1283112445.0013</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>17348252.0457948</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>5029634.91849411</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>2674184.44762934</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>2547419.86455884</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>3546474.15469708</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>16827661.3504775</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>8289977.71980397</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>26087601.6852473</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>37007019.884036</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>45392017.2626079</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>42546386.109462</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>29975208.3486569</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>39673718.3982262</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>45571324.386238</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>141926279.194986</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>-144441108.880939</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>-123531029.665468</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>38939572.2675586</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>29843743.9144974</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>40929160.9755079</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>85271910.5362383</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>65380074.7405539</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>154829798.413224</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>164625967.974497</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>173812113.147275</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>151771003.989767</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>35159677.4538236</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>50203520.0345931</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>22179768.0781</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>16863368.8245325</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>-2459964.12320002</v>
+      </c>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5241,41 +5383,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,6 +5556,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5424,94 +5574,114 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>501000</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>-52000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1523000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>-1264000</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>27611704</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>572951</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>650473</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>2093456735.9815</v>
+        <v>30955836</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>2343488075</v>
+        <v>1150507</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>3835139134.8448</v>
+        <v>8264374</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>8700836390.8537</v>
+        <v>2908169</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>6759772953.4385</v>
+        <v>20655709</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>11117816196.0198</v>
+        <v>30330308.9477</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>9604689269.2526</v>
+        <v>111052629</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>20152059892.8297</v>
+        <v>28066851.72</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>28767470702.0476</v>
+        <v>86722462</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>19557716669.1172</v>
+        <v>372286357.062</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>16235343814.0836</v>
+        <v>363479757.816</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>12428436251.991</v>
+        <v>400838494.7949</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>6519820010.5957</v>
+        <v>644408586.0927</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>4621227533.9046</v>
+        <v>626608695.63</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>3587679208.2345</v>
+        <v>591645419.0541</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>5338394558.6023</v>
+        <v>1122803503.3306</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>5006344883.5449</v>
+        <v>966273999.7906</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>6050990172.1041</v>
+        <v>1100211618.3814</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>7469821294.3635</v>
+        <v>3245654685.2981</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>7831255776.9281</v>
+        <v>3226424353.4857</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>7852947830.3223</v>
+        <v>2113491732.8376</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>5870053002.1311</v>
+        <v>1894610249.1257</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>5893384224.6054</v>
+        <v>2219226654.0418</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>8650053026.656</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>2786095857.4864</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>1204401660.54</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>184018998.25</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5523,11 +5693,9 @@
       <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5539,79 +5707,59 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>84160718</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>80387605</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="n">
-        <v>79689745</v>
+        <v>13216.3203</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>135933144</v>
+        <v>114874</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>163198600</v>
+        <v>234500</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>196189849.1371</v>
+        <v>13451884.2</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>108484498.0493</v>
+        <v>54597604</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>101211759.8302</v>
+        <v>436281795.5375</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>190127628.4595</v>
+        <v>168328364.2318</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>371482126.3623</v>
+        <v>813187518.8129</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>11302768.5422</v>
+        <v>-224809337.3082</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>52871985.3049</v>
+        <v>-783130.3124</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>83384355.8596</v>
+        <v>-673666.0691</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>77168108.3885</v>
+        <v>-150418.03</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>56985068.2196</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>68701439.3897</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>69171381.6357</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>103154932.7858</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>93183548.2283</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>59221283.6536</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>63356169.8832</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>43816364.2871</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>54082670.4924</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>76340437.4977</v>
-      </c>
+        <v>-264049.56</v>
+      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5623,95 +5771,119 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>4487000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>9330000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1370000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>-464000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>672000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>454000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>2170000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>839671120</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>954232986</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1589393841</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>91304644</v>
+        <v>2093456735.9815</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>32940794</v>
+        <v>2343488075</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>54237461</v>
+        <v>3835139136.8451</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>59654793</v>
+        <v>8700836379.8987</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>135335517</v>
+        <v>6759772952.5553</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>320771590.6533</v>
+        <v>11117816197.0627</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>332621519.5669</v>
+        <v>9604671642.4872</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>189403707.5138</v>
+        <v>20152059897.2955</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>632226455.1251</v>
+        <v>28767470695.0717</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>461879987.8917</v>
+        <v>19557693215.974</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>255457700.6809</v>
+        <v>16231459925.0314</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>195276084.7593</v>
+        <v>12424098105.3598</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>68314482.9297</v>
+        <v>6511964508.8826</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>23928411.6059</v>
+        <v>4609082761.5025</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>-5718044.7806</v>
+        <v>3566519205.6262</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>26468673.8959</v>
+        <v>5289796607.8775</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>52461607.4648</v>
+        <v>5006126353.7845</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>4073545.1261</v>
+        <v>6025900262.7799</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>28288111.745</v>
+        <v>7469578578.3184</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>84754626.0529</v>
+        <v>7839593735.8062</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>57117742.1071</v>
+        <v>7860895233.8133</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>133327128.9644</v>
+        <v>5839764462.1143</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>42207712.5526</v>
+        <v>5898286041.2961</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>4525630.9705</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>8649275237.0758</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>9840970723.8533</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>4510682818.88</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5723,95 +5895,117 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>769000</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>235000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>37000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>-2961000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>42000</v>
+      </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="W5" s="3" t="n">
+        <v>143946846</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>161369963</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>133860438</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>30955836</v>
+        <v>917940644.4375</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>1150507</v>
+        <v>793624064</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>8264374</v>
+        <v>721644048</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>2908169</v>
+        <v>562887706</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>20655709</v>
+        <v>989854347</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>30330308.9477</v>
+        <v>1838843200</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>111052629</v>
+        <v>2056340371.7181</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>28066851.72</v>
+        <v>3101368335.8022</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>86722462</v>
+        <v>5269413741.9858</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>372286357.062</v>
+        <v>5878942682.2001</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>363479757.816</v>
+        <v>3855801663.6127</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>400838494.7965</v>
+        <v>3597766301.2183</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>644408586.099</v>
+        <v>1982832090.5801</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>626922842.85</v>
+        <v>1392815191.5219</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>591656248.0272</v>
+        <v>1176116500.068</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>1123132705.986</v>
+        <v>901659259.0289</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>966374377.951</v>
+        <v>649819046.54</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>958803560.0879</v>
+        <v>659468510.1</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>3245394609.0548</v>
+        <v>1245940009.5651</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>3226424324.7664</v>
+        <v>1029464712.9072</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>2113491716.9231</v>
+        <v>1278066021.4106</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>1895771805.4707</v>
+        <v>1676308618.0515</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>2151339847.9155</v>
+        <v>2249759789.3932</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>2787725535.669</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>1647900576.738</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>1794660203.08</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>1689198742.91</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5823,95 +6017,115 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="R6" s="3" t="n">
+        <v>85000</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>214000</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>464000</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>933000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>37512265</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>7166026</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>35100733</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>918847493.4375</v>
+        <v>84160718</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>793624064</v>
+        <v>80387605</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>721644047</v>
+        <v>79689745</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>562887707</v>
+        <v>135933144</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>989854347</v>
+        <v>163198600</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>1838843200</v>
+        <v>196189849.1371</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>2056340372.6981</v>
+        <v>108484498.0493</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>3101368334.9257</v>
+        <v>101211759.8302</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>5269413742.0495</v>
+        <v>190127628.0297</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>5878942682.2611</v>
+        <v>371482126.3623</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>3855801663.6071</v>
+        <v>11302768.5422</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>3597766300.2285</v>
+        <v>52871985.298</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>1982832090.3539</v>
+        <v>83384355.8596</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>1390400591.7497</v>
+        <v>76992968.8485</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>1182623716.6221</v>
+        <v>56925452.7296</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>911377393.098</v>
+        <v>68708334.4916</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>649563464.814</v>
+        <v>69171381.5962</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>774798581.1456</v>
+        <v>103151680.0775</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>1269206378.2579</v>
+        <v>93067003.4077</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>1027000021.43</v>
+        <v>59212139.554</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>1277191303.5226</v>
+        <v>63356169.8684</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>1647567480.7375</v>
+        <v>40301059.9892</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>2253175912.208</v>
+        <v>54082670.4683</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>1608121893.6625</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>76340437.6317</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>139608279.55</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>317273571.95</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5923,11 +6137,9 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5936,82 +6148,94 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>-214185</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>10888444</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>11488408</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>110027344</v>
+        <v>91304644</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>15855492</v>
+        <v>32940794</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>32382282</v>
+        <v>54237461</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45992146</v>
+        <v>59654793</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>367042944</v>
+        <v>135335517</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>1604658298</v>
+        <v>320771590.6533</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>3511921413.58</v>
+        <v>332621519.5669</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>4189750854.5588</v>
+        <v>189403707.515</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>4600172090.6768</v>
+        <v>632226455.1272</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>1380332769.4846</v>
+        <v>461879987.8536</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>4821736617.3757</v>
+        <v>255457700.6809</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>2903816859.8941</v>
+        <v>195276084.7593</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>1538442768.7119</v>
+        <v>68314482.9297</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>695403207.51</v>
+        <v>23928411.6059</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>412624387.29</v>
+        <v>-5718044.7806</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>29957755.7005</v>
+        <v>25629457.85</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>604099156.4609</v>
+        <v>52461607.3792</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>345442314.1106</v>
+        <v>14779330.9841</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>583203575.7095</v>
+        <v>28288112.0792</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>680005915.9922</v>
+        <v>84754627.0571</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>380707732.8472</v>
+        <v>57117742.0204</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>98365945.85</v>
+        <v>133327131.4071</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>357089843.5836</v>
+        <v>42207712.3317</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>1352999345.6959</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>4525630.9849</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>20303760.86</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>10362223.78</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6023,11 +6247,9 @@
       <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -6036,60 +6258,94 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>1463728</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>3786444</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>7202034</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>110027344</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>15855492</v>
+      </c>
       <c r="AB8" s="3" t="n">
-        <v>13216.3203</v>
+        <v>32382282</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>114874</v>
+        <v>45992146</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>234500</v>
+        <v>367042943.05</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>13451884.2</v>
+        <v>1604658297</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>54597604</v>
+        <v>3511921412.08</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>436281795.5375</v>
+        <v>4189750854.61</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>168328364.2322</v>
+        <v>4600172083.6716</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>813187518.8145</v>
+        <v>1380332768.4684</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>-224822649.1682</v>
+        <v>4821736617.6657</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>-793142.3124</v>
+        <v>2905514114.9841</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-673666.0691</v>
+        <v>1538442769.4519</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-150606.43</v>
+        <v>705836190.51</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-264049.56</v>
-      </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>440247751.29</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>86349818.62</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>610763550.0539</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>352406663.3906</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>583203573.7134</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>679941375.9107</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>380707731.6188</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>98365945.5589</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>357089843.5796</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>1370398822.7725</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>712920886.36</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>331325610.97</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6101,12 +6357,10 @@
       <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>4275032000</v>
+        <v>4275164000</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>6503975889</v>
@@ -6124,16 +6378,16 @@
         <v>3098454659</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>3678250068</v>
+        <v>3679005068</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>3652647546</v>
+        <v>3662848239</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>2804250415</v>
+        <v>2808148793</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>3507393596</v>
+        <v>3521920060</v>
       </c>
       <c r="Z9" s="3" t="n">
         <v>67514203</v>
@@ -6142,7 +6396,7 @@
         <v>30343123.2609</v>
       </c>
       <c r="AB9" s="3" t="n">
-        <v>53387575.1804</v>
+        <v>53387575.1808</v>
       </c>
       <c r="AC9" s="3" t="n">
         <v>133185321.62</v>
@@ -6160,10 +6414,10 @@
         <v>453672.3525</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>42670200.6644</v>
+        <v>42754629.9644</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>-674461.6509</v>
+        <v>-674461.6504</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>17795237.7778</v>
@@ -6181,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>100336.0553</v>
+        <v>-1174737.0623</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>4582859.6709</v>
+        <v>-2216909.6992</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>16041348.3991</v>
+        <v>3261529.7546</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -6207,7 +6461,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6321,8 +6581,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6442,6 +6710,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6454,94 +6728,114 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>1036209.25054898</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>-103838.37722726</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>2967006.22452191</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>-2405995.32157636</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>48574156.341975</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>995447.318904538</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>1116311.52917496</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>3382460956.217</v>
+        <v>52042127.7910229</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>3696798865.70812</v>
+        <v>1888427.98723526</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>5955840069.6653</v>
+        <v>13354939.5617436</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>13258668044.8104</v>
+        <v>4610990.90278835</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>10055022534.8485</v>
+        <v>31969600.5799333</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>16050287673.2762</v>
+        <v>45557042.1465068</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>13428650150.5041</v>
+        <v>161556362.967485</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>27423264556.9959</v>
+        <v>39736958.8295125</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>38347492156.3687</v>
+        <v>120284182.843489</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>25808480159.8779</v>
+        <v>511134805.764436</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>21239526757.786</v>
+        <v>494758853.928818</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>15938014017.2824</v>
+        <v>534874891.680422</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>8210409337.77662</v>
+        <v>844566847.052593</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>5714928636.80538</v>
+        <v>806602588.309564</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>4352566886.19028</v>
+        <v>747951080.212487</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>6403124365.40504</v>
+        <v>1404885441.25964</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>5955497936.24319</v>
+        <v>1199441399.27687</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>7071936823.6948</v>
+        <v>1343028322.81617</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>8529874823.19741</v>
+        <v>3875925134.99459</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>8770811456.42923</v>
+        <v>3783014321.31279</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>8679320000.10679</v>
+        <v>2446135733.28177</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>6276774856.7269</v>
+        <v>2119844849.77484</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>5893384224.6054</v>
+        <v>2320748716.37304</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>8250406558.85407</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>2786095857.4864</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>1173073571.80817</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>175384128.023234</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6553,11 +6847,9 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6569,79 +6861,59 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>135981001.082749</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>126809609.210831</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="n">
-        <v>123755451.816644</v>
+        <v>21357.111722575</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>207140135.915896</v>
+        <v>182136.240695403</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>242754543.970447</v>
+        <v>362944.27540562</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>283230399.001777</v>
+        <v>20205137.2607532</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>151675950.175789</v>
+        <v>79427118.5509623</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>137730677.70061</v>
+        <v>617686369.682344</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>253443127.363321</v>
+        <v>233471689.733662</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>490210040.884257</v>
+        <v>1116475091.26764</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>14786595.0754224</v>
+        <v>-306004413.416075</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>67802129.3930724</v>
+        <v>-1045001.28220204</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>105005919.313959</v>
+        <v>-882911.929209235</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>95431404.1544105</v>
+        <v>-193625.739911639</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>69134196.940083</v>
-      </c>
-      <c r="AO15" s="3" t="n">
-        <v>82403774.330566</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>82285585.6240586</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>120559635.194382</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>106407365.135836</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>66326362.9651473</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>70023191.835575</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>46852294.7868799</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>54082670.4924</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>72813385.5706895</v>
-      </c>
+        <v>-333808.30353995</v>
+      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6653,95 +6925,119 @@
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>50</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>9280381.05232191</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>18631001.1448141</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>2668941.90912345</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>-883213.472477398</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>1251808.94309223</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>828149.731653129</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>3885184.80382834</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>1477138689.40219</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>1657888139.69078</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>2727643836.26679</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>147523656.994276</v>
+        <v>3519463760.53055</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>51963349.5018851</v>
+        <v>3846572396.84945</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>84228924.2040188</v>
+        <v>6197450815.20314</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>90904260.4800976</v>
+        <v>13795442216.172</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>201308783.974493</v>
+        <v>10462349237.4059</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>463083416.439554</v>
+        <v>16699296467.4403</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>465049716.193529</v>
+        <v>13972616695.6135</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>257743774.425507</v>
+        <v>28531221900.3914</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>842767835.937447</v>
+        <v>39900524330.4868</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>609499600.869596</v>
+        <v>26851958266.8523</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>334196844.318614</v>
+        <v>22093825962.5598</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>250418710.208629</v>
+        <v>16578592661.6942</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>86028428.336957</v>
+        <v>8534630748.37771</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>29591523.8357201</v>
+        <v>5933045792.51504</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>-6937123.11531894</v>
+        <v>4508751029.81702</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>31747786.5081541</v>
+        <v>6618752274.62981</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>62407804.9467873</v>
+        <v>6214133051.33049</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>4760849.5404698</v>
+        <v>7355816452.18848</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>32302520.0551376</v>
+        <v>8920088600.51061</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>94923070.6217266</v>
+        <v>9192000842.60098</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>63128289.1651081</v>
+        <v>9098127249.9222</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>142565045.068505</v>
+        <v>6534005938.48989</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>42207712.5526</v>
+        <v>6168112542.36184</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>4316539.48558519</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>8649275237.0758</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>9584993989.39251</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>4299024451.29006</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6753,95 +7049,117 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>1590508.80972488</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>469269.589392424</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>72080.9128741368</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>-5636196.31897753</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>76612.9707696727</v>
+      </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="W17" s="3" t="n">
+        <v>253229449.458758</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>280364807.845827</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>229725061.977683</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>50016274.4409263</v>
+        <v>1543217386.29156</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>1814898.49168072</v>
+        <v>1302644741.66692</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>12834290.514441</v>
+        <v>1166151561.64665</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>4431579.40881875</v>
+        <v>892475675.126654</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>30724940.1568473</v>
+        <v>1532033981.78686</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>43786493.2507345</v>
+        <v>2761998148.70564</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>155266543.386132</v>
+        <v>2991508390.83677</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>38193847.3829863</v>
+        <v>4390907363.04805</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>115602409.602499</v>
+        <v>7308684640.65301</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>491271308.536731</v>
+        <v>8071561498.19953</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>475514293.411486</v>
+        <v>5248413346.39481</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>514028427.969735</v>
+        <v>4800823487.87449</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>811503732.319636</v>
+        <v>2598714981.63905</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>775296018.511272</v>
+        <v>1792902566.3918</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>717796448.261059</v>
+        <v>1486832447.86714</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>1347138791.69792</v>
+        <v>1128183125.74652</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>1149589320.63232</v>
+        <v>806624070.012858</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>1120576634.63656</v>
+        <v>805013210.433713</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>3705953419.26128</v>
+        <v>1487887858.69413</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>3613514899.40269</v>
+        <v>1207057511.82626</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>2335896191.48124</v>
+        <v>1479221761.73753</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>2027125274.39705</v>
+        <v>1875591136.62004</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>2151339847.9155</v>
+        <v>2352678638.69284</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>2658928098.23155</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>1647900576.738</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>1747978704.76626</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>1609935123.00686</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6853,95 +7171,115 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="R18" s="3" t="n">
+        <v>165591.286332477</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>342625.916047266</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>398641.538425205</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>846390.915169717</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>1670450.42487181</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>65991096.5600528</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>12450281.7324696</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>60238246.5227486</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>1484609506.30205</v>
+        <v>141488759.700763</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>1251923818.55575</v>
+        <v>131947222.493051</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>1120688553.93221</v>
+        <v>128775842.933265</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>857749866.60624</v>
+        <v>215526157.651574</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>1472387879.57219</v>
+        <v>252588476.009431</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>2654654639.51579</v>
+        <v>294683092.126348</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>2875041001.45333</v>
+        <v>157820315.475811</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>4220394579.49502</v>
+        <v>143295285.611577</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>7024211625.51221</v>
+        <v>263707300.808911</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>7757888006.20985</v>
+        <v>510030628.040264</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>5044266604.06522</v>
+        <v>15385024.0347976</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>4613713950.92139</v>
+        <v>70551850.1252401</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>2496980450.90624</v>
+        <v>109284177.836394</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>1719465250.33094</v>
+        <v>99109266.0985161</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>1434757270.37638</v>
+        <v>71964478.1983783</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>1093149396.83908</v>
+        <v>85969930.2096181</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>772714218.485795</v>
+        <v>85862828.5037576</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>905525618.304672</v>
+        <v>125917255.894793</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>1449321356.52465</v>
+        <v>111139592.076907</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>1150214449.67344</v>
+        <v>69426816.6201859</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>1411591196.59798</v>
+        <v>73327843.5070517</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>1761723468.95328</v>
+        <v>45092120.9246052</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>2253175912.208</v>
+        <v>56556768.4755146</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>1533824056.10975</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>76340437.6317</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>135976882.556177</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>302385891.078872</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6953,11 +7291,9 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -6966,82 +7302,94 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>-376791.511168811</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>18917625.3935192</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>19715871.8382866</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>177774485.99709</v>
+        <v>153498938.001928</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>25011676.1702934</v>
+        <v>54068612.6302154</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>50288577.7807918</v>
+        <v>87645841.4923409</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>70084595.2147161</v>
+        <v>94584498.9856925</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>545968791.939945</v>
+        <v>209463757.587249</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>2316572503.63881</v>
+        <v>481808639.008359</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>4910139484.67898</v>
+        <v>483888796.058549</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>5701483953.67498</v>
+        <v>268157162.861179</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>6132101949.18592</v>
+        <v>876899026.7713</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>1821495397.33978</v>
+        <v>634143404.397473</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>6307929482.52253</v>
+        <v>347722139.949686</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>3723805061.09118</v>
+        <v>260574460.885678</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>1937360978.26925</v>
+        <v>89533486.5194753</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>859983559.685779</v>
+        <v>30801868.6463493</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>500595270.734032</v>
+        <v>-7228683.99317745</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>35932757.1900093</v>
+        <v>32068346.8603685</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>718630330.765721</v>
+        <v>65120890.944864</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>403726688.052382</v>
+        <v>18041129.3357566</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>665966868.711691</v>
+        <v>33781352.3804505</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>761589692.421407</v>
+        <v>99375634.7047592</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>420769921.218285</v>
+        <v>66107544.9644098</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>105181485.6604</v>
+        <v>149177295.424756</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>357089843.5836</v>
+        <v>44138571.4417389</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>1290488583.3018</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>4525630.9849</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>19775633.0413065</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>9875988.88875552</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7053,11 +7401,9 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
-        <v>58</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -7066,60 +7412,94 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>2574971.56691693</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>6578582.68505016</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>12359796.00646</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>184975043.056658</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>26025008.8388725</v>
+      </c>
       <c r="AB20" s="3" t="n">
-        <v>20524.4939619267</v>
+        <v>52328636.0202644</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>175049.404972216</v>
+        <v>72921954.2625321</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>348813.902576798</v>
+        <v>568085863.573683</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>19419875.9316505</v>
+        <v>2410245335.55615</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>76334809.239364</v>
+        <v>5109048344.66621</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>593699659.690029</v>
+        <v>5931835849.50911</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>224384364.337919</v>
+        <v>6380445472.40678</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>1073087124.67055</v>
+        <v>1895143639.07749</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>-294119220.845946</v>
+        <v>6563217982.85815</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>-1017112.13192294</v>
+        <v>3877089071.30601</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-848347.680655765</v>
+        <v>2016294920.96795</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-186250.296783546</v>
+        <v>908588249.985133</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-320344.519245543</v>
-      </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>556555954.857083</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>108043484.612222</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>758144260.595557</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>430182814.083544</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>696455294.647842</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>797237957.847786</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>440627598.291604</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>110059862.276419</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>373425487.931976</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>1370398822.7725</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>694376866.106288</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>315778555.064158</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7131,75 +7511,73 @@
       <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>8496761048.00178</v>
+        <v>8842244479.86823</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>12481647125.4824</v>
+        <v>12987736573.8266</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>7801467311.04532</v>
+        <v>8117503923.54916</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>8042332737.85858</v>
+        <v>8368380135.38311</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>6479188748.05532</v>
+        <v>6741593612.09646</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>5432109078.79528</v>
+        <v>5651948005.26484</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>6329626008.39484</v>
+        <v>6586919162.85762</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>6175858018.88923</v>
+        <v>6443635750.19179</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>4682923414.73451</v>
+        <v>4878888748.03755</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>5785017364.18835</v>
+        <v>6044155511.15966</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>109084726.573316</v>
+        <v>113503081.623609</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>47865583.2942256</v>
+        <v>49804827.946299</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>82909080.5579242</v>
+        <v>86272455.7102116</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>202952898.833629</v>
+        <v>211169401.219379</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>162724464.163462</v>
+        <v>169316395.649031</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>201694784.231317</v>
+        <v>209850506.48701</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>492223988.908037</v>
+        <v>512163893.644283</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>617365.024268755</v>
+        <v>642307.8645666</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>56880050.4652045</v>
+        <v>59300734.8896945</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>-890023.63774589</v>
+        <v>-926009.825859271</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>23280223.2752766</v>
+        <v>24222398.2464301</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>-31718.5987303145</v>
+        <v>-33004.9490204428</v>
       </c>
       <c r="AL21" s="3" t="n">
         <v>0</v>
@@ -7211,13 +7589,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>120347.837419546</v>
+        <v>-1469866.26888663</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>5451724.15145544</v>
+        <v>-2751862.58996428</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>18747907.2381084</v>
+        <v>3981349.37220504</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -7237,7 +7615,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7281,6 +7665,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7434,115 +7820,115 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="4" t="n">
         <v>5737000</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="4" t="n">
         <v>9278000</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="4" t="n">
         <v>2638000</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="4" t="n">
         <v>-5573000</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="4" t="n">
         <v>672000</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="4" t="n">
         <v>219000</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="4" t="n">
         <v>1260000</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="4" t="n">
         <v>671993186</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="4" t="n">
         <v>601007258</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="4" t="n">
         <v>1057202492</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="4" t="n">
         <v>2567053933</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="4" t="n">
         <v>2039148176.8</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="4" t="n">
         <v>2458932139.99</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="4" t="n">
         <v>6164126681.21</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="4" t="n">
         <v>3756314887.29</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="4" t="n">
         <v>6393170370.07</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="4" t="n">
         <v>8563835455.88</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="4" t="n">
         <v>12917488183.77</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="4" t="n">
         <v>17694784391.04</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="4" t="n">
         <v>9980547947.37</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>8200598168.8238</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="4" t="n">
         <v>6127439826.4516</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="4" t="n">
         <v>3630730752.3167</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="4" t="n">
         <v>2786384860.3542</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="4" t="n">
         <v>2908209773.9275</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="4" t="n">
         <v>3898799756.1311</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="4" t="n">
         <v>4225888919.115</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>3772309202.0111</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="4" t="n">
         <v>5163455534.9</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="4" t="n">
         <v>6260981165.43</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="4" t="n">
         <v>5759093412.22</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="4" t="n">
         <v>3390775312.78</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="4" t="n">
         <v>3693970710.99</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="4" t="n">
         <v>4649519417.58</v>
       </c>
-      <c r="AX2" s="13" t="n">
+      <c r="AX2" s="4" t="n">
         <v>4737836216.76</v>
       </c>
-      <c r="AY2" s="13" t="n">
+      <c r="AY2" s="4" t="n">
         <v>1594231607.68</v>
       </c>
-      <c r="AZ2" s="13"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7557,113 +7943,113 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="4" t="n">
         <v>54000</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="4" t="n">
         <v>235000</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="4" t="n">
         <v>292000</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="4" t="n">
         <v>884000</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13" t="n">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="n">
         <v>243000</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="4" t="n">
         <v>1221000</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="4" t="n">
         <v>8514815</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="4" t="n">
         <v>42803630</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="4" t="n">
         <v>68504175</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="4" t="n">
         <v>102774117</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="4" t="n">
         <v>120885561</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="4" t="n">
         <v>183530727.78</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="4" t="n">
         <v>326891545.5</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="4" t="n">
         <v>418175853.94</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="4" t="n">
         <v>509943877.34</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="4" t="n">
         <v>504264516.51</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="4" t="n">
         <v>494436785.25</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="4" t="n">
         <v>638293953.77</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="4" t="n">
         <v>651894974.89</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>692100808.9208</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="4" t="n">
         <v>732790835.2834</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="4" t="n">
         <v>593749315.1256</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="4" t="n">
         <v>477678382.6022</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="4" t="n">
         <v>506735211.3537</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="4" t="n">
         <v>589654540.5028</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="4" t="n">
         <v>526295077.4845</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>525474084.487</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="4" t="n">
         <v>878119428.16</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="4" t="n">
         <v>785223956.28</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="4" t="n">
         <v>589746121.93</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="4" t="n">
         <v>409678101.77</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="4" t="n">
         <v>461544997.49</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="4" t="n">
         <v>543765155.25</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="4" t="n">
         <v>673213541.72</v>
       </c>
-      <c r="AY3" s="13" t="n">
+      <c r="AY3" s="4" t="n">
         <v>351852758.51</v>
       </c>
-      <c r="AZ3" s="13"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7678,81 +8064,81 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="4" t="n">
         <v>98000</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="n">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>495378</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="4" t="n">
         <v>204268</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13" t="n">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4" t="n">
         <v>21226070.5736</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="4" t="n">
         <v>759941264.7233</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="4" t="n">
         <v>604487924.1251</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="4" t="n">
         <v>114837584.7538</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="4" t="n">
         <v>209831912.8197</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="4" t="n">
         <v>118711632.3364</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="4" t="n">
         <v>47900237.6385</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>56920411.7879</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="4" t="n">
         <v>73266797.563</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="4" t="n">
         <v>79637531.1846</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="4" t="n">
         <v>122401536.8601</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="4" t="n">
         <v>164283184.9282</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="4" t="n">
         <v>119939124.7293</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="4" t="n">
         <v>283475400.6124</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="4" t="n">
         <v>288369839.4532</v>
       </c>
-      <c r="AY4" s="13" t="n">
+      <c r="AY4" s="4" t="n">
         <v>121316276.71</v>
       </c>
-      <c r="AZ4" s="13"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7767,107 +8153,107 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="n">
         <v>136000</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="4" t="n">
         <v>498000</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="4" t="n">
         <v>1377000</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="4" t="n">
         <v>2469531</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="4" t="n">
         <v>2513449</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="4" t="n">
         <v>4466020</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="4" t="n">
         <v>22315428</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="4" t="n">
         <v>26933843</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="4" t="n">
         <v>45501003.3301</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="4" t="n">
         <v>76852605</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="4" t="n">
         <v>106973980.8999</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="4" t="n">
         <v>150437934.3984</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="4" t="n">
         <v>163671921.5192</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="4" t="n">
         <v>181866187.7916</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="4" t="n">
         <v>98071860.1189</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="4" t="n">
         <v>247874885.6489</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>171532518.4082</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="4" t="n">
         <v>133614340.0305</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="4" t="n">
         <v>106045471.9929</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="4" t="n">
         <v>77460337.6685</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="4" t="n">
         <v>77644704.6359</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="4" t="n">
         <v>38691959.4711</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="4" t="n">
         <v>36582612.5629</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>37840199.504</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="4" t="n">
         <v>48887107.339</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="4" t="n">
         <v>71741070.4917</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="4" t="n">
         <v>125776252.2645</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="4" t="n">
         <v>168355554.7664</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="4" t="n">
         <v>34949063.9193</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="4" t="n">
         <v>28682218.1085</v>
       </c>
-      <c r="AX5" s="13" t="n">
+      <c r="AX5" s="4" t="n">
         <v>33160167.71</v>
       </c>
-      <c r="AY5" s="13" t="n">
+      <c r="AY5" s="4" t="n">
         <v>5799306.2</v>
       </c>
-      <c r="AZ5" s="13"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7882,101 +8268,101 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>11269281</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="4" t="n">
         <v>15859303</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="4" t="n">
         <v>12786607</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="4" t="n">
         <v>123125334</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="4" t="n">
         <v>218853345</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="4" t="n">
         <v>276817698.3203</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="4" t="n">
         <v>468345261</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="4" t="n">
         <v>480349307.5091</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="4" t="n">
         <v>1275203785.3917</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="4" t="n">
         <v>1084465304.4663</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="4" t="n">
         <v>1132844429.0062</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="4" t="n">
         <v>1058552498.467</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="4" t="n">
         <v>3683927087.3396</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>4517216205.7898</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="4" t="n">
         <v>3386506662.337</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="4" t="n">
         <v>999938309.0311</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="4" t="n">
         <v>589023461.7002</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="4" t="n">
         <v>342322284.5268</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="4" t="n">
         <v>398641233.4044</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="4" t="n">
         <v>613551555.8887</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>457036309.0818</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="4" t="n">
         <v>452429262.101</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="4" t="n">
         <v>597987575.2476</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="4" t="n">
         <v>344225539.2126</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="4" t="n">
         <v>236755352.938</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="4" t="n">
         <v>122507629.8245</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="4" t="n">
         <v>240471910.5197</v>
       </c>
-      <c r="AX6" s="13" t="n">
+      <c r="AX6" s="4" t="n">
         <v>307919058.1801</v>
       </c>
-      <c r="AY6" s="13" t="n">
+      <c r="AY6" s="4" t="n">
         <v>269275276.79</v>
       </c>
-      <c r="AZ6" s="13"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7991,109 +8377,109 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="n">
         <v>85000</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="4" t="n">
         <v>180000</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="4" t="n">
         <v>78000</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13" t="n">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="4" t="n">
         <v>348569419</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="4" t="n">
         <v>456116890</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="4" t="n">
         <v>634571529</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="4" t="n">
         <v>556291028.419</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="4" t="n">
         <v>890663639.4609</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="4" t="n">
         <v>1813994521.9258</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="4" t="n">
         <v>2599956323.8087</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="4" t="n">
         <v>3781070117.9663</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="4" t="n">
         <v>6932972391.4107</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="4" t="n">
         <v>5813272591.5446</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="4" t="n">
         <v>13471961288.8451</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="4" t="n">
         <v>20267513356.6863</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="4" t="n">
         <v>14270885299.8344</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>11729510218.2631</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="4" t="n">
         <v>8433915343.2038</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="4" t="n">
         <v>4893721355.1361</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="4" t="n">
         <v>3389729174.5099</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="4" t="n">
         <v>1780728347.1637</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="4" t="n">
         <v>2449273122.2905</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="4" t="n">
         <v>1902180626.7556</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>3409599388.5963</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="4" t="n">
         <v>6049529744.1783</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="4" t="n">
         <v>5123819646.087</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="4" t="n">
         <v>4812391769.0819</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="4" t="n">
         <v>5312829959.0641</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="4" t="n">
         <v>6387741184.1576</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="4" t="n">
         <v>8788622460.6187</v>
       </c>
-      <c r="AX7" s="13" t="n">
+      <c r="AX7" s="4" t="n">
         <v>7672366690.42</v>
       </c>
-      <c r="AY7" s="13" t="n">
+      <c r="AY7" s="4" t="n">
         <v>4700386740.85</v>
       </c>
-      <c r="AZ7" s="13"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -8108,77 +8494,77 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="4" t="n">
         <v>16880561</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="4" t="n">
         <v>23410394</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="4" t="n">
         <v>14691568</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="4" t="n">
         <v>23800285</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="4" t="n">
         <v>1305095</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="4" t="n">
         <v>5981747</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="4" t="n">
         <v>5340117</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="4" t="n">
         <v>2606539</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="4" t="n">
         <v>44205</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="4" t="n">
         <v>2237496</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13" t="n">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>40343.0392</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="4" t="n">
         <v>1348949.963</v>
       </c>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13" t="n">
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13" t="n">
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4" t="n">
         <v>44088.1406</v>
       </c>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -8189,71 +8575,71 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="4" t="n">
         <v>4275032000</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="4" t="n">
         <v>6503975889</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="4" t="n">
         <v>4166812450</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="4" t="n">
         <v>4396364530</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="4" t="n">
         <v>3619043411</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="4" t="n">
         <v>3098454659</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="4" t="n">
         <v>3678250068</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="4" t="n">
         <v>3652647546</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="4" t="n">
         <v>2804250415</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="4" t="n">
         <v>3507393596</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13" t="n">
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="13" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="13"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -8268,115 +8654,115 @@
       <c r="O10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="13" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="13" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="13"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8513,115 +8899,115 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="4" t="n">
         <v>11865733.4738513</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="4" t="n">
         <v>18527162.7675869</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="4" t="n">
         <v>5139174.27464792</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="4" t="n">
         <v>-10608079.0562856</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="4" t="n">
         <v>1251808.94309223</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="4" t="n">
         <v>399481.919013293</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="4" t="n">
         <v>2255913.75706161</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="4" t="n">
         <v>1182161813.61012</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="4" t="n">
         <v>1044192371.80539</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1814321778.90872</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="4" t="n">
         <v>4315662766.38867</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="4" t="n">
         <v>3347032644.90252</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="4" t="n">
         <v>3973548403.78657</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="4" t="n">
         <v>9773411397.58187</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="4" t="n">
         <v>5813786716.25933</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="4" t="n">
         <v>9602735418.927</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="4" t="n">
         <v>12458436344.663</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="4" t="n">
         <v>18288538424.6147</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="4" t="n">
         <v>24542692077.4917</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="4" t="n">
         <v>13702907290.9379</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>11162433297.295</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="4" t="n">
         <v>8176394622.79835</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="4" t="n">
         <v>4758463636.51631</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="4" t="n">
         <v>3586776334.35746</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="4" t="n">
         <v>3676524100.14635</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="4" t="n">
         <v>4878295266.73863</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="4" t="n">
         <v>5245619896.04432</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>4604857843.77954</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="4" t="n">
         <v>6166141820.87818</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="4" t="n">
         <v>7341062061.0716</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="4" t="n">
         <v>6665521311.51462</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="4" t="n">
         <v>3793876649.225</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="4" t="n">
         <v>3862957292.00816</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="4" t="n">
         <v>4649519417.58</v>
       </c>
-      <c r="AX14" s="13" t="n">
+      <c r="AX14" s="4" t="n">
         <v>4614598796.67128</v>
       </c>
-      <c r="AY14" s="13" t="n">
+      <c r="AY14" s="4" t="n">
         <v>1519424206.40819</v>
       </c>
-      <c r="AZ14" s="13"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8636,113 +9022,113 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="4" t="n">
         <v>111687.22461007</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="4" t="n">
         <v>469269.589392424</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="4" t="n">
         <v>568854.771871567</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="4" t="n">
         <v>1682673.94325435</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13" t="n">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
         <v>443260.759453106</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="4" t="n">
         <v>2186087.85505733</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="4" t="n">
         <v>14979153.5876596</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="4" t="n">
         <v>74367194.9658554</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="4" t="n">
         <v>117563681.119922</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="4" t="n">
         <v>172781110.822642</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="4" t="n">
         <v>198420067.539819</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="4" t="n">
         <v>296579242.084725</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="4" t="n">
         <v>518296544.148199</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="4" t="n">
         <v>647226150.534669</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="4" t="n">
         <v>765951139.910599</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="4" t="n">
         <v>733590388.579753</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="4" t="n">
         <v>700022017.976293</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="4" t="n">
         <v>885314656.34779</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="4" t="n">
         <v>895026650.986623</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>942068975.401385</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="4" t="n">
         <v>977828785.748653</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="4" t="n">
         <v>778172417.062003</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="4" t="n">
         <v>614891913.364016</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="4" t="n">
         <v>640608608.648833</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="4" t="n">
         <v>737793457.953891</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="4" t="n">
         <v>653293066.260021</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>641446215.056503</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="4" t="n">
         <v>1048640565.04514</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="4" t="n">
         <v>920682819.925998</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="4" t="n">
         <v>682566692.835117</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="4" t="n">
         <v>458381355.481123</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="4" t="n">
         <v>482659109.434587</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="4" t="n">
         <v>543765155.25</v>
       </c>
-      <c r="AX15" s="13" t="n">
+      <c r="AX15" s="4" t="n">
         <v>655702362.300823</v>
       </c>
-      <c r="AY15" s="13" t="n">
+      <c r="AY15" s="4" t="n">
         <v>335342490.887872</v>
       </c>
-      <c r="AZ15" s="13"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8757,81 +9143,81 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="4" t="n">
         <v>202691.629847904</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13" t="n">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>871462.638465735</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="4" t="n">
         <v>354896.02590447</v>
       </c>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13" t="n">
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4" t="n">
         <v>28892355.4189302</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="4" t="n">
         <v>1014058048.14316</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="4" t="n">
         <v>792246520.573612</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="4" t="n">
         <v>147824780.829932</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="4" t="n">
         <v>265267000.811843</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="4" t="n">
         <v>148535557.185975</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="4" t="n">
         <v>59458836.8012257</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>69482746.6828372</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="4" t="n">
         <v>87494403.9861437</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="4" t="n">
         <v>93375789.4121571</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="4" t="n">
         <v>141666403.738473</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="4" t="n">
         <v>183813459.066507</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="4" t="n">
         <v>125425931.259199</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="4" t="n">
         <v>283475400.6124</v>
       </c>
-      <c r="AX16" s="13" t="n">
+      <c r="AX16" s="4" t="n">
         <v>280868956.472084</v>
       </c>
-      <c r="AY16" s="13" t="n">
+      <c r="AY16" s="4" t="n">
         <v>115623656.297177</v>
       </c>
-      <c r="AZ16" s="13"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8846,107 +9232,107 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="n">
         <v>253342.286101999</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="4" t="n">
         <v>908410.939126119</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="4" t="n">
         <v>2465391.46307448</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="4" t="n">
         <v>4344367.33369856</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="4" t="n">
         <v>4366876.16960838</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="4" t="n">
         <v>7664375.94723523</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="4" t="n">
         <v>37516103.770784</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="4" t="n">
         <v>44208877.4123064</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="4" t="n">
         <v>73528031.218357</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="4" t="n">
         <v>121852155.94781</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="4" t="n">
         <v>165567564.967884</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="4" t="n">
         <v>225962331.265374</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="4" t="n">
         <v>238105487.449033</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="4" t="n">
         <v>257485566.56269</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="4" t="n">
         <v>136025814.792284</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="4" t="n">
         <v>340322655.199885</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>233485442.845833</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="4" t="n">
         <v>178293643.397032</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="4" t="n">
         <v>138984010.856062</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="4" t="n">
         <v>99710887.0184559</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="4" t="n">
         <v>98157509.269738</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="4" t="n">
         <v>48412540.9241364</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="4" t="n">
         <v>45410204.5705019</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>46191531.5434062</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="4" t="n">
         <v>58380446.0069988</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="4" t="n">
         <v>84117111.5024608</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="4" t="n">
         <v>145572268.053956</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="4" t="n">
         <v>188369959.39784</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="4" t="n">
         <v>36547864.5822118</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="4" t="n">
         <v>28682218.1085</v>
       </c>
-      <c r="AX17" s="13" t="n">
+      <c r="AX17" s="4" t="n">
         <v>32297627.6534583</v>
       </c>
-      <c r="AY17" s="13" t="n">
+      <c r="AY17" s="4" t="n">
         <v>5527180.72970347</v>
       </c>
-      <c r="AZ17" s="13"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8961,101 +9347,101 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>19824774.9271703</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="4" t="n">
         <v>27554015.3539215</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="4" t="n">
         <v>21943780.6229147</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="4" t="n">
         <v>206995035.325177</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="4" t="n">
         <v>359223178.822948</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="4" t="n">
         <v>447327726.297063</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="4" t="n">
         <v>742575736.772876</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="4" t="n">
         <v>743454291.494592</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="4" t="n">
         <v>1915394686.43889</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="4" t="n">
         <v>1577650812.33693</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="4" t="n">
         <v>1603877516.60741</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="4" t="n">
         <v>1468213878.37256</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="4" t="n">
         <v>5057889768.23581</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>6148713002.21513</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="4" t="n">
         <v>4518920731.70108</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="4" t="n">
         <v>1310526835.19647</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="4" t="n">
         <v>758220963.251654</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="4" t="n">
         <v>432759748.063246</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="4" t="n">
         <v>498791875.367641</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="4" t="n">
         <v>761605028.059454</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>557904222.603327</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="4" t="n">
         <v>540286049.753707</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="4" t="n">
         <v>701146319.666474</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="4" t="n">
         <v>398403447.098237</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="4" t="n">
         <v>264901245.949581</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="4" t="n">
         <v>128111936.716022</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="4" t="n">
         <v>240471910.5197</v>
       </c>
-      <c r="AX18" s="13" t="n">
+      <c r="AX18" s="4" t="n">
         <v>299909674.024517</v>
       </c>
-      <c r="AY18" s="13" t="n">
+      <c r="AY18" s="4" t="n">
         <v>256639858.205669</v>
       </c>
-      <c r="AZ18" s="13"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -9070,109 +9456,109 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13" t="n">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
         <v>165591.286332477</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="4" t="n">
         <v>342625.916047266</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="4" t="n">
         <v>145299.252323206</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13" t="n">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W19" s="13" t="n">
+      <c r="W19" s="4" t="n">
         <v>613198861.41534</v>
       </c>
-      <c r="X19" s="13" t="n">
+      <c r="X19" s="4" t="n">
         <v>792459277.071819</v>
       </c>
-      <c r="Y19" s="13" t="n">
+      <c r="Y19" s="4" t="n">
         <v>1089022163.73144</v>
       </c>
-      <c r="Z19" s="13" t="n">
+      <c r="Z19" s="4" t="n">
         <v>935221674.839638</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="4" t="n">
         <v>1461924302.91235</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="4" t="n">
         <v>2931351752.18994</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="4" t="n">
         <v>4122310277.26689</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="4" t="n">
         <v>5852101297.32675</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="4" t="n">
         <v>10413534394.9411</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="4" t="n">
         <v>8456991836.08264</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="4" t="n">
         <v>19073559672.0366</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="4" t="n">
         <v>28111070951.5894</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="4" t="n">
         <v>19593374958.413</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>15965893307.5221</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="4" t="n">
         <v>11254132560.1629</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="4" t="n">
         <v>6413748830.25951</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="4" t="n">
         <v>4363431827.38498</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="4" t="n">
         <v>2251175531.71538</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="4" t="n">
         <v>3064604038.87901</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="4" t="n">
         <v>2361187606.3389</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>4162097974.45904</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="4" t="n">
         <v>7224281898.06165</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="4" t="n">
         <v>6007728983.33408</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="4" t="n">
         <v>5569817608.46417</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="4" t="n">
         <v>5944428534.3905</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="4" t="n">
         <v>6679958591.27677</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="4" t="n">
         <v>8788622460.6187</v>
       </c>
-      <c r="AX19" s="13" t="n">
+      <c r="AX19" s="4" t="n">
         <v>7472798230.54855</v>
       </c>
-      <c r="AY19" s="13" t="n">
+      <c r="AY19" s="4" t="n">
         <v>4479826744.82334</v>
       </c>
-      <c r="AZ19" s="13"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -9187,77 +9573,77 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="13" t="n">
+      <c r="W20" s="4" t="n">
         <v>29696066.8980895</v>
       </c>
-      <c r="X20" s="13" t="n">
+      <c r="X20" s="4" t="n">
         <v>40673310.530567</v>
       </c>
-      <c r="Y20" s="13" t="n">
+      <c r="Y20" s="4" t="n">
         <v>25212986.1501674</v>
       </c>
-      <c r="Z20" s="13" t="n">
+      <c r="Z20" s="4" t="n">
         <v>40012405.8491835</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="4" t="n">
         <v>2142166.82210608</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="4" t="n">
         <v>9666294.10269197</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="4" t="n">
         <v>8466918.84372106</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="4" t="n">
         <v>4034236.28431339</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="4" t="n">
         <v>66397.248097898</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="4" t="n">
         <v>3255048.7023076</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13" t="n">
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="4" t="n">
         <v>54913.8580880796</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="4" t="n">
         <v>1800025.38356781</v>
       </c>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13" t="n">
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13" t="n">
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4" t="n">
         <v>52649.5726981567</v>
       </c>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -9268,71 +9654,71 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="4" t="n">
         <v>8841971466.65252</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="4" t="n">
         <v>12987736573.8266</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="4" t="n">
         <v>8117503923.54916</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="4" t="n">
         <v>8368380135.38311</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="4" t="n">
         <v>6741593612.09646</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="4" t="n">
         <v>5651948005.26484</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="4" t="n">
         <v>6585567405.01113</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="4" t="n">
         <v>6425690821.59997</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="4" t="n">
         <v>4872115690.78104</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="4" t="n">
         <v>6019225868.8204</v>
       </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13" t="n">
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="13" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="13"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9341,43 +9727,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -699,18 +699,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -748,11 +748,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1849,7 +1849,7 @@
         <v>7667757414.94505</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>4677637301.10305</v>
+        <v>4677637301.10304</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>3885854145.73635</v>
@@ -9078,7 +9078,7 @@
         <v>885314656.34779</v>
       </c>
       <c r="AI15" s="4" t="n">
-        <v>895026650.986623</v>
+        <v>895026650.986624</v>
       </c>
       <c r="AJ15" s="4" t="n">
         <v>942068975.401385</v>
@@ -11175,7 +11175,7 @@
         <v>885314656.34779</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>895026650.986623</v>
+        <v>895026650.986624</v>
       </c>
       <c r="AI15" s="5" t="n">
         <v>942068975.401385</v>
